--- a/docs/design/CrossMdlAssign.xlsx
+++ b/docs/design/CrossMdlAssign.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="420" windowWidth="25680" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="780" yWindow="140" windowWidth="25720" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,20 +49,6 @@
             <family val="2"/>
           </rPr>
           <t>Converted to DB values of: Vistor Center, At VC, Cluster, or Normal</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>= 'Visitor Ctr'</t>
         </r>
       </text>
     </comment>
@@ -384,7 +370,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="533">
   <si>
     <t>Local Var</t>
   </si>
@@ -1024,45 +1010,12 @@
     <t>editDB.php</t>
   </si>
   <si>
-    <t>&lt;p&gt; Id</t>
-  </si>
-  <si>
-    <t>locality</t>
-  </si>
-  <si>
-    <t>Cannot change</t>
-  </si>
-  <si>
-    <t>Index page only</t>
-  </si>
-  <si>
-    <t>gnme</t>
-  </si>
-  <si>
-    <t>Box ID</t>
-  </si>
-  <si>
-    <t>ctip</t>
-  </si>
-  <si>
-    <t>ctype</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>hlgth</t>
   </si>
   <si>
     <t>helev</t>
   </si>
   <si>
-    <t>dif</t>
-  </si>
-  <si>
-    <t>sun</t>
-  </si>
-  <si>
     <t>purl1</t>
   </si>
   <si>
@@ -1072,33 +1025,15 @@
     <t>tips</t>
   </si>
   <si>
-    <t>ridX</t>
-  </si>
-  <si>
-    <t>refX</t>
-  </si>
-  <si>
     <t>rtype[]</t>
   </si>
   <si>
-    <t>refcnt</t>
-  </si>
-  <si>
-    <t>No of references</t>
-  </si>
-  <si>
     <t>pctxt[]</t>
   </si>
   <si>
-    <t>plabl[]</t>
-  </si>
-  <si>
     <t>plnk[]</t>
   </si>
   <si>
-    <t>alabl[]</t>
-  </si>
-  <si>
     <t>alnk[]</t>
   </si>
   <si>
@@ -1123,9 +1058,6 @@
     <t>clusgrp</t>
   </si>
   <si>
-    <t>algorithm</t>
-  </si>
-  <si>
     <t>NON-HIKE DATA</t>
   </si>
   <si>
@@ -1342,45 +1274,9 @@
     <t>hdatf</t>
   </si>
   <si>
-    <t>displayIndexPg.php</t>
-  </si>
-  <si>
-    <t>$index[1]</t>
-  </si>
-  <si>
-    <t>$index[2]</t>
-  </si>
-  <si>
-    <t>$index[3]</t>
-  </si>
-  <si>
-    <t>$index[10]</t>
-  </si>
-  <si>
-    <t>$index[11]</t>
-  </si>
-  <si>
-    <t>$index[19]</t>
-  </si>
-  <si>
-    <t>$index[20]</t>
-  </si>
-  <si>
     <t>$parkMap</t>
   </si>
   <si>
-    <t>$index[38]</t>
-  </si>
-  <si>
-    <t>$index[39]</t>
-  </si>
-  <si>
-    <t>$index[0]</t>
-  </si>
-  <si>
-    <t>indx[]</t>
-  </si>
-  <si>
     <t>pmapow</t>
   </si>
   <si>
@@ -1396,30 +1292,6 @@
     <t>$pkmapow</t>
   </si>
   <si>
-    <t>$import[0]</t>
-  </si>
-  <si>
-    <t>$import[1]</t>
-  </si>
-  <si>
-    <t>$import[2]</t>
-  </si>
-  <si>
-    <t>$import[3]</t>
-  </si>
-  <si>
-    <t>$import[4]</t>
-  </si>
-  <si>
-    <t>$import[5]</t>
-  </si>
-  <si>
-    <t>$import[6]</t>
-  </si>
-  <si>
-    <t>$import[7]</t>
-  </si>
-  <si>
     <t>Park Map</t>
   </si>
   <si>
@@ -1427,27 +1299,6 @@
   </si>
   <si>
     <t>22</t>
-  </si>
-  <si>
-    <t>$index[21]</t>
-  </si>
-  <si>
-    <t>$import[8]</t>
-  </si>
-  <si>
-    <t>$import[9]</t>
-  </si>
-  <si>
-    <t>$import[10]</t>
-  </si>
-  <si>
-    <t>$index[25]</t>
-  </si>
-  <si>
-    <t>$import[12]</t>
-  </si>
-  <si>
-    <t>$import[11]</t>
   </si>
   <si>
     <t>(no longer req'd)</t>
@@ -2085,6 +1936,123 @@
   </si>
   <si>
     <t>name used for tmpmap</t>
+  </si>
+  <si>
+    <t>displayIndexPg.php (from 'enterHike.html')</t>
+  </si>
+  <si>
+    <t>editIndx.php</t>
+  </si>
+  <si>
+    <t>saveIndxChgs.php</t>
+  </si>
+  <si>
+    <t>indexPageTemplate.php</t>
+  </si>
+  <si>
+    <t>$indxName</t>
+  </si>
+  <si>
+    <t>$indxLocale</t>
+  </si>
+  <si>
+    <t>$indxLat</t>
+  </si>
+  <si>
+    <t>$indxLng</t>
+  </si>
+  <si>
+    <t>$indxDirs</t>
+  </si>
+  <si>
+    <t>info</t>
+  </si>
+  <si>
+    <t>$indxInfo</t>
+  </si>
+  <si>
+    <t>$indxRefs</t>
+  </si>
+  <si>
+    <t>#refcnt</t>
+  </si>
+  <si>
+    <t>$noOfRefs</t>
+  </si>
+  <si>
+    <t>delref[]</t>
+  </si>
+  <si>
+    <t>$thisref</t>
+  </si>
+  <si>
+    <t>rid_n</t>
+  </si>
+  <si>
+    <t>$indxRefs-&gt;rit1</t>
+  </si>
+  <si>
+    <t>$indxRefs-&gt;ri2</t>
+  </si>
+  <si>
+    <t>$nxtPg</t>
+  </si>
+  <si>
+    <t>$indxTitle</t>
+  </si>
+  <si>
+    <t>$indxLoc</t>
+  </si>
+  <si>
+    <t>$pkMapName</t>
+  </si>
+  <si>
+    <t>(see uploads)</t>
+  </si>
+  <si>
+    <t>-&gt;addChild()</t>
+  </si>
+  <si>
+    <t>$hikeRefTypes</t>
+  </si>
+  <si>
+    <t>$hikeRefItems1</t>
+  </si>
+  <si>
+    <t>newno</t>
+  </si>
+  <si>
+    <t>ptitle</t>
+  </si>
+  <si>
+    <t>pkmap</t>
+  </si>
+  <si>
+    <t>&lt;cnvt-xml)</t>
+  </si>
+  <si>
+    <t>$hikeRefItems2</t>
+  </si>
+  <si>
+    <t>$indxPgTitle</t>
+  </si>
+  <si>
+    <t>$newPgNo</t>
+  </si>
+  <si>
+    <t>$dupFile</t>
+  </si>
+  <si>
+    <t>$owFile</t>
+  </si>
+  <si>
+    <t>$mapName</t>
+  </si>
+  <si>
+    <t>conditionally set &lt;rlock&gt;</t>
+  </si>
+  <si>
+    <t>convert to xml in routine 'refEdits.php'</t>
   </si>
 </sst>
 </file>
@@ -2278,12 +2246,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2324,8 +2286,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -2575,8 +2543,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="209">
+  <cellStyleXfs count="235">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2786,8 +2765,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="210">
+  <cellXfs count="220">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2800,8 +2805,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2819,58 +2822,47 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2880,80 +2872,75 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2963,39 +2950,35 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3010,35 +2993,50 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3065,39 +3063,74 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="209">
+  <cellStyles count="235">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3202,6 +3235,19 @@
     <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3306,6 +3352,19 @@
     <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3638,9 +3697,9 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AJ129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L141" sqref="L141"/>
+      <selection pane="bottomLeft" activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3648,205 +3707,222 @@
     <col min="1" max="1" width="14.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.83203125" style="6" customWidth="1"/>
     <col min="3" max="3" width="5.1640625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="13" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="19.1640625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="25.5" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="18.1640625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="18" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="19.83203125" style="160" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="18.1640625" style="139" customWidth="1"/>
-    <col min="12" max="12" width="19.5" style="130" customWidth="1"/>
-    <col min="13" max="13" width="18.1640625" style="132" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="16" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" customWidth="1"/>
+    <col min="7" max="7" width="25.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.1640625" customWidth="1"/>
+    <col min="9" max="9" width="18" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.83203125" style="144" customWidth="1"/>
+    <col min="11" max="11" width="18.1640625" style="124" customWidth="1"/>
+    <col min="12" max="12" width="19.5" style="116" customWidth="1"/>
+    <col min="13" max="13" width="18.1640625" style="118" customWidth="1"/>
     <col min="14" max="14" width="21" style="1" customWidth="1"/>
     <col min="15" max="15" width="18.33203125" style="1" customWidth="1"/>
     <col min="16" max="16" width="16.6640625" customWidth="1"/>
-    <col min="17" max="17" width="11.33203125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="10.83203125" style="1"/>
-    <col min="21" max="21" width="10.83203125" style="1"/>
-    <col min="23" max="23" width="10.83203125" style="1"/>
+    <col min="17" max="17" width="11.6640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.83203125" customWidth="1"/>
+    <col min="19" max="19" width="10.83203125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="17.33203125" style="6" customWidth="1"/>
+    <col min="21" max="21" width="16.5" customWidth="1"/>
+    <col min="22" max="22" width="18.5" customWidth="1"/>
+    <col min="23" max="23" width="21.6640625" style="1" customWidth="1"/>
     <col min="25" max="25" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="2" customFormat="1" ht="16" thickTop="1">
-      <c r="A1" s="193" t="s">
+      <c r="A1" s="182" t="s">
         <v>201</v>
       </c>
-      <c r="B1" s="193"/>
-      <c r="C1" s="194"/>
-      <c r="D1" s="199" t="s">
+      <c r="B1" s="182"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="190" t="s">
         <v>147</v>
       </c>
-      <c r="E1" s="192"/>
-      <c r="F1" s="191" t="s">
+      <c r="E1" s="181"/>
+      <c r="F1" s="180" t="s">
         <v>180</v>
       </c>
-      <c r="G1" s="192"/>
-      <c r="H1" s="191" t="s">
+      <c r="G1" s="181"/>
+      <c r="H1" s="180" t="s">
         <v>179</v>
       </c>
-      <c r="I1" s="192"/>
-      <c r="J1" s="141" t="s">
+      <c r="I1" s="181"/>
+      <c r="J1" s="126" t="s">
         <v>174</v>
       </c>
-      <c r="K1" s="191" t="s">
+      <c r="K1" s="180" t="s">
         <v>205</v>
       </c>
-      <c r="L1" s="199"/>
-      <c r="M1" s="136" t="s">
-        <v>233</v>
-      </c>
-      <c r="N1" s="204" t="s">
-        <v>530</v>
-      </c>
-      <c r="O1" s="197" t="s">
+      <c r="L1" s="190"/>
+      <c r="M1" s="122" t="s">
+        <v>216</v>
+      </c>
+      <c r="N1" s="188" t="s">
+        <v>485</v>
+      </c>
+      <c r="O1" s="186" t="s">
+        <v>486</v>
+      </c>
+      <c r="P1" s="195" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q1" s="196"/>
+      <c r="R1" s="184" t="s">
+        <v>183</v>
+      </c>
+      <c r="S1" s="185"/>
+      <c r="T1" s="201" t="s">
+        <v>495</v>
+      </c>
+      <c r="U1" s="201"/>
+      <c r="V1" s="199" t="s">
+        <v>496</v>
+      </c>
+      <c r="W1" s="199"/>
+      <c r="X1" s="199" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="54" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A2" s="52" t="s">
+        <v>306</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>309</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="203" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="203" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="204" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="203" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="205" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="204" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="189"/>
+      <c r="O2" s="187"/>
+      <c r="P2" s="197"/>
+      <c r="Q2" s="198"/>
+      <c r="R2" s="193"/>
+      <c r="S2" s="194"/>
+      <c r="T2" s="203" t="s">
+        <v>0</v>
+      </c>
+      <c r="U2" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" s="200"/>
+      <c r="W2" s="200"/>
+      <c r="X2" s="200"/>
+      <c r="Y2" s="56"/>
+    </row>
+    <row r="3" spans="1:25" s="44" customFormat="1" ht="16" thickTop="1">
+      <c r="A3" s="46" t="s">
+        <v>308</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>311</v>
+      </c>
+      <c r="C3" s="47"/>
+      <c r="D3" s="48" t="s">
+        <v>307</v>
+      </c>
+      <c r="E3" s="49" t="s">
+        <v>305</v>
+      </c>
+      <c r="F3" s="94" t="s">
+        <v>334</v>
+      </c>
+      <c r="G3" s="83"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="120"/>
+      <c r="M3" s="120"/>
+      <c r="N3" s="165"/>
+      <c r="O3" s="165"/>
+      <c r="P3" s="214"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="218" t="s">
         <v>531</v>
       </c>
-      <c r="P1" s="195" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q1" s="196"/>
-      <c r="R1" s="195" t="s">
-        <v>183</v>
-      </c>
-      <c r="S1" s="196"/>
-      <c r="T1" s="191" t="s">
-        <v>205</v>
-      </c>
-      <c r="U1" s="192"/>
-      <c r="W1" s="26"/>
-    </row>
-    <row r="2" spans="1:25" s="65" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="63" t="s">
-        <v>351</v>
-      </c>
-      <c r="B2" s="64" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>202</v>
-      </c>
-      <c r="D2" s="65" t="s">
-        <v>354</v>
-      </c>
-      <c r="E2" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="142" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="179" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="142" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" s="205"/>
-      <c r="O2" s="198"/>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="65" t="s">
-        <v>206</v>
-      </c>
-      <c r="U2" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="V2" s="65" t="s">
-        <v>211</v>
-      </c>
-      <c r="W2" s="67"/>
-      <c r="Y2" s="67"/>
-    </row>
-    <row r="3" spans="1:25" s="54" customFormat="1" ht="16" thickTop="1">
-      <c r="A3" s="57" t="s">
-        <v>353</v>
-      </c>
-      <c r="B3" s="61" t="s">
-        <v>356</v>
-      </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="59" t="s">
-        <v>352</v>
-      </c>
-      <c r="E3" s="60" t="s">
-        <v>350</v>
-      </c>
-      <c r="F3" s="106" t="s">
-        <v>379</v>
-      </c>
-      <c r="G3" s="95"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="143"/>
-      <c r="K3" s="108"/>
-      <c r="L3" s="134"/>
-      <c r="M3" s="134"/>
-      <c r="N3" s="203"/>
-      <c r="O3" s="203"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="55"/>
-      <c r="S3" s="55"/>
-      <c r="U3" s="55"/>
-      <c r="W3" s="55"/>
-      <c r="Y3" s="55"/>
-    </row>
-    <row r="4" spans="1:25" s="54" customFormat="1">
-      <c r="A4" s="57" t="s">
-        <v>353</v>
-      </c>
-      <c r="B4" s="61" t="s">
-        <v>356</v>
-      </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="59" t="s">
-        <v>355</v>
-      </c>
-      <c r="E4" s="60" t="s">
-        <v>350</v>
-      </c>
-      <c r="F4" s="106" t="s">
-        <v>378</v>
-      </c>
-      <c r="G4" s="95"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="143"/>
-      <c r="K4" s="108"/>
-      <c r="L4" s="134"/>
-      <c r="M4" s="134"/>
-      <c r="N4" s="203"/>
-      <c r="O4" s="203"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="55"/>
-      <c r="S4" s="55"/>
-      <c r="U4" s="55"/>
-      <c r="W4" s="55"/>
-      <c r="Y4" s="55"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="5"/>
+      <c r="V3"/>
+      <c r="W3" s="45"/>
+      <c r="Y3" s="45"/>
+    </row>
+    <row r="4" spans="1:25" s="44" customFormat="1">
+      <c r="A4" s="46" t="s">
+        <v>308</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>311</v>
+      </c>
+      <c r="C4" s="47"/>
+      <c r="D4" s="48" t="s">
+        <v>310</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>305</v>
+      </c>
+      <c r="F4" s="94" t="s">
+        <v>333</v>
+      </c>
+      <c r="G4" s="83"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="120"/>
+      <c r="M4" s="120"/>
+      <c r="N4" s="165"/>
+      <c r="O4" s="165"/>
+      <c r="P4" s="214"/>
+      <c r="Q4" s="83"/>
+      <c r="R4" s="84"/>
+      <c r="S4" s="83"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="5"/>
+      <c r="V4"/>
+      <c r="W4" s="45"/>
+      <c r="Y4" s="45"/>
     </row>
     <row r="5" spans="1:25" s="8" customFormat="1">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="32">
         <v>0</v>
       </c>
       <c r="D5" s="5"/>
@@ -3855,2275 +3931,2439 @@
       <c r="G5" s="4"/>
       <c r="H5" s="5"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="144" t="s">
+      <c r="J5" s="128" t="s">
+        <v>369</v>
+      </c>
+      <c r="K5" s="63" t="s">
         <v>414</v>
       </c>
-      <c r="K5" s="75" t="s">
-        <v>459</v>
-      </c>
-      <c r="L5" s="74" t="s">
-        <v>234</v>
-      </c>
-      <c r="M5" s="74" t="s">
-        <v>459</v>
-      </c>
-      <c r="N5" s="44" t="s">
+      <c r="L5" s="62" t="s">
+        <v>217</v>
+      </c>
+      <c r="M5" s="62" t="s">
+        <v>414</v>
+      </c>
+      <c r="N5" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="O5" s="44" t="s">
+      <c r="O5" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="P5" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q5" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="R5" s="25" t="s">
-        <v>330</v>
-      </c>
-      <c r="S5" s="9"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="9" t="s">
-        <v>234</v>
+      <c r="P5" s="63" t="s">
+        <v>513</v>
+      </c>
+      <c r="Q5" s="34" t="s">
+        <v>521</v>
+      </c>
+      <c r="R5" s="63" t="s">
+        <v>527</v>
+      </c>
+      <c r="S5" s="34" t="s">
+        <v>524</v>
+      </c>
+      <c r="T5" s="63" t="s">
+        <v>414</v>
+      </c>
+      <c r="U5" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="V5" s="63" t="s">
+        <v>414</v>
       </c>
       <c r="W5" s="9"/>
       <c r="Y5" s="9"/>
     </row>
     <row r="6" spans="1:25" s="8" customFormat="1">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="32">
         <v>1</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="41" t="s">
+      <c r="F6" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="44" t="s">
+      <c r="G6" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="41" t="s">
+      <c r="H6" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="44" t="s">
+      <c r="I6" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="144" t="s">
-        <v>428</v>
-      </c>
-      <c r="K6" s="75" t="s">
+      <c r="J6" s="128" t="s">
+        <v>383</v>
+      </c>
+      <c r="K6" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="L6" s="74" t="s">
+      <c r="L6" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="74" t="s">
-        <v>486</v>
-      </c>
-      <c r="N6" s="44" t="s">
+      <c r="M6" s="62" t="s">
+        <v>441</v>
+      </c>
+      <c r="N6" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="O6" s="44" t="s">
+      <c r="O6" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="P6" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q6" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="S6" s="9"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="9" t="s">
+      <c r="P6" s="63" t="s">
+        <v>514</v>
+      </c>
+      <c r="Q6" s="34" t="s">
+        <v>522</v>
+      </c>
+      <c r="R6" s="31" t="s">
+        <v>526</v>
+      </c>
+      <c r="S6" s="34" t="s">
+        <v>524</v>
+      </c>
+      <c r="T6" s="63" t="s">
+        <v>498</v>
+      </c>
+      <c r="U6" s="33" t="s">
         <v>36</v>
+      </c>
+      <c r="V6" s="33" t="s">
+        <v>498</v>
       </c>
       <c r="W6" s="9"/>
       <c r="Y6" s="9"/>
     </row>
     <row r="7" spans="1:25" s="8" customFormat="1">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7" s="32">
         <v>2</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="41" t="s">
+      <c r="F7" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="44" t="s">
+      <c r="G7" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="41" t="s">
+      <c r="H7" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="44" t="s">
+      <c r="I7" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="144" t="s">
-        <v>431</v>
-      </c>
-      <c r="K7" s="75" t="s">
+      <c r="J7" s="128" t="s">
+        <v>386</v>
+      </c>
+      <c r="K7" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="74" t="s">
+      <c r="L7" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="M7" s="74" t="s">
-        <v>487</v>
-      </c>
-      <c r="N7" s="44" t="s">
+      <c r="M7" s="62" t="s">
+        <v>442</v>
+      </c>
+      <c r="N7" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="O7" s="44" t="s">
+      <c r="O7" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="P7" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q7" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="S7" s="9"/>
-      <c r="T7" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="U7" s="27" t="s">
+      <c r="P7" s="63" t="s">
+        <v>515</v>
+      </c>
+      <c r="Q7" s="34" t="s">
+        <v>524</v>
+      </c>
+      <c r="R7" s="10"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="63" t="s">
+        <v>499</v>
+      </c>
+      <c r="U7" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="V7" s="11" t="s">
-        <v>39</v>
+      <c r="V7" s="33" t="s">
+        <v>499</v>
       </c>
       <c r="W7" s="9"/>
       <c r="Y7" s="9"/>
     </row>
     <row r="8" spans="1:25" s="8" customFormat="1">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="C8" s="42">
+      <c r="C8" s="32">
         <v>3</v>
       </c>
-      <c r="D8" s="43" t="s">
-        <v>258</v>
-      </c>
-      <c r="E8" s="62" t="s">
+      <c r="D8" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="E8" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="75" t="s">
+      <c r="F8" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="44" t="s">
+      <c r="G8" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="41" t="s">
+      <c r="H8" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="I8" s="44" t="s">
+      <c r="I8" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="J8" s="144" t="s">
+      <c r="J8" s="128" t="s">
         <v>49</v>
       </c>
-      <c r="K8" s="75" t="s">
+      <c r="K8" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="L8" s="134" t="s">
-        <v>478</v>
-      </c>
-      <c r="M8" s="165" t="s">
-        <v>479</v>
+      <c r="L8" s="120" t="s">
+        <v>433</v>
+      </c>
+      <c r="M8" s="149" t="s">
+        <v>434</v>
       </c>
       <c r="N8" s="4"/>
-      <c r="O8" s="44" t="s">
+      <c r="O8" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="P8" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q8" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="R8" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="S8" s="9"/>
-      <c r="T8" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="U8" s="4"/>
+      <c r="P8" s="96"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="5"/>
+      <c r="V8"/>
       <c r="W8" s="9"/>
       <c r="Y8" s="9"/>
     </row>
     <row r="9" spans="1:25">
-      <c r="A9" s="44"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="73" t="s">
+      <c r="A9" s="34"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="83" t="s">
+      <c r="E9" s="71" t="s">
         <v>44</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="4"/>
       <c r="H9" s="5"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="145"/>
-      <c r="K9" s="163" t="s">
-        <v>471</v>
-      </c>
-      <c r="L9" s="134"/>
-      <c r="M9" s="134"/>
+      <c r="J9" s="129"/>
+      <c r="K9" s="147" t="s">
+        <v>426</v>
+      </c>
+      <c r="L9" s="120"/>
+      <c r="M9" s="120"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="5"/>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" s="44"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="83" t="s">
+      <c r="A10" s="34"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="71" t="s">
         <v>45</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="4"/>
       <c r="H10" s="5"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="145"/>
-      <c r="K10" s="164" t="s">
-        <v>257</v>
-      </c>
-      <c r="L10" s="165" t="s">
-        <v>472</v>
-      </c>
-      <c r="M10" s="165" t="s">
-        <v>484</v>
+      <c r="J10" s="129"/>
+      <c r="K10" s="148" t="s">
+        <v>239</v>
+      </c>
+      <c r="L10" s="149" t="s">
+        <v>427</v>
+      </c>
+      <c r="M10" s="149" t="s">
+        <v>439</v>
       </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="5"/>
     </row>
     <row r="11" spans="1:25">
-      <c r="A11" s="44"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="83" t="s">
+      <c r="A11" s="34"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="71" t="s">
         <v>46</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="4"/>
       <c r="H11" s="5"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="145"/>
-      <c r="K11" s="166" t="s">
-        <v>492</v>
-      </c>
-      <c r="L11" s="134" t="s">
-        <v>473</v>
-      </c>
-      <c r="M11" s="134"/>
+      <c r="J11" s="129"/>
+      <c r="K11" s="150" t="s">
+        <v>447</v>
+      </c>
+      <c r="L11" s="120" t="s">
+        <v>428</v>
+      </c>
+      <c r="M11" s="120"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="5"/>
     </row>
     <row r="12" spans="1:25">
-      <c r="A12" s="44"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="83" t="s">
+      <c r="A12" s="34"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="71" t="s">
         <v>176</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="4"/>
       <c r="H12" s="5"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="145"/>
-      <c r="K12" s="163" t="s">
-        <v>475</v>
-      </c>
-      <c r="L12" s="165" t="s">
-        <v>474</v>
-      </c>
-      <c r="M12" s="165" t="s">
-        <v>483</v>
+      <c r="J12" s="129"/>
+      <c r="K12" s="147" t="s">
+        <v>430</v>
+      </c>
+      <c r="L12" s="149" t="s">
+        <v>429</v>
+      </c>
+      <c r="M12" s="149" t="s">
+        <v>438</v>
       </c>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="5"/>
     </row>
     <row r="13" spans="1:25">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="C13" s="42">
+      <c r="C13" s="32">
         <v>4</v>
       </c>
-      <c r="D13" s="43" t="s">
+      <c r="D13" s="33" t="s">
         <v>31</v>
       </c>
       <c r="E13" s="4"/>
-      <c r="F13" s="43" t="s">
+      <c r="F13" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="44" t="s">
+      <c r="G13" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="H13" s="43" t="s">
+      <c r="H13" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="I13" s="44" t="s">
-        <v>308</v>
-      </c>
-      <c r="J13" s="144" t="s">
+      <c r="I13" s="34" t="s">
+        <v>290</v>
+      </c>
+      <c r="J13" s="128" t="s">
         <v>53</v>
       </c>
-      <c r="K13" s="108"/>
-      <c r="L13" s="165" t="s">
-        <v>480</v>
-      </c>
-      <c r="M13" s="165" t="s">
-        <v>481</v>
+      <c r="K13" s="96"/>
+      <c r="L13" s="149" t="s">
+        <v>435</v>
+      </c>
+      <c r="M13" s="149" t="s">
+        <v>436</v>
       </c>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
-      <c r="T13" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="U13" s="4"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="5"/>
     </row>
     <row r="14" spans="1:25">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="42">
+      <c r="C14" s="32">
         <v>5</v>
       </c>
-      <c r="D14" s="43" t="s">
+      <c r="D14" s="33" t="s">
         <v>31</v>
       </c>
       <c r="E14" s="4"/>
-      <c r="F14" s="97" t="s">
+      <c r="F14" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="G14" s="74" t="s">
-        <v>238</v>
-      </c>
-      <c r="H14" s="97" t="s">
+      <c r="G14" s="62" t="s">
+        <v>221</v>
+      </c>
+      <c r="H14" s="85" t="s">
         <v>172</v>
       </c>
-      <c r="I14" s="74" t="s">
+      <c r="I14" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="J14" s="144" t="s">
-        <v>431</v>
-      </c>
-      <c r="K14" s="164" t="s">
-        <v>460</v>
-      </c>
-      <c r="L14" s="165" t="s">
+      <c r="J14" s="128" t="s">
+        <v>386</v>
+      </c>
+      <c r="K14" s="148" t="s">
+        <v>415</v>
+      </c>
+      <c r="L14" s="149" t="s">
         <v>144</v>
       </c>
-      <c r="M14" s="165" t="s">
-        <v>485</v>
+      <c r="M14" s="149" t="s">
+        <v>440</v>
       </c>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
-      <c r="Q14" s="137"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="28" t="s">
-        <v>239</v>
-      </c>
-      <c r="V14" s="8"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="217"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="5"/>
     </row>
     <row r="15" spans="1:25" s="8" customFormat="1">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="C15" s="42">
+      <c r="C15" s="32">
         <v>6</v>
       </c>
-      <c r="D15" s="43" t="s">
+      <c r="D15" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="62" t="s">
+      <c r="E15" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="41" t="s">
+      <c r="F15" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="G15" s="44" t="s">
+      <c r="G15" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="H15" s="41" t="s">
-        <v>394</v>
-      </c>
-      <c r="I15" s="44" t="s">
+      <c r="H15" s="31" t="s">
+        <v>349</v>
+      </c>
+      <c r="I15" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="J15" s="144" t="s">
-        <v>431</v>
-      </c>
-      <c r="K15" s="75" t="s">
-        <v>461</v>
-      </c>
-      <c r="L15" s="74" t="s">
+      <c r="J15" s="128" t="s">
+        <v>386</v>
+      </c>
+      <c r="K15" s="63" t="s">
+        <v>416</v>
+      </c>
+      <c r="L15" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="M15" s="74" t="s">
-        <v>488</v>
-      </c>
-      <c r="N15" s="44" t="s">
+      <c r="M15" s="62" t="s">
+        <v>443</v>
+      </c>
+      <c r="N15" s="34" t="s">
         <v>56</v>
       </c>
       <c r="O15" s="4"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="U15" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="V15" s="11" t="s">
-        <v>214</v>
-      </c>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="5"/>
+      <c r="V15"/>
       <c r="W15" s="9"/>
       <c r="Y15" s="9"/>
     </row>
     <row r="16" spans="1:25">
-      <c r="A16" s="44"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="73" t="s">
+      <c r="A16" s="34"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="83" t="s">
+      <c r="E16" s="71" t="s">
         <v>57</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="4"/>
       <c r="H16" s="5"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="145"/>
-      <c r="K16" s="164" t="s">
-        <v>257</v>
-      </c>
-      <c r="L16" s="165" t="s">
-        <v>476</v>
-      </c>
-      <c r="M16" s="165" t="s">
-        <v>482</v>
+      <c r="J16" s="129"/>
+      <c r="K16" s="148" t="s">
+        <v>239</v>
+      </c>
+      <c r="L16" s="149" t="s">
+        <v>431</v>
+      </c>
+      <c r="M16" s="149" t="s">
+        <v>437</v>
       </c>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="5"/>
     </row>
     <row r="17" spans="1:25">
-      <c r="A17" s="44"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="83" t="s">
+      <c r="A17" s="34"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="71" t="s">
         <v>58</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="4"/>
       <c r="H17" s="5"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="145"/>
-      <c r="K17" s="164" t="s">
+      <c r="J17" s="129"/>
+      <c r="K17" s="148" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="165" t="s">
-        <v>477</v>
-      </c>
-      <c r="M17" s="165" t="s">
-        <v>431</v>
+      <c r="L17" s="149" t="s">
+        <v>432</v>
+      </c>
+      <c r="M17" s="149" t="s">
+        <v>386</v>
       </c>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="5"/>
     </row>
     <row r="18" spans="1:25">
-      <c r="A18" s="44"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="83" t="s">
+      <c r="A18" s="34"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="71" t="s">
         <v>59</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="4"/>
       <c r="H18" s="5"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="145"/>
-      <c r="K18" s="108"/>
-      <c r="L18" s="134"/>
-      <c r="M18" s="134"/>
+      <c r="J18" s="129"/>
+      <c r="K18" s="96"/>
+      <c r="L18" s="120"/>
+      <c r="M18" s="120"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="5"/>
     </row>
     <row r="19" spans="1:25" s="8" customFormat="1">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="C19" s="42">
+      <c r="C19" s="32">
         <v>7</v>
       </c>
-      <c r="D19" s="43" t="s">
+      <c r="D19" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="E19" s="44" t="s">
+      <c r="E19" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="F19" s="41" t="s">
+      <c r="F19" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="G19" s="44" t="s">
+      <c r="G19" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="H19" s="41" t="s">
+      <c r="H19" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="I19" s="44" t="s">
+      <c r="I19" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="J19" s="144" t="s">
-        <v>429</v>
-      </c>
-      <c r="K19" s="75" t="s">
-        <v>429</v>
-      </c>
-      <c r="L19" s="74" t="s">
-        <v>215</v>
-      </c>
-      <c r="M19" s="74" t="s">
-        <v>489</v>
-      </c>
-      <c r="N19" s="44" t="s">
+      <c r="J19" s="128" t="s">
+        <v>384</v>
+      </c>
+      <c r="K19" s="63" t="s">
+        <v>384</v>
+      </c>
+      <c r="L19" s="62" t="s">
+        <v>206</v>
+      </c>
+      <c r="M19" s="62" t="s">
+        <v>444</v>
+      </c>
+      <c r="N19" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="O19" s="44" t="s">
+      <c r="O19" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="Q19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="9" t="s">
-        <v>215</v>
-      </c>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="5"/>
+      <c r="V19"/>
       <c r="W19" s="9"/>
       <c r="Y19" s="9"/>
     </row>
     <row r="20" spans="1:25" s="8" customFormat="1">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="C20" s="42">
+      <c r="C20" s="32">
         <v>8</v>
       </c>
-      <c r="D20" s="43" t="s">
+      <c r="D20" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="E20" s="44" t="s">
+      <c r="E20" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="41" t="s">
+      <c r="F20" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="G20" s="44" t="s">
+      <c r="G20" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="H20" s="41" t="s">
+      <c r="H20" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="I20" s="44" t="s">
+      <c r="I20" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="J20" s="144" t="s">
+      <c r="J20" s="128" t="s">
         <v>72</v>
       </c>
-      <c r="K20" s="75" t="s">
-        <v>462</v>
-      </c>
-      <c r="L20" s="74" t="s">
-        <v>216</v>
-      </c>
-      <c r="M20" s="74" t="s">
-        <v>490</v>
-      </c>
-      <c r="N20" s="44" t="s">
+      <c r="K20" s="63" t="s">
+        <v>417</v>
+      </c>
+      <c r="L20" s="62" t="s">
+        <v>207</v>
+      </c>
+      <c r="M20" s="62" t="s">
+        <v>445</v>
+      </c>
+      <c r="N20" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="O20" s="44" t="s">
+      <c r="O20" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="Q20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="9" t="s">
-        <v>216</v>
-      </c>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="5"/>
+      <c r="V20"/>
       <c r="W20" s="9"/>
       <c r="Y20" s="9"/>
     </row>
     <row r="21" spans="1:25" s="8" customFormat="1">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="C21" s="42">
+      <c r="C21" s="32">
         <v>9</v>
       </c>
-      <c r="D21" s="43" t="s">
+      <c r="D21" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="62" t="s">
+      <c r="E21" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="F21" s="43" t="s">
+      <c r="F21" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="G21" s="44" t="s">
+      <c r="G21" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="H21" s="41" t="s">
+      <c r="H21" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="I21" s="44" t="s">
+      <c r="I21" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="J21" s="144" t="s">
-        <v>431</v>
-      </c>
-      <c r="K21" s="75" t="s">
+      <c r="J21" s="128" t="s">
+        <v>386</v>
+      </c>
+      <c r="K21" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="L21" s="74" t="s">
+      <c r="L21" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="M21" s="74" t="s">
-        <v>491</v>
-      </c>
-      <c r="N21" s="44" t="s">
+      <c r="M21" s="62" t="s">
+        <v>446</v>
+      </c>
+      <c r="N21" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="O21" s="44" t="s">
+      <c r="O21" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="Q21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="U21" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="V21" s="11" t="s">
-        <v>62</v>
-      </c>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="5"/>
+      <c r="V21"/>
       <c r="W21" s="9"/>
       <c r="Y21" s="9"/>
     </row>
     <row r="22" spans="1:25">
-      <c r="A22" s="44"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="73" t="s">
+      <c r="A22" s="34"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="83" t="s">
+      <c r="E22" s="71" t="s">
         <v>63</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="4"/>
       <c r="H22" s="5"/>
       <c r="I22" s="4"/>
-      <c r="J22" s="145"/>
-      <c r="K22" s="108"/>
-      <c r="L22" s="134"/>
-      <c r="M22" s="134"/>
+      <c r="J22" s="129"/>
+      <c r="K22" s="96"/>
+      <c r="L22" s="120"/>
+      <c r="M22" s="120"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="5"/>
     </row>
     <row r="23" spans="1:25">
-      <c r="A23" s="44"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="83" t="s">
+      <c r="A23" s="34"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="71" t="s">
         <v>66</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="4"/>
       <c r="H23" s="5"/>
       <c r="I23" s="4"/>
-      <c r="J23" s="145"/>
-      <c r="K23" s="108"/>
-      <c r="L23" s="134"/>
-      <c r="M23" s="134"/>
+      <c r="J23" s="129"/>
+      <c r="K23" s="96"/>
+      <c r="L23" s="120"/>
+      <c r="M23" s="120"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="5"/>
     </row>
     <row r="24" spans="1:25">
-      <c r="A24" s="44"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="83" t="s">
+      <c r="A24" s="34"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="71" t="s">
         <v>64</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="4"/>
       <c r="H24" s="5"/>
       <c r="I24" s="4"/>
-      <c r="J24" s="145"/>
-      <c r="K24" s="108"/>
-      <c r="L24" s="134"/>
-      <c r="M24" s="134"/>
+      <c r="J24" s="129"/>
+      <c r="K24" s="96"/>
+      <c r="L24" s="120"/>
+      <c r="M24" s="120"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="5"/>
     </row>
     <row r="25" spans="1:25">
-      <c r="A25" s="44"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="83" t="s">
+      <c r="A25" s="34"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="71" t="s">
         <v>65</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="4"/>
       <c r="H25" s="5"/>
       <c r="I25" s="4"/>
-      <c r="J25" s="145"/>
-      <c r="K25" s="108"/>
-      <c r="L25" s="134"/>
-      <c r="M25" s="134"/>
+      <c r="J25" s="129"/>
+      <c r="K25" s="96"/>
+      <c r="L25" s="120"/>
+      <c r="M25" s="120"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="5"/>
     </row>
     <row r="26" spans="1:25">
-      <c r="A26" s="44"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="83" t="s">
+      <c r="A26" s="34"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="71" t="s">
         <v>67</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="4"/>
       <c r="H26" s="5"/>
       <c r="I26" s="4"/>
-      <c r="J26" s="145"/>
-      <c r="K26" s="108"/>
-      <c r="L26" s="134"/>
-      <c r="M26" s="134"/>
+      <c r="J26" s="129"/>
+      <c r="K26" s="96"/>
+      <c r="L26" s="120"/>
+      <c r="M26" s="120"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="5"/>
     </row>
     <row r="27" spans="1:25" s="8" customFormat="1">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="41" t="s">
+      <c r="B27" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="C27" s="42">
+      <c r="C27" s="32">
         <v>10</v>
       </c>
-      <c r="D27" s="43" t="s">
+      <c r="D27" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="E27" s="44" t="s">
+      <c r="E27" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="F27" s="43" t="s">
+      <c r="F27" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="G27" s="44" t="s">
+      <c r="G27" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="H27" s="41" t="s">
+      <c r="H27" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="I27" s="44" t="s">
+      <c r="I27" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="J27" s="144" t="s">
-        <v>431</v>
-      </c>
-      <c r="K27" s="75" t="s">
+      <c r="J27" s="128" t="s">
+        <v>386</v>
+      </c>
+      <c r="K27" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="L27" s="74" t="s">
+      <c r="L27" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="M27" s="74" t="s">
-        <v>493</v>
-      </c>
-      <c r="N27" s="44" t="s">
+      <c r="M27" s="62" t="s">
+        <v>448</v>
+      </c>
+      <c r="N27" s="34" t="s">
         <v>158</v>
       </c>
       <c r="O27" s="4"/>
-      <c r="P27" s="25" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q27" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="R27" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="S27" s="9"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="9" t="s">
-        <v>91</v>
-      </c>
+      <c r="P27" s="96"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="5"/>
+      <c r="V27"/>
       <c r="W27" s="9"/>
       <c r="Y27" s="9"/>
     </row>
     <row r="28" spans="1:25" s="8" customFormat="1">
-      <c r="A28" s="40" t="s">
+      <c r="A28" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="C28" s="42">
+      <c r="C28" s="32">
         <v>11</v>
       </c>
-      <c r="D28" s="43" t="s">
+      <c r="D28" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="E28" s="44" t="s">
+      <c r="E28" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="F28" s="43" t="s">
+      <c r="F28" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="G28" s="44" t="s">
+      <c r="G28" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="H28" s="41" t="s">
+      <c r="H28" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="I28" s="44" t="s">
+      <c r="I28" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="J28" s="144" t="s">
-        <v>431</v>
-      </c>
-      <c r="K28" s="75" t="s">
+      <c r="J28" s="128" t="s">
+        <v>386</v>
+      </c>
+      <c r="K28" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="L28" s="74" t="s">
+      <c r="L28" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="M28" s="74" t="s">
-        <v>494</v>
-      </c>
-      <c r="N28" s="44" t="s">
+      <c r="M28" s="62" t="s">
+        <v>449</v>
+      </c>
+      <c r="N28" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="O28" s="44" t="s">
+      <c r="O28" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="P28" s="25" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q28" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="R28" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="S28" s="9"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="9" t="s">
-        <v>92</v>
-      </c>
+      <c r="P28" s="96"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="5"/>
+      <c r="V28"/>
       <c r="W28" s="9"/>
       <c r="Y28" s="9"/>
     </row>
     <row r="29" spans="1:25" s="8" customFormat="1">
-      <c r="A29" s="40" t="s">
+      <c r="A29" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="C29" s="42">
+      <c r="C29" s="32">
         <v>12</v>
       </c>
-      <c r="D29" s="43" t="s">
+      <c r="D29" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="E29" s="44" t="s">
+      <c r="E29" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="F29" s="43" t="s">
+      <c r="F29" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="G29" s="44" t="s">
+      <c r="G29" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="H29" s="41" t="s">
+      <c r="H29" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="I29" s="44" t="s">
+      <c r="I29" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="J29" s="144" t="s">
-        <v>431</v>
-      </c>
-      <c r="K29" s="75" t="s">
+      <c r="J29" s="128" t="s">
+        <v>386</v>
+      </c>
+      <c r="K29" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="L29" s="74" t="s">
-        <v>235</v>
-      </c>
-      <c r="M29" s="74" t="s">
-        <v>495</v>
-      </c>
-      <c r="N29" s="44" t="s">
+      <c r="L29" s="62" t="s">
+        <v>218</v>
+      </c>
+      <c r="M29" s="62" t="s">
+        <v>450</v>
+      </c>
+      <c r="N29" s="34" t="s">
         <v>76</v>
       </c>
       <c r="O29" s="4"/>
-      <c r="Q29" s="9"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="9" t="s">
-        <v>235</v>
-      </c>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="5"/>
+      <c r="V29"/>
       <c r="W29" s="9"/>
       <c r="Y29" s="9"/>
     </row>
     <row r="30" spans="1:25" s="8" customFormat="1">
-      <c r="A30" s="40" t="s">
+      <c r="A30" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="C30" s="42">
+      <c r="C30" s="32">
         <v>13</v>
       </c>
-      <c r="D30" s="43" t="s">
-        <v>258</v>
-      </c>
-      <c r="E30" s="44" t="s">
+      <c r="D30" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="E30" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="F30" s="43" t="s">
+      <c r="F30" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="G30" s="44" t="s">
+      <c r="G30" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="H30" s="41" t="s">
-        <v>395</v>
-      </c>
-      <c r="I30" s="44" t="s">
+      <c r="H30" s="31" t="s">
+        <v>350</v>
+      </c>
+      <c r="I30" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="J30" s="144" t="s">
+      <c r="J30" s="128" t="s">
         <v>157</v>
       </c>
-      <c r="K30" s="75" t="s">
-        <v>463</v>
-      </c>
-      <c r="L30" s="74" t="s">
+      <c r="K30" s="63" t="s">
+        <v>418</v>
+      </c>
+      <c r="L30" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="M30" s="74" t="s">
-        <v>496</v>
-      </c>
-      <c r="N30" s="44" t="s">
+      <c r="M30" s="62" t="s">
+        <v>451</v>
+      </c>
+      <c r="N30" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="O30" s="44" t="s">
+      <c r="O30" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="Q30" s="9"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="U30" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="V30" s="11" t="s">
-        <v>218</v>
-      </c>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="5"/>
+      <c r="V30"/>
       <c r="W30" s="9"/>
       <c r="Y30" s="9"/>
     </row>
     <row r="31" spans="1:25">
-      <c r="A31" s="44"/>
-      <c r="B31" s="41"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="73" t="s">
+      <c r="A31" s="34"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="E31" s="83" t="s">
+      <c r="E31" s="71" t="s">
         <v>95</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="4"/>
       <c r="H31" s="5"/>
       <c r="I31" s="4"/>
-      <c r="J31" s="145"/>
-      <c r="K31" s="108"/>
-      <c r="L31" s="134"/>
-      <c r="M31" s="134"/>
+      <c r="J31" s="129"/>
+      <c r="K31" s="96"/>
+      <c r="L31" s="120"/>
+      <c r="M31" s="120"/>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="5"/>
     </row>
     <row r="32" spans="1:25">
-      <c r="A32" s="44"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="83" t="s">
+      <c r="A32" s="34"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="71" t="s">
         <v>96</v>
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="4"/>
       <c r="H32" s="5"/>
       <c r="I32" s="4"/>
-      <c r="J32" s="145"/>
-      <c r="K32" s="108"/>
-      <c r="L32" s="134"/>
-      <c r="M32" s="134"/>
+      <c r="J32" s="129"/>
+      <c r="K32" s="96"/>
+      <c r="L32" s="120"/>
+      <c r="M32" s="120"/>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="5"/>
     </row>
     <row r="33" spans="1:25" s="6" customFormat="1">
-      <c r="A33" s="44"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="83" t="s">
+      <c r="A33" s="34"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="F33" s="12"/>
+      <c r="F33" s="10"/>
       <c r="G33" s="4"/>
-      <c r="H33" s="12"/>
+      <c r="H33" s="10"/>
       <c r="I33" s="4"/>
-      <c r="J33" s="145"/>
-      <c r="K33" s="108"/>
-      <c r="L33" s="134"/>
-      <c r="M33" s="134"/>
+      <c r="J33" s="129"/>
+      <c r="K33" s="96"/>
+      <c r="L33" s="120"/>
+      <c r="M33" s="120"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
-      <c r="Q33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="U33" s="1"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="5"/>
+      <c r="V33"/>
       <c r="W33" s="1"/>
       <c r="Y33" s="1"/>
     </row>
     <row r="34" spans="1:25" s="8" customFormat="1">
-      <c r="A34" s="71" t="s">
-        <v>353</v>
-      </c>
-      <c r="B34" s="69" t="s">
-        <v>358</v>
-      </c>
-      <c r="C34" s="42"/>
-      <c r="D34" s="70" t="s">
-        <v>359</v>
-      </c>
-      <c r="E34" s="44" t="s">
-        <v>357</v>
-      </c>
-      <c r="F34" s="88" t="s">
-        <v>392</v>
-      </c>
-      <c r="G34" s="90" t="s">
-        <v>391</v>
-      </c>
-      <c r="H34" s="104" t="s">
-        <v>400</v>
-      </c>
-      <c r="I34" s="74" t="s">
-        <v>409</v>
-      </c>
-      <c r="J34" s="146" t="s">
-        <v>415</v>
-      </c>
-      <c r="K34" s="108"/>
-      <c r="L34" s="134"/>
-      <c r="M34" s="134"/>
+      <c r="A34" s="59" t="s">
+        <v>308</v>
+      </c>
+      <c r="B34" s="57" t="s">
+        <v>313</v>
+      </c>
+      <c r="C34" s="32"/>
+      <c r="D34" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="E34" s="34" t="s">
+        <v>312</v>
+      </c>
+      <c r="F34" s="76" t="s">
+        <v>347</v>
+      </c>
+      <c r="G34" s="78" t="s">
+        <v>346</v>
+      </c>
+      <c r="H34" s="92" t="s">
+        <v>355</v>
+      </c>
+      <c r="I34" s="62" t="s">
+        <v>364</v>
+      </c>
+      <c r="J34" s="130" t="s">
+        <v>370</v>
+      </c>
+      <c r="K34" s="96"/>
+      <c r="L34" s="120"/>
+      <c r="M34" s="120"/>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
       <c r="P34" s="5"/>
       <c r="Q34" s="4"/>
       <c r="R34" s="5"/>
       <c r="S34" s="4"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="4"/>
-      <c r="V34" s="5"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="5"/>
+      <c r="V34"/>
       <c r="W34" s="9"/>
       <c r="Y34" s="9"/>
     </row>
     <row r="35" spans="1:25" s="8" customFormat="1">
-      <c r="A35" s="71" t="s">
-        <v>353</v>
-      </c>
-      <c r="B35" s="69" t="s">
-        <v>363</v>
-      </c>
-      <c r="C35" s="42"/>
-      <c r="D35" s="70" t="s">
-        <v>360</v>
-      </c>
-      <c r="E35" s="44" t="s">
-        <v>362</v>
-      </c>
-      <c r="F35" s="88" t="s">
-        <v>382</v>
-      </c>
-      <c r="G35" s="49"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="147"/>
-      <c r="K35" s="108"/>
-      <c r="L35" s="134"/>
-      <c r="M35" s="134"/>
+      <c r="A35" s="59" t="s">
+        <v>308</v>
+      </c>
+      <c r="B35" s="57" t="s">
+        <v>318</v>
+      </c>
+      <c r="C35" s="32"/>
+      <c r="D35" s="58" t="s">
+        <v>315</v>
+      </c>
+      <c r="E35" s="34" t="s">
+        <v>317</v>
+      </c>
+      <c r="F35" s="76" t="s">
+        <v>337</v>
+      </c>
+      <c r="G35" s="39"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="131"/>
+      <c r="K35" s="96"/>
+      <c r="L35" s="120"/>
+      <c r="M35" s="120"/>
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
-      <c r="Q35" s="9"/>
-      <c r="S35" s="9"/>
-      <c r="U35" s="9"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="5"/>
+      <c r="V35"/>
       <c r="W35" s="9"/>
       <c r="Y35" s="9"/>
     </row>
     <row r="36" spans="1:25" s="8" customFormat="1">
-      <c r="A36" s="71" t="s">
-        <v>353</v>
-      </c>
-      <c r="B36" s="69"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="73" t="s">
+      <c r="A36" s="59" t="s">
+        <v>308</v>
+      </c>
+      <c r="B36" s="57"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="E36" s="72" t="s">
-        <v>364</v>
-      </c>
-      <c r="F36" s="48"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="147"/>
-      <c r="K36" s="108"/>
-      <c r="L36" s="134"/>
-      <c r="M36" s="134"/>
+      <c r="E36" s="60" t="s">
+        <v>319</v>
+      </c>
+      <c r="F36" s="38"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="131"/>
+      <c r="K36" s="96"/>
+      <c r="L36" s="120"/>
+      <c r="M36" s="120"/>
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
-      <c r="Q36" s="9"/>
-      <c r="S36" s="9"/>
-      <c r="U36" s="9"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="5"/>
+      <c r="V36"/>
       <c r="W36" s="9"/>
       <c r="Y36" s="9"/>
     </row>
     <row r="37" spans="1:25" s="8" customFormat="1">
-      <c r="A37" s="71"/>
-      <c r="B37" s="69"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="70"/>
-      <c r="E37" s="72" t="s">
-        <v>365</v>
-      </c>
-      <c r="F37" s="48"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="147"/>
-      <c r="K37" s="108"/>
-      <c r="L37" s="134"/>
-      <c r="M37" s="134"/>
+      <c r="A37" s="59"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="60" t="s">
+        <v>320</v>
+      </c>
+      <c r="F37" s="38"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="131"/>
+      <c r="K37" s="96"/>
+      <c r="L37" s="120"/>
+      <c r="M37" s="120"/>
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
-      <c r="Q37" s="9"/>
-      <c r="S37" s="9"/>
-      <c r="U37" s="9"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="5"/>
+      <c r="V37"/>
       <c r="W37" s="9"/>
       <c r="Y37" s="9"/>
     </row>
     <row r="38" spans="1:25" s="8" customFormat="1">
-      <c r="A38" s="71"/>
-      <c r="B38" s="69"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="70"/>
-      <c r="E38" s="72" t="s">
-        <v>366</v>
-      </c>
-      <c r="F38" s="48"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="147"/>
-      <c r="K38" s="108"/>
-      <c r="L38" s="134"/>
-      <c r="M38" s="134"/>
+      <c r="A38" s="59"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="60" t="s">
+        <v>321</v>
+      </c>
+      <c r="F38" s="38"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="131"/>
+      <c r="K38" s="96"/>
+      <c r="L38" s="120"/>
+      <c r="M38" s="120"/>
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
-      <c r="Q38" s="9"/>
-      <c r="S38" s="9"/>
-      <c r="U38" s="9"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="10"/>
+      <c r="U38" s="5"/>
+      <c r="V38"/>
       <c r="W38" s="9"/>
       <c r="Y38" s="9"/>
     </row>
     <row r="39" spans="1:25" s="8" customFormat="1">
-      <c r="A39" s="71" t="s">
-        <v>353</v>
-      </c>
-      <c r="B39" s="69" t="s">
-        <v>363</v>
-      </c>
-      <c r="C39" s="42"/>
-      <c r="D39" s="70" t="s">
-        <v>361</v>
-      </c>
-      <c r="E39" s="44" t="s">
-        <v>362</v>
-      </c>
-      <c r="F39" s="59" t="s">
-        <v>383</v>
-      </c>
-      <c r="G39" s="49"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="35"/>
-      <c r="J39" s="147"/>
-      <c r="K39" s="108"/>
-      <c r="L39" s="134"/>
-      <c r="M39" s="134"/>
+      <c r="A39" s="59" t="s">
+        <v>308</v>
+      </c>
+      <c r="B39" s="57" t="s">
+        <v>318</v>
+      </c>
+      <c r="C39" s="32"/>
+      <c r="D39" s="58" t="s">
+        <v>316</v>
+      </c>
+      <c r="E39" s="34" t="s">
+        <v>317</v>
+      </c>
+      <c r="F39" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="G39" s="39"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="131"/>
+      <c r="K39" s="96"/>
+      <c r="L39" s="120"/>
+      <c r="M39" s="120"/>
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
-      <c r="Q39" s="9"/>
-      <c r="S39" s="9"/>
-      <c r="U39" s="9"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="10"/>
+      <c r="U39" s="5"/>
+      <c r="V39"/>
       <c r="W39" s="9"/>
       <c r="Y39" s="9"/>
     </row>
     <row r="40" spans="1:25" s="8" customFormat="1">
-      <c r="A40" s="71"/>
-      <c r="B40" s="69"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="73" t="s">
+      <c r="A40" s="59"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="E40" s="72" t="s">
-        <v>364</v>
-      </c>
-      <c r="F40" s="48"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="147"/>
-      <c r="K40" s="108"/>
-      <c r="L40" s="134"/>
-      <c r="M40" s="134"/>
+      <c r="E40" s="60" t="s">
+        <v>319</v>
+      </c>
+      <c r="F40" s="38"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="131"/>
+      <c r="K40" s="96"/>
+      <c r="L40" s="120"/>
+      <c r="M40" s="120"/>
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
-      <c r="Q40" s="9"/>
-      <c r="S40" s="9"/>
-      <c r="U40" s="9"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="10"/>
+      <c r="U40" s="5"/>
+      <c r="V40"/>
       <c r="W40" s="9"/>
       <c r="Y40" s="9"/>
     </row>
     <row r="41" spans="1:25" s="8" customFormat="1">
-      <c r="A41" s="71"/>
-      <c r="B41" s="69"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="70"/>
-      <c r="E41" s="72" t="s">
-        <v>365</v>
-      </c>
-      <c r="F41" s="48"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="35"/>
-      <c r="J41" s="147"/>
-      <c r="K41" s="108"/>
-      <c r="L41" s="134"/>
-      <c r="M41" s="134"/>
+      <c r="A41" s="59"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="60" t="s">
+        <v>320</v>
+      </c>
+      <c r="F41" s="38"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="131"/>
+      <c r="K41" s="96"/>
+      <c r="L41" s="120"/>
+      <c r="M41" s="120"/>
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
-      <c r="Q41" s="9"/>
-      <c r="S41" s="9"/>
-      <c r="U41" s="9"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="10"/>
+      <c r="U41" s="5"/>
+      <c r="V41"/>
       <c r="W41" s="9"/>
       <c r="Y41" s="9"/>
     </row>
     <row r="42" spans="1:25" s="8" customFormat="1">
-      <c r="A42" s="71"/>
-      <c r="B42" s="69"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="70"/>
-      <c r="E42" s="72" t="s">
-        <v>366</v>
-      </c>
-      <c r="F42" s="48"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="147"/>
-      <c r="K42" s="108"/>
-      <c r="L42" s="134"/>
-      <c r="M42" s="134"/>
+      <c r="A42" s="59"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="60" t="s">
+        <v>321</v>
+      </c>
+      <c r="F42" s="38"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="131"/>
+      <c r="K42" s="96"/>
+      <c r="L42" s="120"/>
+      <c r="M42" s="120"/>
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
-      <c r="Q42" s="9"/>
-      <c r="S42" s="9"/>
-      <c r="U42" s="9"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="10"/>
+      <c r="U42" s="5"/>
+      <c r="V42"/>
       <c r="W42" s="9"/>
       <c r="Y42" s="9"/>
     </row>
     <row r="43" spans="1:25" s="8" customFormat="1">
-      <c r="A43" s="71" t="s">
-        <v>353</v>
-      </c>
-      <c r="B43" s="69" t="s">
-        <v>363</v>
-      </c>
-      <c r="C43" s="42"/>
-      <c r="D43" s="70" t="s">
-        <v>371</v>
-      </c>
-      <c r="E43" s="44" t="s">
-        <v>362</v>
-      </c>
-      <c r="F43" s="59" t="s">
-        <v>383</v>
-      </c>
-      <c r="G43" s="49"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="35"/>
-      <c r="J43" s="147"/>
-      <c r="K43" s="108"/>
-      <c r="L43" s="134"/>
-      <c r="M43" s="134"/>
+      <c r="A43" s="59" t="s">
+        <v>308</v>
+      </c>
+      <c r="B43" s="57" t="s">
+        <v>318</v>
+      </c>
+      <c r="C43" s="32"/>
+      <c r="D43" s="58" t="s">
+        <v>326</v>
+      </c>
+      <c r="E43" s="34" t="s">
+        <v>317</v>
+      </c>
+      <c r="F43" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="G43" s="39"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="131"/>
+      <c r="K43" s="96"/>
+      <c r="L43" s="120"/>
+      <c r="M43" s="120"/>
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
-      <c r="Q43" s="9"/>
-      <c r="S43" s="9"/>
-      <c r="U43" s="9"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="10"/>
+      <c r="U43" s="5"/>
+      <c r="V43"/>
       <c r="W43" s="9"/>
       <c r="Y43" s="9"/>
     </row>
     <row r="44" spans="1:25" s="8" customFormat="1">
-      <c r="A44" s="71"/>
-      <c r="B44" s="69"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="73" t="s">
+      <c r="A44" s="59"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="E44" s="72" t="s">
-        <v>364</v>
-      </c>
-      <c r="F44" s="48"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="35"/>
-      <c r="J44" s="147"/>
-      <c r="K44" s="108"/>
-      <c r="L44" s="134"/>
-      <c r="M44" s="134"/>
+      <c r="E44" s="60" t="s">
+        <v>319</v>
+      </c>
+      <c r="F44" s="38"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="131"/>
+      <c r="K44" s="96"/>
+      <c r="L44" s="120"/>
+      <c r="M44" s="120"/>
       <c r="N44" s="4"/>
       <c r="O44" s="4"/>
-      <c r="Q44" s="9"/>
-      <c r="S44" s="9"/>
-      <c r="U44" s="9"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="10"/>
+      <c r="U44" s="5"/>
+      <c r="V44"/>
       <c r="W44" s="9"/>
       <c r="Y44" s="9"/>
     </row>
     <row r="45" spans="1:25" s="8" customFormat="1">
-      <c r="A45" s="71"/>
-      <c r="B45" s="69"/>
-      <c r="C45" s="42"/>
-      <c r="D45" s="70"/>
-      <c r="E45" s="72" t="s">
-        <v>365</v>
-      </c>
-      <c r="F45" s="48"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="35"/>
-      <c r="J45" s="147"/>
-      <c r="K45" s="108"/>
-      <c r="L45" s="134"/>
-      <c r="M45" s="134"/>
+      <c r="A45" s="59"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="60" t="s">
+        <v>320</v>
+      </c>
+      <c r="F45" s="38"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="131"/>
+      <c r="K45" s="96"/>
+      <c r="L45" s="120"/>
+      <c r="M45" s="120"/>
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
-      <c r="Q45" s="9"/>
-      <c r="S45" s="9"/>
-      <c r="U45" s="9"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="10"/>
+      <c r="U45" s="5"/>
+      <c r="V45"/>
       <c r="W45" s="9"/>
       <c r="Y45" s="9"/>
     </row>
     <row r="46" spans="1:25" s="8" customFormat="1">
-      <c r="A46" s="71"/>
-      <c r="B46" s="69"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="70"/>
-      <c r="E46" s="72" t="s">
-        <v>366</v>
-      </c>
-      <c r="F46" s="48"/>
-      <c r="G46" s="49"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="35"/>
-      <c r="J46" s="147"/>
-      <c r="K46" s="108"/>
-      <c r="L46" s="134"/>
-      <c r="M46" s="134"/>
+      <c r="A46" s="59"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="60" t="s">
+        <v>321</v>
+      </c>
+      <c r="F46" s="38"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="131"/>
+      <c r="K46" s="96"/>
+      <c r="L46" s="120"/>
+      <c r="M46" s="120"/>
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
-      <c r="Q46" s="9"/>
-      <c r="S46" s="9"/>
-      <c r="U46" s="9"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="5"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="10"/>
+      <c r="U46" s="5"/>
+      <c r="V46"/>
       <c r="W46" s="9"/>
       <c r="Y46" s="9"/>
     </row>
     <row r="47" spans="1:25" s="8" customFormat="1">
-      <c r="A47" s="71" t="s">
-        <v>353</v>
-      </c>
-      <c r="B47" s="69" t="s">
-        <v>370</v>
-      </c>
-      <c r="C47" s="42"/>
-      <c r="D47" s="70" t="s">
-        <v>367</v>
-      </c>
-      <c r="E47" s="74" t="s">
-        <v>369</v>
-      </c>
-      <c r="F47" s="88" t="s">
-        <v>381</v>
-      </c>
-      <c r="G47" s="49"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="35"/>
-      <c r="J47" s="147"/>
-      <c r="K47" s="108"/>
-      <c r="L47" s="134"/>
-      <c r="M47" s="134"/>
+      <c r="A47" s="59" t="s">
+        <v>308</v>
+      </c>
+      <c r="B47" s="57" t="s">
+        <v>325</v>
+      </c>
+      <c r="C47" s="32"/>
+      <c r="D47" s="58" t="s">
+        <v>322</v>
+      </c>
+      <c r="E47" s="62" t="s">
+        <v>324</v>
+      </c>
+      <c r="F47" s="76" t="s">
+        <v>336</v>
+      </c>
+      <c r="G47" s="39"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="131"/>
+      <c r="K47" s="96"/>
+      <c r="L47" s="120"/>
+      <c r="M47" s="120"/>
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
-      <c r="Q47" s="9"/>
-      <c r="S47" s="9"/>
-      <c r="U47" s="9"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="10"/>
+      <c r="U47" s="5"/>
+      <c r="V47"/>
       <c r="W47" s="9"/>
       <c r="Y47" s="9"/>
     </row>
     <row r="48" spans="1:25" s="8" customFormat="1">
-      <c r="A48" s="71" t="s">
-        <v>353</v>
-      </c>
-      <c r="B48" s="69" t="s">
-        <v>370</v>
-      </c>
-      <c r="C48" s="42"/>
-      <c r="D48" s="70" t="s">
-        <v>368</v>
-      </c>
-      <c r="E48" s="74" t="s">
-        <v>369</v>
-      </c>
-      <c r="F48" s="59" t="s">
-        <v>383</v>
-      </c>
-      <c r="G48" s="49"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="35"/>
-      <c r="J48" s="147"/>
-      <c r="K48" s="108"/>
-      <c r="L48" s="134"/>
-      <c r="M48" s="134"/>
+      <c r="A48" s="59" t="s">
+        <v>308</v>
+      </c>
+      <c r="B48" s="57" t="s">
+        <v>325</v>
+      </c>
+      <c r="C48" s="32"/>
+      <c r="D48" s="58" t="s">
+        <v>323</v>
+      </c>
+      <c r="E48" s="62" t="s">
+        <v>324</v>
+      </c>
+      <c r="F48" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="G48" s="39"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="131"/>
+      <c r="K48" s="96"/>
+      <c r="L48" s="120"/>
+      <c r="M48" s="120"/>
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
-      <c r="Q48" s="9"/>
-      <c r="S48" s="9"/>
-      <c r="U48" s="9"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="10"/>
+      <c r="U48" s="5"/>
+      <c r="V48"/>
       <c r="W48" s="9"/>
       <c r="Y48" s="9"/>
     </row>
     <row r="49" spans="1:25" s="8" customFormat="1">
-      <c r="A49" s="71" t="s">
-        <v>353</v>
-      </c>
-      <c r="B49" s="69" t="s">
-        <v>370</v>
-      </c>
-      <c r="C49" s="42"/>
-      <c r="D49" s="70" t="s">
-        <v>372</v>
-      </c>
-      <c r="E49" s="74" t="s">
-        <v>369</v>
-      </c>
-      <c r="F49" s="59" t="s">
-        <v>383</v>
-      </c>
-      <c r="G49" s="49"/>
-      <c r="H49" s="34"/>
-      <c r="I49" s="35"/>
-      <c r="J49" s="147"/>
-      <c r="K49" s="108"/>
-      <c r="L49" s="134"/>
-      <c r="M49" s="134"/>
+      <c r="A49" s="59" t="s">
+        <v>308</v>
+      </c>
+      <c r="B49" s="57" t="s">
+        <v>325</v>
+      </c>
+      <c r="C49" s="32"/>
+      <c r="D49" s="58" t="s">
+        <v>327</v>
+      </c>
+      <c r="E49" s="62" t="s">
+        <v>324</v>
+      </c>
+      <c r="F49" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="G49" s="39"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="131"/>
+      <c r="K49" s="96"/>
+      <c r="L49" s="120"/>
+      <c r="M49" s="120"/>
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
-      <c r="Q49" s="9"/>
-      <c r="S49" s="9"/>
-      <c r="U49" s="9"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="10"/>
+      <c r="U49" s="5"/>
+      <c r="V49"/>
       <c r="W49" s="9"/>
       <c r="Y49" s="9"/>
     </row>
     <row r="50" spans="1:25" s="8" customFormat="1">
-      <c r="A50" s="71" t="s">
-        <v>353</v>
-      </c>
-      <c r="B50" s="69" t="s">
-        <v>363</v>
-      </c>
-      <c r="C50" s="42"/>
-      <c r="D50" s="70" t="s">
-        <v>373</v>
-      </c>
-      <c r="E50" s="74" t="s">
-        <v>374</v>
-      </c>
-      <c r="F50" s="88" t="s">
-        <v>380</v>
-      </c>
-      <c r="G50" s="90" t="s">
-        <v>401</v>
-      </c>
-      <c r="H50" s="34"/>
-      <c r="I50" s="35"/>
-      <c r="J50" s="147"/>
-      <c r="K50" s="108"/>
-      <c r="L50" s="134"/>
-      <c r="M50" s="134"/>
+      <c r="A50" s="59" t="s">
+        <v>308</v>
+      </c>
+      <c r="B50" s="57" t="s">
+        <v>318</v>
+      </c>
+      <c r="C50" s="32"/>
+      <c r="D50" s="58" t="s">
+        <v>328</v>
+      </c>
+      <c r="E50" s="62" t="s">
+        <v>329</v>
+      </c>
+      <c r="F50" s="76" t="s">
+        <v>335</v>
+      </c>
+      <c r="G50" s="78" t="s">
+        <v>356</v>
+      </c>
+      <c r="H50" s="26"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="131"/>
+      <c r="K50" s="96"/>
+      <c r="L50" s="120"/>
+      <c r="M50" s="120"/>
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
-      <c r="Q50" s="9"/>
-      <c r="S50" s="9"/>
-      <c r="U50" s="9"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="5"/>
+      <c r="S50" s="4"/>
+      <c r="T50" s="10"/>
+      <c r="U50" s="5"/>
+      <c r="V50"/>
       <c r="W50" s="9"/>
       <c r="Y50" s="9"/>
     </row>
-    <row r="51" spans="1:25" s="18" customFormat="1" ht="16" thickBot="1">
-      <c r="A51" s="110" t="s">
-        <v>353</v>
-      </c>
-      <c r="B51" s="111"/>
-      <c r="C51" s="80"/>
-      <c r="D51" s="112"/>
-      <c r="E51" s="113"/>
-      <c r="F51" s="114" t="s">
-        <v>404</v>
-      </c>
-      <c r="G51" s="114" t="s">
-        <v>403</v>
-      </c>
-      <c r="H51" s="115"/>
-      <c r="I51" s="116"/>
-      <c r="J51" s="148"/>
-      <c r="K51" s="167"/>
-      <c r="L51" s="135"/>
-      <c r="M51" s="135"/>
-      <c r="N51" s="20"/>
-      <c r="O51" s="20"/>
-      <c r="Q51" s="17"/>
-      <c r="S51" s="17"/>
+    <row r="51" spans="1:25" s="16" customFormat="1" ht="16" thickBot="1">
+      <c r="A51" s="98" t="s">
+        <v>308</v>
+      </c>
+      <c r="B51" s="99"/>
+      <c r="C51" s="68"/>
+      <c r="D51" s="100"/>
+      <c r="E51" s="101"/>
+      <c r="F51" s="102" t="s">
+        <v>359</v>
+      </c>
+      <c r="G51" s="102" t="s">
+        <v>358</v>
+      </c>
+      <c r="H51" s="103"/>
+      <c r="I51" s="104"/>
+      <c r="J51" s="132"/>
+      <c r="K51" s="151"/>
+      <c r="L51" s="121"/>
+      <c r="M51" s="121"/>
+      <c r="N51" s="18"/>
+      <c r="O51" s="18"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="18"/>
+      <c r="R51" s="17"/>
+      <c r="S51" s="18"/>
+      <c r="T51" s="208"/>
       <c r="U51" s="17"/>
-      <c r="W51" s="17"/>
-      <c r="Y51" s="17"/>
-    </row>
-    <row r="52" spans="1:25" s="170" customFormat="1" ht="16" thickBot="1">
-      <c r="A52" s="169" t="s">
-        <v>268</v>
-      </c>
-      <c r="C52" s="171"/>
-      <c r="E52" s="172"/>
-      <c r="F52" s="173" t="s">
-        <v>424</v>
-      </c>
-      <c r="G52" s="172"/>
-      <c r="H52" s="174" t="s">
-        <v>425</v>
-      </c>
-      <c r="I52" s="172"/>
-      <c r="J52" s="175"/>
-      <c r="K52" s="176"/>
-      <c r="L52" s="180"/>
-      <c r="M52" s="177"/>
-      <c r="N52" s="172"/>
-      <c r="O52" s="172"/>
-      <c r="Q52" s="172"/>
-      <c r="S52" s="172"/>
-      <c r="U52" s="172"/>
-      <c r="W52" s="172"/>
-      <c r="Y52" s="172"/>
+      <c r="V51" s="24"/>
+      <c r="W51" s="15"/>
+      <c r="Y51" s="15"/>
+    </row>
+    <row r="52" spans="1:25" s="154" customFormat="1" ht="16" thickBot="1">
+      <c r="A52" s="153" t="s">
+        <v>250</v>
+      </c>
+      <c r="C52" s="155"/>
+      <c r="E52" s="156"/>
+      <c r="F52" s="157" t="s">
+        <v>379</v>
+      </c>
+      <c r="G52" s="156"/>
+      <c r="H52" s="158" t="s">
+        <v>380</v>
+      </c>
+      <c r="I52" s="156"/>
+      <c r="J52" s="159"/>
+      <c r="K52" s="160"/>
+      <c r="L52" s="163"/>
+      <c r="M52" s="161"/>
+      <c r="N52" s="156"/>
+      <c r="O52" s="156"/>
+      <c r="Q52" s="156"/>
+      <c r="S52" s="156"/>
+      <c r="T52" s="209"/>
+      <c r="W52" s="156"/>
+      <c r="Y52" s="156"/>
     </row>
     <row r="53" spans="1:25" s="5" customFormat="1">
-      <c r="A53" s="45" t="s">
+      <c r="A53" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C53" s="39">
+      <c r="C53" s="29">
         <v>14</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E53" s="46" t="s">
+      <c r="E53" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="F53" s="89" t="s">
-        <v>432</v>
-      </c>
-      <c r="G53" s="120"/>
-      <c r="H53" s="12"/>
+      <c r="F53" s="77" t="s">
+        <v>387</v>
+      </c>
+      <c r="G53" s="108"/>
+      <c r="H53" s="10"/>
       <c r="I53" s="4"/>
-      <c r="J53" s="145"/>
-      <c r="K53" s="108"/>
-      <c r="L53" s="134"/>
-      <c r="M53" s="134"/>
+      <c r="J53" s="129"/>
+      <c r="K53" s="96"/>
+      <c r="L53" s="120"/>
+      <c r="M53" s="120"/>
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
       <c r="Q53" s="4"/>
       <c r="S53" s="4"/>
-      <c r="U53" s="4"/>
+      <c r="T53" s="10"/>
       <c r="W53" s="4"/>
       <c r="Y53" s="4"/>
     </row>
     <row r="54" spans="1:25" s="5" customFormat="1">
-      <c r="A54" s="47" t="s">
-        <v>348</v>
-      </c>
-      <c r="B54" s="36"/>
-      <c r="C54" s="39"/>
+      <c r="A54" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="B54" s="28"/>
+      <c r="C54" s="29"/>
       <c r="E54" s="4"/>
-      <c r="F54" s="89" t="s">
-        <v>404</v>
-      </c>
-      <c r="G54" s="93" t="s">
-        <v>403</v>
-      </c>
-      <c r="H54" s="34"/>
-      <c r="I54" s="35"/>
-      <c r="J54" s="144" t="s">
-        <v>431</v>
-      </c>
-      <c r="K54" s="108"/>
-      <c r="L54" s="134"/>
-      <c r="M54" s="134"/>
+      <c r="F54" s="77" t="s">
+        <v>359</v>
+      </c>
+      <c r="G54" s="81" t="s">
+        <v>358</v>
+      </c>
+      <c r="H54" s="26"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="128" t="s">
+        <v>386</v>
+      </c>
+      <c r="K54" s="96"/>
+      <c r="L54" s="120"/>
+      <c r="M54" s="120"/>
       <c r="N54" s="4"/>
       <c r="O54" s="4"/>
       <c r="Q54" s="4"/>
       <c r="S54" s="4"/>
-      <c r="U54" s="4"/>
+      <c r="T54" s="10"/>
       <c r="W54" s="4"/>
       <c r="Y54" s="4"/>
     </row>
     <row r="55" spans="1:25" s="5" customFormat="1">
-      <c r="A55" s="45" t="s">
+      <c r="A55" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B55" s="36"/>
-      <c r="C55" s="39">
+      <c r="B55" s="28"/>
+      <c r="C55" s="29">
         <v>15</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E55" s="46" t="s">
+      <c r="E55" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="F55" s="12" t="s">
+      <c r="F55" s="10" t="s">
         <v>177</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="H55" s="12" t="s">
-        <v>270</v>
+      <c r="H55" s="10" t="s">
+        <v>252</v>
       </c>
       <c r="I55" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="J55" s="147"/>
-      <c r="K55" s="108"/>
-      <c r="L55" s="134"/>
-      <c r="M55" s="134"/>
+      <c r="J55" s="131"/>
+      <c r="K55" s="96"/>
+      <c r="L55" s="120"/>
+      <c r="M55" s="120"/>
       <c r="N55" s="4"/>
       <c r="O55" s="4"/>
       <c r="Q55" s="4"/>
       <c r="S55" s="4"/>
-      <c r="U55" s="4"/>
+      <c r="T55" s="10"/>
       <c r="W55" s="4"/>
       <c r="Y55" s="4"/>
     </row>
-    <row r="56" spans="1:25" s="19" customFormat="1" ht="16" thickBot="1">
-      <c r="A56" s="121" t="s">
-        <v>348</v>
-      </c>
-      <c r="B56" s="122"/>
-      <c r="C56" s="107"/>
-      <c r="E56" s="123"/>
-      <c r="F56" s="124" t="s">
-        <v>257</v>
-      </c>
-      <c r="G56" s="162" t="s">
-        <v>269</v>
-      </c>
-      <c r="H56" s="115"/>
-      <c r="I56" s="116"/>
-      <c r="J56" s="149"/>
-      <c r="K56" s="167"/>
-      <c r="L56" s="135"/>
-      <c r="M56" s="135"/>
-      <c r="N56" s="20"/>
-      <c r="O56" s="20"/>
-      <c r="Q56" s="20"/>
-      <c r="S56" s="20"/>
-      <c r="U56" s="20"/>
-      <c r="W56" s="20"/>
-      <c r="Y56" s="20"/>
+    <row r="56" spans="1:25" s="17" customFormat="1" ht="16" thickBot="1">
+      <c r="A56" s="109" t="s">
+        <v>303</v>
+      </c>
+      <c r="B56" s="110"/>
+      <c r="C56" s="95"/>
+      <c r="E56" s="111"/>
+      <c r="F56" s="112" t="s">
+        <v>239</v>
+      </c>
+      <c r="G56" s="146" t="s">
+        <v>251</v>
+      </c>
+      <c r="H56" s="103"/>
+      <c r="I56" s="104"/>
+      <c r="J56" s="133"/>
+      <c r="K56" s="151"/>
+      <c r="L56" s="121"/>
+      <c r="M56" s="121"/>
+      <c r="N56" s="18"/>
+      <c r="O56" s="18"/>
+      <c r="Q56" s="18"/>
+      <c r="S56" s="18"/>
+      <c r="T56" s="208"/>
+      <c r="W56" s="18"/>
+      <c r="Y56" s="18"/>
     </row>
     <row r="57" spans="1:25" s="8" customFormat="1">
-      <c r="A57" s="50" t="s">
+      <c r="A57" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="B57" s="51"/>
-      <c r="C57" s="42">
+      <c r="B57" s="41"/>
+      <c r="C57" s="32">
         <v>17</v>
       </c>
-      <c r="D57" s="43" t="s">
+      <c r="D57" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="E57" s="52" t="s">
+      <c r="E57" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="F57" s="41" t="s">
+      <c r="F57" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="G57" s="44" t="s">
+      <c r="G57" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="H57" s="41" t="s">
-        <v>304</v>
-      </c>
-      <c r="I57" s="44" t="s">
-        <v>307</v>
-      </c>
-      <c r="J57" s="144" t="s">
-        <v>431</v>
-      </c>
-      <c r="K57" s="75" t="s">
+      <c r="H57" s="31" t="s">
+        <v>286</v>
+      </c>
+      <c r="I57" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="J57" s="128" t="s">
+        <v>386</v>
+      </c>
+      <c r="K57" s="63" t="s">
         <v>178</v>
       </c>
-      <c r="L57" s="134"/>
-      <c r="M57" s="134"/>
-      <c r="N57" s="44" t="s">
-        <v>532</v>
+      <c r="L57" s="120"/>
+      <c r="M57" s="120"/>
+      <c r="N57" s="34" t="s">
+        <v>487</v>
       </c>
       <c r="O57" s="4"/>
-      <c r="Q57" s="9"/>
-      <c r="S57" s="9"/>
-      <c r="T57" s="5"/>
-      <c r="U57" s="4"/>
+      <c r="P57" s="5"/>
+      <c r="Q57" s="4"/>
+      <c r="R57" s="5"/>
+      <c r="S57" s="4"/>
+      <c r="T57" s="10"/>
+      <c r="U57" s="5"/>
+      <c r="V57"/>
       <c r="W57" s="9"/>
       <c r="Y57" s="9"/>
     </row>
-    <row r="58" spans="1:25" s="18" customFormat="1" ht="16" thickBot="1">
-      <c r="A58" s="125" t="s">
-        <v>349</v>
-      </c>
-      <c r="B58" s="126"/>
-      <c r="C58" s="80"/>
-      <c r="D58" s="79"/>
-      <c r="E58" s="99"/>
-      <c r="F58" s="127" t="s">
-        <v>257</v>
-      </c>
-      <c r="G58" s="118" t="s">
-        <v>416</v>
-      </c>
-      <c r="H58" s="122"/>
-      <c r="I58" s="116"/>
-      <c r="J58" s="149"/>
-      <c r="K58" s="167"/>
-      <c r="L58" s="135"/>
-      <c r="M58" s="135"/>
-      <c r="N58" s="99" t="s">
-        <v>538</v>
-      </c>
-      <c r="O58" s="20"/>
-      <c r="Q58" s="17"/>
-      <c r="S58" s="17"/>
-      <c r="T58" s="19"/>
-      <c r="U58" s="20"/>
-      <c r="W58" s="17"/>
-      <c r="Y58" s="17"/>
+    <row r="58" spans="1:25" s="16" customFormat="1" ht="16" thickBot="1">
+      <c r="A58" s="113" t="s">
+        <v>304</v>
+      </c>
+      <c r="B58" s="114"/>
+      <c r="C58" s="68"/>
+      <c r="D58" s="67"/>
+      <c r="E58" s="87"/>
+      <c r="F58" s="115" t="s">
+        <v>239</v>
+      </c>
+      <c r="G58" s="106" t="s">
+        <v>371</v>
+      </c>
+      <c r="H58" s="110"/>
+      <c r="I58" s="104"/>
+      <c r="J58" s="133"/>
+      <c r="K58" s="151"/>
+      <c r="L58" s="121"/>
+      <c r="M58" s="121"/>
+      <c r="N58" s="87" t="s">
+        <v>493</v>
+      </c>
+      <c r="O58" s="18"/>
+      <c r="P58" s="17"/>
+      <c r="Q58" s="18"/>
+      <c r="R58" s="17"/>
+      <c r="S58" s="18"/>
+      <c r="T58" s="208"/>
+      <c r="U58" s="17"/>
+      <c r="V58" s="24"/>
+      <c r="W58" s="15"/>
+      <c r="Y58" s="15"/>
     </row>
     <row r="59" spans="1:25" s="8" customFormat="1">
-      <c r="A59" s="47"/>
-      <c r="B59" s="36"/>
-      <c r="C59" s="39"/>
+      <c r="A59" s="37"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="29"/>
       <c r="D59" s="5"/>
       <c r="E59" s="4"/>
-      <c r="F59" s="89" t="s">
-        <v>272</v>
-      </c>
-      <c r="G59" s="93" t="s">
-        <v>275</v>
-      </c>
-      <c r="H59" s="75" t="s">
-        <v>306</v>
-      </c>
-      <c r="I59" s="101" t="s">
-        <v>393</v>
-      </c>
-      <c r="J59" s="146" t="s">
-        <v>433</v>
-      </c>
-      <c r="K59" s="108"/>
-      <c r="L59" s="134"/>
-      <c r="M59" s="134"/>
+      <c r="F59" s="77" t="s">
+        <v>254</v>
+      </c>
+      <c r="G59" s="81" t="s">
+        <v>257</v>
+      </c>
+      <c r="H59" s="63" t="s">
+        <v>288</v>
+      </c>
+      <c r="I59" s="89" t="s">
+        <v>348</v>
+      </c>
+      <c r="J59" s="130" t="s">
+        <v>388</v>
+      </c>
+      <c r="K59" s="96"/>
+      <c r="L59" s="120"/>
+      <c r="M59" s="120"/>
       <c r="N59" s="4"/>
       <c r="O59" s="4"/>
-      <c r="Q59" s="9"/>
-      <c r="S59" s="9"/>
-      <c r="T59" s="5"/>
-      <c r="U59" s="4"/>
+      <c r="P59" s="5"/>
+      <c r="Q59" s="4"/>
+      <c r="R59" s="5"/>
+      <c r="S59" s="4"/>
+      <c r="T59" s="10"/>
+      <c r="U59" s="5"/>
+      <c r="V59"/>
       <c r="W59" s="9"/>
       <c r="Y59" s="9"/>
     </row>
     <row r="60" spans="1:25" s="8" customFormat="1">
-      <c r="A60" s="47"/>
-      <c r="B60" s="36"/>
-      <c r="C60" s="39"/>
+      <c r="A60" s="37"/>
+      <c r="B60" s="28"/>
+      <c r="C60" s="29"/>
       <c r="D60" s="5"/>
       <c r="E60" s="4"/>
-      <c r="F60" s="89" t="s">
-        <v>273</v>
-      </c>
-      <c r="G60" s="117" t="s">
-        <v>274</v>
-      </c>
-      <c r="H60" s="75" t="s">
-        <v>306</v>
-      </c>
-      <c r="I60" s="101" t="s">
-        <v>393</v>
-      </c>
-      <c r="J60" s="146" t="s">
-        <v>434</v>
-      </c>
-      <c r="K60" s="108"/>
-      <c r="L60" s="134"/>
-      <c r="M60" s="134"/>
+      <c r="F60" s="77" t="s">
+        <v>255</v>
+      </c>
+      <c r="G60" s="105" t="s">
+        <v>256</v>
+      </c>
+      <c r="H60" s="63" t="s">
+        <v>288</v>
+      </c>
+      <c r="I60" s="89" t="s">
+        <v>348</v>
+      </c>
+      <c r="J60" s="130" t="s">
+        <v>389</v>
+      </c>
+      <c r="K60" s="96"/>
+      <c r="L60" s="120"/>
+      <c r="M60" s="120"/>
       <c r="N60" s="4"/>
       <c r="O60" s="4"/>
-      <c r="Q60" s="9"/>
-      <c r="S60" s="9"/>
-      <c r="T60" s="5"/>
-      <c r="U60" s="4"/>
+      <c r="P60" s="5"/>
+      <c r="Q60" s="4"/>
+      <c r="R60" s="5"/>
+      <c r="S60" s="4"/>
+      <c r="T60" s="10"/>
+      <c r="U60" s="5"/>
+      <c r="V60"/>
       <c r="W60" s="9"/>
       <c r="Y60" s="9"/>
     </row>
     <row r="61" spans="1:25" s="8" customFormat="1">
-      <c r="A61" s="45" t="s">
+      <c r="A61" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B61" s="36"/>
-      <c r="C61" s="39">
+      <c r="B61" s="28"/>
+      <c r="C61" s="29">
         <v>18</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E61" s="46" t="s">
+      <c r="E61" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="F61" s="75" t="s">
-        <v>384</v>
-      </c>
-      <c r="G61" s="44" t="s">
+      <c r="F61" s="63" t="s">
+        <v>339</v>
+      </c>
+      <c r="G61" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="H61" s="43" t="s">
-        <v>305</v>
-      </c>
-      <c r="I61" s="44" t="s">
+      <c r="H61" s="33" t="s">
+        <v>287</v>
+      </c>
+      <c r="I61" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="J61" s="144" t="s">
-        <v>431</v>
-      </c>
-      <c r="K61" s="75" t="s">
-        <v>464</v>
-      </c>
-      <c r="L61" s="134"/>
-      <c r="M61" s="134"/>
-      <c r="N61" s="44" t="s">
-        <v>533</v>
-      </c>
-      <c r="O61" s="44" t="s">
+      <c r="J61" s="128" t="s">
+        <v>386</v>
+      </c>
+      <c r="K61" s="63" t="s">
+        <v>419</v>
+      </c>
+      <c r="L61" s="120"/>
+      <c r="M61" s="120"/>
+      <c r="N61" s="34" t="s">
+        <v>488</v>
+      </c>
+      <c r="O61" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="Q61" s="9"/>
-      <c r="S61" s="9"/>
-      <c r="T61" s="5"/>
-      <c r="U61" s="4"/>
+      <c r="P61" s="5"/>
+      <c r="Q61" s="4"/>
+      <c r="R61" s="5"/>
+      <c r="S61" s="4"/>
+      <c r="T61" s="10"/>
+      <c r="U61" s="5"/>
+      <c r="V61"/>
       <c r="W61" s="9"/>
       <c r="Y61" s="9"/>
     </row>
     <row r="62" spans="1:25" s="8" customFormat="1">
-      <c r="A62" s="47" t="s">
-        <v>348</v>
-      </c>
-      <c r="B62" s="36"/>
-      <c r="C62" s="39"/>
+      <c r="A62" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="B62" s="28"/>
+      <c r="C62" s="29"/>
       <c r="D62" s="5"/>
       <c r="E62" s="4"/>
-      <c r="F62" s="88" t="s">
-        <v>257</v>
-      </c>
-      <c r="G62" s="117" t="s">
-        <v>417</v>
-      </c>
-      <c r="H62" s="34"/>
-      <c r="I62" s="35"/>
-      <c r="J62" s="145"/>
-      <c r="K62" s="108"/>
-      <c r="L62" s="134"/>
-      <c r="M62" s="134"/>
+      <c r="F62" s="76" t="s">
+        <v>239</v>
+      </c>
+      <c r="G62" s="105" t="s">
+        <v>372</v>
+      </c>
+      <c r="H62" s="26"/>
+      <c r="I62" s="27"/>
+      <c r="J62" s="129"/>
+      <c r="K62" s="96"/>
+      <c r="L62" s="120"/>
+      <c r="M62" s="120"/>
       <c r="N62" s="4"/>
       <c r="O62" s="4"/>
-      <c r="Q62" s="9"/>
-      <c r="S62" s="9"/>
-      <c r="T62" s="5"/>
-      <c r="U62" s="4"/>
+      <c r="P62" s="5"/>
+      <c r="Q62" s="4"/>
+      <c r="R62" s="5"/>
+      <c r="S62" s="4"/>
+      <c r="T62" s="10"/>
+      <c r="U62" s="5"/>
+      <c r="V62"/>
       <c r="W62" s="9"/>
       <c r="Y62" s="9"/>
     </row>
     <row r="63" spans="1:25" s="8" customFormat="1">
-      <c r="A63" s="47"/>
-      <c r="B63" s="36"/>
-      <c r="C63" s="39"/>
+      <c r="A63" s="37"/>
+      <c r="B63" s="28"/>
+      <c r="C63" s="29"/>
       <c r="D63" s="5"/>
       <c r="E63" s="4"/>
-      <c r="F63" s="89" t="s">
-        <v>276</v>
-      </c>
-      <c r="G63" s="93" t="s">
-        <v>278</v>
-      </c>
-      <c r="H63" s="75" t="s">
-        <v>306</v>
-      </c>
-      <c r="I63" s="101" t="s">
-        <v>393</v>
-      </c>
-      <c r="J63" s="146" t="s">
-        <v>435</v>
-      </c>
-      <c r="K63" s="108"/>
-      <c r="L63" s="134"/>
-      <c r="M63" s="134"/>
+      <c r="F63" s="77" t="s">
+        <v>258</v>
+      </c>
+      <c r="G63" s="81" t="s">
+        <v>260</v>
+      </c>
+      <c r="H63" s="63" t="s">
+        <v>288</v>
+      </c>
+      <c r="I63" s="89" t="s">
+        <v>348</v>
+      </c>
+      <c r="J63" s="130" t="s">
+        <v>390</v>
+      </c>
+      <c r="K63" s="96"/>
+      <c r="L63" s="120"/>
+      <c r="M63" s="120"/>
       <c r="N63" s="4"/>
       <c r="O63" s="4"/>
-      <c r="Q63" s="9"/>
-      <c r="S63" s="9"/>
-      <c r="T63" s="5"/>
-      <c r="U63" s="4"/>
+      <c r="P63" s="5"/>
+      <c r="Q63" s="4"/>
+      <c r="R63" s="5"/>
+      <c r="S63" s="4"/>
+      <c r="T63" s="10"/>
+      <c r="U63" s="5"/>
+      <c r="V63"/>
       <c r="W63" s="9"/>
       <c r="Y63" s="9"/>
     </row>
-    <row r="64" spans="1:25" s="18" customFormat="1" ht="16" thickBot="1">
-      <c r="A64" s="121"/>
-      <c r="B64" s="122"/>
-      <c r="C64" s="107"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="114" t="s">
-        <v>277</v>
-      </c>
-      <c r="G64" s="118" t="s">
-        <v>279</v>
-      </c>
-      <c r="H64" s="102" t="s">
-        <v>306</v>
-      </c>
-      <c r="I64" s="103" t="s">
-        <v>393</v>
-      </c>
-      <c r="J64" s="150" t="s">
-        <v>436</v>
-      </c>
-      <c r="K64" s="167"/>
-      <c r="L64" s="135"/>
-      <c r="M64" s="135"/>
-      <c r="N64" s="20"/>
-      <c r="O64" s="20"/>
-      <c r="Q64" s="17"/>
-      <c r="S64" s="17"/>
-      <c r="T64" s="19"/>
-      <c r="U64" s="20"/>
-      <c r="W64" s="17"/>
-      <c r="Y64" s="17"/>
+    <row r="64" spans="1:25" s="16" customFormat="1" ht="16" thickBot="1">
+      <c r="A64" s="109"/>
+      <c r="B64" s="110"/>
+      <c r="C64" s="95"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="102" t="s">
+        <v>259</v>
+      </c>
+      <c r="G64" s="106" t="s">
+        <v>261</v>
+      </c>
+      <c r="H64" s="90" t="s">
+        <v>288</v>
+      </c>
+      <c r="I64" s="91" t="s">
+        <v>348</v>
+      </c>
+      <c r="J64" s="134" t="s">
+        <v>391</v>
+      </c>
+      <c r="K64" s="151"/>
+      <c r="L64" s="121"/>
+      <c r="M64" s="121"/>
+      <c r="N64" s="18"/>
+      <c r="O64" s="18"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="18"/>
+      <c r="R64" s="17"/>
+      <c r="S64" s="18"/>
+      <c r="T64" s="208"/>
+      <c r="U64" s="17"/>
+      <c r="V64" s="24"/>
+      <c r="W64" s="15"/>
+      <c r="Y64" s="15"/>
     </row>
     <row r="65" spans="1:36">
-      <c r="A65" s="50" t="s">
-        <v>241</v>
-      </c>
-      <c r="B65" s="41"/>
-      <c r="C65" s="42" t="s">
-        <v>339</v>
-      </c>
-      <c r="D65" s="43" t="s">
+      <c r="A65" s="40" t="s">
+        <v>223</v>
+      </c>
+      <c r="B65" s="31"/>
+      <c r="C65" s="32" t="s">
+        <v>301</v>
+      </c>
+      <c r="D65" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="E65" s="52" t="s">
+      <c r="E65" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="F65" s="41" t="s">
+      <c r="F65" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="G65" s="44" t="s">
+      <c r="G65" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="H65" s="41" t="s">
-        <v>426</v>
-      </c>
-      <c r="I65" s="44" t="s">
+      <c r="H65" s="31" t="s">
+        <v>381</v>
+      </c>
+      <c r="I65" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="J65" s="146" t="s">
-        <v>449</v>
-      </c>
-      <c r="K65" s="108"/>
-      <c r="L65" s="134"/>
-      <c r="M65" s="134"/>
+      <c r="J65" s="130" t="s">
+        <v>404</v>
+      </c>
+      <c r="K65" s="96"/>
+      <c r="L65" s="120"/>
+      <c r="M65" s="120"/>
       <c r="N65" s="4"/>
       <c r="O65" s="4"/>
-      <c r="P65" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q65" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="R65" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="S65" s="9"/>
-      <c r="T65" s="5"/>
-      <c r="U65" s="4"/>
-      <c r="V65" s="8"/>
+      <c r="P65" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q65" s="34" t="s">
+        <v>523</v>
+      </c>
+      <c r="R65" s="33" t="s">
+        <v>530</v>
+      </c>
+      <c r="S65" s="4"/>
+      <c r="T65" s="10"/>
+      <c r="U65" s="5"/>
     </row>
     <row r="66" spans="1:36">
-      <c r="A66" s="53" t="s">
-        <v>271</v>
-      </c>
-      <c r="B66" s="41"/>
-      <c r="C66" s="42"/>
-      <c r="D66" s="43"/>
-      <c r="E66" s="52"/>
-      <c r="F66" s="88" t="s">
-        <v>257</v>
-      </c>
-      <c r="G66" s="117" t="s">
-        <v>418</v>
-      </c>
-      <c r="H66" s="12"/>
+      <c r="A66" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="B66" s="31"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="42"/>
+      <c r="F66" s="76" t="s">
+        <v>239</v>
+      </c>
+      <c r="G66" s="105" t="s">
+        <v>373</v>
+      </c>
+      <c r="H66" s="10"/>
       <c r="I66" s="4"/>
-      <c r="J66" s="145"/>
-      <c r="K66" s="108"/>
-      <c r="L66" s="134"/>
-      <c r="M66" s="134"/>
+      <c r="J66" s="129"/>
+      <c r="K66" s="96"/>
+      <c r="L66" s="120"/>
+      <c r="M66" s="120"/>
       <c r="N66" s="4"/>
-      <c r="O66" s="12"/>
-      <c r="P66" s="37" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q66" s="33" t="s">
-        <v>327</v>
-      </c>
-      <c r="R66" s="8"/>
-      <c r="S66" s="9"/>
-      <c r="T66" s="5"/>
-      <c r="U66" s="4"/>
-      <c r="V66" s="8"/>
+      <c r="O66" s="129"/>
+      <c r="P66" s="216" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q66" s="78" t="s">
+        <v>297</v>
+      </c>
+      <c r="R66" s="5"/>
+      <c r="S66" s="4"/>
+      <c r="T66" s="10"/>
+      <c r="U66" s="5"/>
       <c r="W66" s="6"/>
       <c r="Y66" s="6"/>
     </row>
     <row r="67" spans="1:36">
-      <c r="A67" s="47"/>
-      <c r="B67" s="12"/>
-      <c r="C67" s="39"/>
+      <c r="A67" s="37"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="29"/>
       <c r="D67" s="5"/>
-      <c r="E67" s="46"/>
-      <c r="F67" s="89" t="s">
-        <v>287</v>
-      </c>
-      <c r="G67" s="93" t="s">
-        <v>283</v>
-      </c>
-      <c r="H67" s="75" t="s">
-        <v>306</v>
-      </c>
-      <c r="I67" s="101" t="s">
-        <v>393</v>
-      </c>
-      <c r="J67" s="146" t="s">
-        <v>437</v>
-      </c>
-      <c r="K67" s="108"/>
-      <c r="L67" s="134"/>
-      <c r="M67" s="134"/>
+      <c r="E67" s="36"/>
+      <c r="F67" s="77" t="s">
+        <v>269</v>
+      </c>
+      <c r="G67" s="81" t="s">
+        <v>265</v>
+      </c>
+      <c r="H67" s="63" t="s">
+        <v>288</v>
+      </c>
+      <c r="I67" s="89" t="s">
+        <v>348</v>
+      </c>
+      <c r="J67" s="130" t="s">
+        <v>392</v>
+      </c>
+      <c r="K67" s="96"/>
+      <c r="L67" s="120"/>
+      <c r="M67" s="120"/>
       <c r="N67" s="4"/>
-      <c r="O67" s="12"/>
-      <c r="P67" s="38" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q67" s="32" t="s">
-        <v>326</v>
-      </c>
-      <c r="R67" s="8"/>
-      <c r="S67" s="9"/>
-      <c r="T67" s="5"/>
-      <c r="U67" s="4"/>
-      <c r="V67" s="8"/>
+      <c r="O67" s="129"/>
+      <c r="P67" s="79" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q67" s="81" t="s">
+        <v>296</v>
+      </c>
+      <c r="R67" s="33" t="s">
+        <v>528</v>
+      </c>
+      <c r="S67" s="4"/>
+      <c r="T67" s="10"/>
+      <c r="U67" s="5"/>
       <c r="W67" s="6"/>
       <c r="Y67" s="6"/>
     </row>
-    <row r="68" spans="1:36" s="30" customFormat="1" ht="16" thickBot="1">
-      <c r="A68" s="121"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="107"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="123"/>
-      <c r="F68" s="114" t="s">
-        <v>289</v>
-      </c>
-      <c r="G68" s="118" t="s">
-        <v>280</v>
-      </c>
-      <c r="H68" s="102" t="s">
-        <v>306</v>
-      </c>
-      <c r="I68" s="103" t="s">
+    <row r="68" spans="1:36" s="24" customFormat="1" ht="16" thickBot="1">
+      <c r="A68" s="109"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="95"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="111"/>
+      <c r="F68" s="102" t="s">
+        <v>271</v>
+      </c>
+      <c r="G68" s="106" t="s">
+        <v>262</v>
+      </c>
+      <c r="H68" s="90" t="s">
+        <v>288</v>
+      </c>
+      <c r="I68" s="91" t="s">
+        <v>348</v>
+      </c>
+      <c r="J68" s="134" t="s">
         <v>393</v>
       </c>
-      <c r="J68" s="150" t="s">
-        <v>438</v>
-      </c>
-      <c r="K68" s="167"/>
-      <c r="L68" s="135"/>
-      <c r="M68" s="135"/>
-      <c r="N68" s="20"/>
-      <c r="O68" s="19"/>
-      <c r="P68" s="128" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q68" s="129" t="s">
-        <v>325</v>
-      </c>
-      <c r="R68" s="18"/>
-      <c r="S68" s="17"/>
-      <c r="T68" s="19"/>
-      <c r="U68" s="20"/>
-      <c r="V68" s="18"/>
+      <c r="K68" s="151"/>
+      <c r="L68" s="121"/>
+      <c r="M68" s="121"/>
+      <c r="N68" s="18"/>
+      <c r="O68" s="133"/>
+      <c r="P68" s="102" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q68" s="164" t="s">
+        <v>295</v>
+      </c>
+      <c r="R68" s="67" t="s">
+        <v>529</v>
+      </c>
+      <c r="S68" s="18"/>
+      <c r="T68" s="208"/>
+      <c r="U68" s="17"/>
     </row>
     <row r="69" spans="1:36">
-      <c r="A69" s="50" t="s">
-        <v>242</v>
-      </c>
-      <c r="B69" s="41"/>
-      <c r="C69" s="42" t="s">
-        <v>340</v>
-      </c>
-      <c r="D69" s="43" t="s">
+      <c r="A69" s="40" t="s">
+        <v>224</v>
+      </c>
+      <c r="B69" s="31"/>
+      <c r="C69" s="32" t="s">
+        <v>302</v>
+      </c>
+      <c r="D69" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="E69" s="52" t="s">
+      <c r="E69" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="F69" s="41" t="s">
+      <c r="F69" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="G69" s="44" t="s">
+      <c r="G69" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="H69" s="41" t="s">
-        <v>427</v>
-      </c>
-      <c r="I69" s="44" t="s">
+      <c r="H69" s="31" t="s">
+        <v>382</v>
+      </c>
+      <c r="I69" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="J69" s="146" t="s">
-        <v>450</v>
-      </c>
-      <c r="K69" s="108"/>
-      <c r="L69" s="134"/>
-      <c r="M69" s="134"/>
+      <c r="J69" s="130" t="s">
+        <v>405</v>
+      </c>
+      <c r="K69" s="96"/>
+      <c r="L69" s="120"/>
+      <c r="M69" s="120"/>
       <c r="N69" s="4"/>
-      <c r="O69" s="12"/>
-      <c r="P69" s="3"/>
-      <c r="Q69" s="9"/>
-      <c r="R69" s="3"/>
-      <c r="S69" s="9"/>
-      <c r="T69" s="5"/>
-      <c r="U69" s="4"/>
-      <c r="V69" s="6"/>
+      <c r="O69" s="129"/>
+      <c r="P69" s="10"/>
+      <c r="Q69" s="4"/>
+      <c r="R69" s="10"/>
+      <c r="S69" s="4"/>
+      <c r="T69" s="10"/>
+      <c r="U69" s="5"/>
       <c r="W69" s="6"/>
       <c r="X69" s="6"/>
       <c r="Y69" s="6"/>
@@ -6140,34 +6380,33 @@
       <c r="AJ69" s="6"/>
     </row>
     <row r="70" spans="1:36">
-      <c r="A70" s="53" t="s">
-        <v>271</v>
-      </c>
-      <c r="B70" s="41"/>
-      <c r="C70" s="42"/>
-      <c r="D70" s="43"/>
-      <c r="E70" s="52"/>
-      <c r="F70" s="88" t="s">
-        <v>257</v>
-      </c>
-      <c r="G70" s="117" t="s">
-        <v>419</v>
-      </c>
-      <c r="H70" s="12"/>
+      <c r="A70" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="B70" s="31"/>
+      <c r="C70" s="32"/>
+      <c r="D70" s="33"/>
+      <c r="E70" s="42"/>
+      <c r="F70" s="76" t="s">
+        <v>239</v>
+      </c>
+      <c r="G70" s="105" t="s">
+        <v>374</v>
+      </c>
+      <c r="H70" s="10"/>
       <c r="I70" s="4"/>
-      <c r="J70" s="145"/>
-      <c r="K70" s="108"/>
-      <c r="L70" s="134"/>
-      <c r="M70" s="134"/>
+      <c r="J70" s="129"/>
+      <c r="K70" s="96"/>
+      <c r="L70" s="120"/>
+      <c r="M70" s="120"/>
       <c r="N70" s="4"/>
-      <c r="O70" s="12"/>
-      <c r="P70" s="3"/>
-      <c r="Q70" s="9"/>
-      <c r="R70" s="3"/>
-      <c r="S70" s="9"/>
-      <c r="T70" s="5"/>
-      <c r="U70" s="4"/>
-      <c r="V70" s="6"/>
+      <c r="O70" s="129"/>
+      <c r="P70" s="10"/>
+      <c r="Q70" s="4"/>
+      <c r="R70" s="10"/>
+      <c r="S70" s="4"/>
+      <c r="T70" s="10"/>
+      <c r="U70" s="5"/>
       <c r="W70" s="6"/>
       <c r="X70" s="6"/>
       <c r="Y70" s="6"/>
@@ -6184,38 +6423,37 @@
       <c r="AJ70" s="6"/>
     </row>
     <row r="71" spans="1:36">
-      <c r="A71" s="47"/>
-      <c r="B71" s="12"/>
-      <c r="C71" s="39"/>
+      <c r="A71" s="37"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="29"/>
       <c r="D71" s="5"/>
-      <c r="E71" s="46"/>
-      <c r="F71" s="89" t="s">
+      <c r="E71" s="36"/>
+      <c r="F71" s="77" t="s">
+        <v>270</v>
+      </c>
+      <c r="G71" s="81" t="s">
+        <v>263</v>
+      </c>
+      <c r="H71" s="63" t="s">
         <v>288</v>
       </c>
-      <c r="G71" s="93" t="s">
-        <v>281</v>
-      </c>
-      <c r="H71" s="75" t="s">
-        <v>306</v>
-      </c>
-      <c r="I71" s="101" t="s">
-        <v>393</v>
-      </c>
-      <c r="J71" s="146" t="s">
-        <v>439</v>
-      </c>
-      <c r="K71" s="108"/>
-      <c r="L71" s="134"/>
-      <c r="M71" s="134"/>
+      <c r="I71" s="89" t="s">
+        <v>348</v>
+      </c>
+      <c r="J71" s="130" t="s">
+        <v>394</v>
+      </c>
+      <c r="K71" s="96"/>
+      <c r="L71" s="120"/>
+      <c r="M71" s="120"/>
       <c r="N71" s="4"/>
-      <c r="O71" s="12"/>
-      <c r="P71" s="3"/>
-      <c r="Q71" s="9"/>
-      <c r="R71" s="3"/>
-      <c r="S71" s="9"/>
-      <c r="T71" s="5"/>
-      <c r="U71" s="4"/>
-      <c r="V71" s="6"/>
+      <c r="O71" s="129"/>
+      <c r="P71" s="10"/>
+      <c r="Q71" s="4"/>
+      <c r="R71" s="10"/>
+      <c r="S71" s="4"/>
+      <c r="T71" s="10"/>
+      <c r="U71" s="5"/>
       <c r="W71" s="6"/>
       <c r="X71" s="6"/>
       <c r="Y71" s="6"/>
@@ -6231,80 +6469,79 @@
       <c r="AI71" s="6"/>
       <c r="AJ71" s="6"/>
     </row>
-    <row r="72" spans="1:36" s="30" customFormat="1" ht="16" thickBot="1">
-      <c r="A72" s="121"/>
-      <c r="B72" s="19"/>
-      <c r="C72" s="107"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="123"/>
-      <c r="F72" s="114" t="s">
-        <v>290</v>
-      </c>
-      <c r="G72" s="118" t="s">
-        <v>282</v>
-      </c>
-      <c r="H72" s="102" t="s">
-        <v>306</v>
-      </c>
-      <c r="I72" s="103" t="s">
-        <v>393</v>
-      </c>
-      <c r="J72" s="150" t="s">
-        <v>440</v>
-      </c>
-      <c r="K72" s="167"/>
-      <c r="L72" s="135"/>
-      <c r="M72" s="135"/>
-      <c r="N72" s="20"/>
-      <c r="O72" s="19"/>
-      <c r="P72" s="18"/>
-      <c r="Q72" s="17"/>
-      <c r="R72" s="18"/>
-      <c r="S72" s="17"/>
-      <c r="T72" s="19"/>
-      <c r="U72" s="20"/>
+    <row r="72" spans="1:36" s="24" customFormat="1" ht="16" thickBot="1">
+      <c r="A72" s="109"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="95"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="111"/>
+      <c r="F72" s="102" t="s">
+        <v>272</v>
+      </c>
+      <c r="G72" s="106" t="s">
+        <v>264</v>
+      </c>
+      <c r="H72" s="90" t="s">
+        <v>288</v>
+      </c>
+      <c r="I72" s="91" t="s">
+        <v>348</v>
+      </c>
+      <c r="J72" s="134" t="s">
+        <v>395</v>
+      </c>
+      <c r="K72" s="151"/>
+      <c r="L72" s="121"/>
+      <c r="M72" s="121"/>
+      <c r="N72" s="18"/>
+      <c r="O72" s="133"/>
+      <c r="P72" s="17"/>
+      <c r="Q72" s="18"/>
+      <c r="R72" s="17"/>
+      <c r="S72" s="18"/>
+      <c r="T72" s="208"/>
+      <c r="U72" s="17"/>
     </row>
     <row r="73" spans="1:36">
-      <c r="A73" s="119" t="s">
-        <v>247</v>
-      </c>
-      <c r="B73" s="200" t="s">
-        <v>259</v>
-      </c>
-      <c r="C73" s="201"/>
-      <c r="D73" s="43" t="s">
+      <c r="A73" s="107" t="s">
+        <v>229</v>
+      </c>
+      <c r="B73" s="191" t="s">
+        <v>241</v>
+      </c>
+      <c r="C73" s="192"/>
+      <c r="D73" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="E73" s="52" t="s">
-        <v>243</v>
-      </c>
-      <c r="F73" s="75" t="s">
-        <v>451</v>
-      </c>
-      <c r="G73" s="40" t="s">
-        <v>309</v>
-      </c>
-      <c r="H73" s="100" t="s">
-        <v>310</v>
-      </c>
-      <c r="I73" s="40" t="s">
-        <v>311</v>
-      </c>
-      <c r="J73" s="151" t="s">
-        <v>455</v>
-      </c>
-      <c r="K73" s="108"/>
-      <c r="L73" s="134"/>
-      <c r="M73" s="134"/>
+      <c r="E73" s="42" t="s">
+        <v>225</v>
+      </c>
+      <c r="F73" s="63" t="s">
+        <v>406</v>
+      </c>
+      <c r="G73" s="30" t="s">
+        <v>291</v>
+      </c>
+      <c r="H73" s="88" t="s">
+        <v>292</v>
+      </c>
+      <c r="I73" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="J73" s="135" t="s">
+        <v>410</v>
+      </c>
+      <c r="K73" s="96"/>
+      <c r="L73" s="120"/>
+      <c r="M73" s="120"/>
       <c r="N73" s="4"/>
-      <c r="O73" s="12"/>
-      <c r="P73" s="6"/>
-      <c r="Q73" s="9"/>
-      <c r="R73" s="6"/>
-      <c r="S73" s="9"/>
-      <c r="T73" s="5"/>
-      <c r="U73" s="4"/>
-      <c r="V73" s="6"/>
+      <c r="O73" s="129"/>
+      <c r="P73" s="10"/>
+      <c r="Q73" s="4"/>
+      <c r="R73" s="10"/>
+      <c r="S73" s="4"/>
+      <c r="T73" s="10"/>
+      <c r="U73" s="5"/>
       <c r="W73" s="6"/>
       <c r="X73" s="6"/>
       <c r="Y73" s="6"/>
@@ -6321,1823 +6558,2024 @@
       <c r="AJ73" s="6"/>
     </row>
     <row r="74" spans="1:36">
-      <c r="A74" s="53" t="s">
-        <v>271</v>
-      </c>
-      <c r="B74" s="41"/>
-      <c r="C74" s="42"/>
-      <c r="D74" s="43" t="s">
+      <c r="A74" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="B74" s="31"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="E74" s="44" t="s">
-        <v>253</v>
-      </c>
-      <c r="F74" s="88" t="s">
-        <v>257</v>
-      </c>
-      <c r="G74" s="117" t="s">
-        <v>420</v>
+      <c r="E74" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="F74" s="76" t="s">
+        <v>239</v>
+      </c>
+      <c r="G74" s="105" t="s">
+        <v>375</v>
       </c>
       <c r="H74" s="5"/>
       <c r="I74" s="4"/>
-      <c r="J74" s="152"/>
-      <c r="K74" s="108"/>
-      <c r="L74" s="134"/>
-      <c r="M74" s="134"/>
+      <c r="J74" s="136"/>
+      <c r="K74" s="96"/>
+      <c r="L74" s="120"/>
+      <c r="M74" s="120"/>
       <c r="N74" s="4"/>
-      <c r="O74" s="4"/>
-      <c r="S74" s="9"/>
-      <c r="T74" s="5"/>
-      <c r="U74" s="4"/>
+      <c r="O74" s="129"/>
+      <c r="P74" s="5"/>
+      <c r="Q74" s="4"/>
+      <c r="R74" s="5"/>
+      <c r="S74" s="4"/>
+      <c r="T74" s="10"/>
+      <c r="U74" s="5"/>
     </row>
     <row r="75" spans="1:36">
-      <c r="A75" s="50"/>
-      <c r="B75" s="41"/>
-      <c r="C75" s="42"/>
-      <c r="D75" s="73" t="s">
+      <c r="A75" s="40"/>
+      <c r="B75" s="31"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="E75" s="76" t="s">
-        <v>251</v>
-      </c>
-      <c r="F75" s="91" t="s">
-        <v>291</v>
-      </c>
-      <c r="G75" s="93" t="s">
-        <v>284</v>
-      </c>
-      <c r="H75" s="75" t="s">
-        <v>306</v>
-      </c>
-      <c r="I75" s="101" t="s">
-        <v>393</v>
-      </c>
-      <c r="J75" s="146" t="s">
-        <v>441</v>
-      </c>
-      <c r="K75" s="108"/>
-      <c r="L75" s="134"/>
-      <c r="M75" s="134"/>
+      <c r="E75" s="64" t="s">
+        <v>233</v>
+      </c>
+      <c r="F75" s="79" t="s">
+        <v>273</v>
+      </c>
+      <c r="G75" s="81" t="s">
+        <v>266</v>
+      </c>
+      <c r="H75" s="63" t="s">
+        <v>288</v>
+      </c>
+      <c r="I75" s="89" t="s">
+        <v>348</v>
+      </c>
+      <c r="J75" s="130" t="s">
+        <v>396</v>
+      </c>
+      <c r="K75" s="96"/>
+      <c r="L75" s="120"/>
+      <c r="M75" s="120"/>
       <c r="N75" s="4"/>
       <c r="O75" s="4"/>
-      <c r="S75" s="9"/>
-      <c r="U75" s="4"/>
-    </row>
-    <row r="76" spans="1:36" s="30" customFormat="1" ht="16" thickBot="1">
-      <c r="A76" s="78"/>
-      <c r="B76" s="79"/>
-      <c r="C76" s="80"/>
-      <c r="D76" s="79"/>
-      <c r="E76" s="82" t="s">
-        <v>252</v>
-      </c>
-      <c r="F76" s="114" t="s">
-        <v>300</v>
-      </c>
-      <c r="G76" s="118" t="s">
-        <v>285</v>
-      </c>
-      <c r="H76" s="102" t="s">
-        <v>306</v>
-      </c>
-      <c r="I76" s="103" t="s">
-        <v>393</v>
-      </c>
-      <c r="J76" s="150" t="s">
-        <v>442</v>
-      </c>
-      <c r="K76" s="167"/>
-      <c r="L76" s="135"/>
-      <c r="M76" s="135"/>
-      <c r="N76" s="20"/>
-      <c r="O76" s="20"/>
-      <c r="Q76" s="31"/>
-      <c r="S76" s="31"/>
-      <c r="U76" s="31"/>
-      <c r="W76" s="31"/>
-      <c r="Y76" s="31"/>
+      <c r="P75" s="5"/>
+      <c r="Q75" s="4"/>
+      <c r="R75" s="5"/>
+      <c r="S75" s="4"/>
+      <c r="T75" s="10"/>
+      <c r="U75" s="5"/>
+    </row>
+    <row r="76" spans="1:36" s="24" customFormat="1" ht="16" thickBot="1">
+      <c r="A76" s="66"/>
+      <c r="B76" s="67"/>
+      <c r="C76" s="68"/>
+      <c r="D76" s="67"/>
+      <c r="E76" s="70" t="s">
+        <v>234</v>
+      </c>
+      <c r="F76" s="102" t="s">
+        <v>282</v>
+      </c>
+      <c r="G76" s="106" t="s">
+        <v>267</v>
+      </c>
+      <c r="H76" s="90" t="s">
+        <v>288</v>
+      </c>
+      <c r="I76" s="91" t="s">
+        <v>348</v>
+      </c>
+      <c r="J76" s="134" t="s">
+        <v>397</v>
+      </c>
+      <c r="K76" s="151"/>
+      <c r="L76" s="121"/>
+      <c r="M76" s="121"/>
+      <c r="N76" s="18"/>
+      <c r="O76" s="18"/>
+      <c r="P76" s="17"/>
+      <c r="Q76" s="18"/>
+      <c r="R76" s="17"/>
+      <c r="S76" s="18"/>
+      <c r="T76" s="208"/>
+      <c r="U76" s="17"/>
+      <c r="W76" s="25"/>
+      <c r="Y76" s="25"/>
     </row>
     <row r="77" spans="1:36">
-      <c r="A77" s="119" t="s">
-        <v>248</v>
-      </c>
-      <c r="B77" s="200" t="s">
-        <v>259</v>
-      </c>
-      <c r="C77" s="201"/>
-      <c r="D77" s="77" t="s">
+      <c r="A77" s="107" t="s">
+        <v>230</v>
+      </c>
+      <c r="B77" s="191" t="s">
+        <v>241</v>
+      </c>
+      <c r="C77" s="192"/>
+      <c r="D77" s="65" t="s">
         <v>101</v>
       </c>
-      <c r="E77" s="52" t="s">
-        <v>244</v>
-      </c>
-      <c r="F77" s="43" t="s">
-        <v>452</v>
-      </c>
-      <c r="G77" s="40" t="s">
-        <v>309</v>
-      </c>
-      <c r="H77" s="100" t="s">
-        <v>310</v>
-      </c>
-      <c r="I77" s="40" t="s">
-        <v>311</v>
-      </c>
-      <c r="J77" s="151" t="s">
-        <v>456</v>
-      </c>
-      <c r="K77" s="108"/>
-      <c r="L77" s="134"/>
-      <c r="M77" s="134"/>
+      <c r="E77" s="42" t="s">
+        <v>226</v>
+      </c>
+      <c r="F77" s="33" t="s">
+        <v>407</v>
+      </c>
+      <c r="G77" s="30" t="s">
+        <v>291</v>
+      </c>
+      <c r="H77" s="88" t="s">
+        <v>292</v>
+      </c>
+      <c r="I77" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="J77" s="135" t="s">
+        <v>411</v>
+      </c>
+      <c r="K77" s="96"/>
+      <c r="L77" s="120"/>
+      <c r="M77" s="120"/>
       <c r="N77" s="4"/>
       <c r="O77" s="4"/>
+      <c r="P77" s="5"/>
+      <c r="Q77" s="4"/>
+      <c r="R77" s="5"/>
+      <c r="S77" s="4"/>
+      <c r="T77" s="10"/>
+      <c r="U77" s="5"/>
     </row>
     <row r="78" spans="1:36">
-      <c r="A78" s="53" t="s">
-        <v>271</v>
-      </c>
-      <c r="B78" s="41"/>
-      <c r="C78" s="42"/>
-      <c r="D78" s="43" t="s">
+      <c r="A78" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="B78" s="31"/>
+      <c r="C78" s="32"/>
+      <c r="D78" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="E78" s="74" t="s">
-        <v>254</v>
-      </c>
-      <c r="F78" s="88" t="s">
-        <v>257</v>
-      </c>
-      <c r="G78" s="117" t="s">
-        <v>421</v>
+      <c r="E78" s="62" t="s">
+        <v>236</v>
+      </c>
+      <c r="F78" s="76" t="s">
+        <v>239</v>
+      </c>
+      <c r="G78" s="105" t="s">
+        <v>376</v>
       </c>
       <c r="H78" s="5"/>
       <c r="I78" s="4"/>
-      <c r="J78" s="152"/>
-      <c r="K78" s="108"/>
-      <c r="L78" s="134"/>
-      <c r="M78" s="134"/>
+      <c r="J78" s="136"/>
+      <c r="K78" s="96"/>
+      <c r="L78" s="120"/>
+      <c r="M78" s="120"/>
       <c r="N78" s="4"/>
       <c r="O78" s="4"/>
+      <c r="P78" s="5"/>
+      <c r="Q78" s="4"/>
+      <c r="R78" s="5"/>
+      <c r="S78" s="4"/>
+      <c r="T78" s="10"/>
+      <c r="U78" s="5"/>
     </row>
     <row r="79" spans="1:36">
-      <c r="A79" s="50"/>
-      <c r="B79" s="41"/>
-      <c r="C79" s="42"/>
-      <c r="D79" s="73" t="s">
+      <c r="A79" s="40"/>
+      <c r="B79" s="31"/>
+      <c r="C79" s="32"/>
+      <c r="D79" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="E79" s="76" t="s">
-        <v>251</v>
-      </c>
-      <c r="F79" s="91" t="s">
-        <v>292</v>
-      </c>
-      <c r="G79" s="93" t="s">
-        <v>286</v>
-      </c>
-      <c r="H79" s="75" t="s">
-        <v>306</v>
-      </c>
-      <c r="I79" s="101" t="s">
-        <v>393</v>
-      </c>
-      <c r="J79" s="146" t="s">
-        <v>443</v>
-      </c>
-      <c r="K79" s="108"/>
-      <c r="L79" s="134"/>
-      <c r="M79" s="134"/>
+      <c r="E79" s="64" t="s">
+        <v>233</v>
+      </c>
+      <c r="F79" s="79" t="s">
+        <v>274</v>
+      </c>
+      <c r="G79" s="81" t="s">
+        <v>268</v>
+      </c>
+      <c r="H79" s="63" t="s">
+        <v>288</v>
+      </c>
+      <c r="I79" s="89" t="s">
+        <v>348</v>
+      </c>
+      <c r="J79" s="130" t="s">
+        <v>398</v>
+      </c>
+      <c r="K79" s="96"/>
+      <c r="L79" s="120"/>
+      <c r="M79" s="120"/>
       <c r="N79" s="4"/>
       <c r="O79" s="4"/>
-    </row>
-    <row r="80" spans="1:36" s="30" customFormat="1" ht="16" thickBot="1">
-      <c r="A80" s="78"/>
-      <c r="B80" s="79"/>
-      <c r="C80" s="80"/>
-      <c r="D80" s="79"/>
-      <c r="E80" s="82" t="s">
-        <v>252</v>
-      </c>
-      <c r="F80" s="114" t="s">
-        <v>301</v>
-      </c>
-      <c r="G80" s="118" t="s">
-        <v>297</v>
-      </c>
-      <c r="H80" s="102" t="s">
-        <v>306</v>
-      </c>
-      <c r="I80" s="103" t="s">
-        <v>393</v>
-      </c>
-      <c r="J80" s="150" t="s">
-        <v>444</v>
-      </c>
-      <c r="K80" s="167"/>
-      <c r="L80" s="135"/>
-      <c r="M80" s="135"/>
-      <c r="N80" s="20"/>
-      <c r="O80" s="20"/>
-      <c r="Q80" s="31"/>
-      <c r="S80" s="31"/>
-      <c r="U80" s="31"/>
-      <c r="W80" s="31"/>
-      <c r="Y80" s="31"/>
+      <c r="P79" s="5"/>
+      <c r="Q79" s="4"/>
+      <c r="R79" s="5"/>
+      <c r="S79" s="4"/>
+      <c r="T79" s="10"/>
+      <c r="U79" s="5"/>
+    </row>
+    <row r="80" spans="1:36" s="24" customFormat="1" ht="16" thickBot="1">
+      <c r="A80" s="66"/>
+      <c r="B80" s="67"/>
+      <c r="C80" s="68"/>
+      <c r="D80" s="67"/>
+      <c r="E80" s="70" t="s">
+        <v>234</v>
+      </c>
+      <c r="F80" s="102" t="s">
+        <v>283</v>
+      </c>
+      <c r="G80" s="106" t="s">
+        <v>279</v>
+      </c>
+      <c r="H80" s="90" t="s">
+        <v>288</v>
+      </c>
+      <c r="I80" s="91" t="s">
+        <v>348</v>
+      </c>
+      <c r="J80" s="134" t="s">
+        <v>399</v>
+      </c>
+      <c r="K80" s="151"/>
+      <c r="L80" s="121"/>
+      <c r="M80" s="121"/>
+      <c r="N80" s="18"/>
+      <c r="O80" s="18"/>
+      <c r="P80" s="17"/>
+      <c r="Q80" s="18"/>
+      <c r="R80" s="17"/>
+      <c r="S80" s="18"/>
+      <c r="T80" s="208"/>
+      <c r="U80" s="17"/>
+      <c r="W80" s="25"/>
+      <c r="Y80" s="25"/>
     </row>
     <row r="81" spans="1:25">
-      <c r="A81" s="119" t="s">
-        <v>249</v>
-      </c>
-      <c r="B81" s="200" t="s">
-        <v>260</v>
-      </c>
-      <c r="C81" s="201"/>
-      <c r="D81" s="77" t="s">
+      <c r="A81" s="107" t="s">
+        <v>231</v>
+      </c>
+      <c r="B81" s="191" t="s">
+        <v>242</v>
+      </c>
+      <c r="C81" s="192"/>
+      <c r="D81" s="65" t="s">
         <v>101</v>
       </c>
-      <c r="E81" s="52" t="s">
-        <v>245</v>
-      </c>
-      <c r="F81" s="43" t="s">
-        <v>453</v>
-      </c>
-      <c r="G81" s="40" t="s">
-        <v>309</v>
-      </c>
-      <c r="H81" s="100" t="s">
-        <v>310</v>
-      </c>
-      <c r="I81" s="40" t="s">
-        <v>311</v>
-      </c>
-      <c r="J81" s="151" t="s">
-        <v>457</v>
-      </c>
-      <c r="K81" s="108"/>
-      <c r="L81" s="134"/>
-      <c r="M81" s="134"/>
+      <c r="E81" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="F81" s="33" t="s">
+        <v>408</v>
+      </c>
+      <c r="G81" s="30" t="s">
+        <v>291</v>
+      </c>
+      <c r="H81" s="88" t="s">
+        <v>292</v>
+      </c>
+      <c r="I81" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="J81" s="135" t="s">
+        <v>412</v>
+      </c>
+      <c r="K81" s="96"/>
+      <c r="L81" s="120"/>
+      <c r="M81" s="120"/>
       <c r="N81" s="4"/>
       <c r="O81" s="4"/>
+      <c r="P81" s="5"/>
+      <c r="Q81" s="4"/>
+      <c r="R81" s="5"/>
+      <c r="S81" s="4"/>
+      <c r="T81" s="10"/>
+      <c r="U81" s="5"/>
     </row>
     <row r="82" spans="1:25">
-      <c r="A82" s="53" t="s">
-        <v>271</v>
-      </c>
-      <c r="B82" s="41"/>
-      <c r="C82" s="42"/>
-      <c r="D82" s="43" t="s">
+      <c r="A82" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="B82" s="31"/>
+      <c r="C82" s="32"/>
+      <c r="D82" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="E82" s="74" t="s">
-        <v>255</v>
-      </c>
-      <c r="F82" s="88" t="s">
-        <v>257</v>
-      </c>
-      <c r="G82" s="117" t="s">
-        <v>422</v>
+      <c r="E82" s="62" t="s">
+        <v>237</v>
+      </c>
+      <c r="F82" s="76" t="s">
+        <v>239</v>
+      </c>
+      <c r="G82" s="105" t="s">
+        <v>377</v>
       </c>
       <c r="H82" s="5"/>
       <c r="I82" s="4"/>
-      <c r="J82" s="152"/>
-      <c r="K82" s="108"/>
-      <c r="L82" s="134"/>
-      <c r="M82" s="134"/>
+      <c r="J82" s="136"/>
+      <c r="K82" s="96"/>
+      <c r="L82" s="120"/>
+      <c r="M82" s="120"/>
       <c r="N82" s="4"/>
       <c r="O82" s="4"/>
+      <c r="P82" s="5"/>
+      <c r="Q82" s="4"/>
+      <c r="R82" s="5"/>
+      <c r="S82" s="4"/>
+      <c r="T82" s="10"/>
+      <c r="U82" s="5"/>
     </row>
     <row r="83" spans="1:25">
-      <c r="A83" s="50"/>
-      <c r="B83" s="41"/>
-      <c r="C83" s="42"/>
-      <c r="D83" s="73" t="s">
+      <c r="A83" s="40"/>
+      <c r="B83" s="31"/>
+      <c r="C83" s="32"/>
+      <c r="D83" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="E83" s="76" t="s">
-        <v>251</v>
-      </c>
-      <c r="F83" s="91" t="s">
-        <v>293</v>
-      </c>
-      <c r="G83" s="93" t="s">
-        <v>295</v>
-      </c>
-      <c r="H83" s="75" t="s">
-        <v>306</v>
-      </c>
-      <c r="I83" s="101" t="s">
-        <v>393</v>
-      </c>
-      <c r="J83" s="146" t="s">
-        <v>445</v>
-      </c>
-      <c r="K83" s="108"/>
-      <c r="L83" s="134"/>
-      <c r="M83" s="134"/>
+      <c r="E83" s="64" t="s">
+        <v>233</v>
+      </c>
+      <c r="F83" s="79" t="s">
+        <v>275</v>
+      </c>
+      <c r="G83" s="81" t="s">
+        <v>277</v>
+      </c>
+      <c r="H83" s="63" t="s">
+        <v>288</v>
+      </c>
+      <c r="I83" s="89" t="s">
+        <v>348</v>
+      </c>
+      <c r="J83" s="130" t="s">
+        <v>400</v>
+      </c>
+      <c r="K83" s="96"/>
+      <c r="L83" s="120"/>
+      <c r="M83" s="120"/>
       <c r="N83" s="4"/>
       <c r="O83" s="4"/>
-    </row>
-    <row r="84" spans="1:25" s="30" customFormat="1" ht="16" thickBot="1">
-      <c r="A84" s="78"/>
-      <c r="B84" s="79"/>
-      <c r="C84" s="80"/>
-      <c r="D84" s="79"/>
-      <c r="E84" s="82" t="s">
-        <v>252</v>
-      </c>
-      <c r="F84" s="114" t="s">
-        <v>302</v>
-      </c>
-      <c r="G84" s="118" t="s">
-        <v>298</v>
-      </c>
-      <c r="H84" s="102" t="s">
-        <v>306</v>
-      </c>
-      <c r="I84" s="103" t="s">
-        <v>393</v>
-      </c>
-      <c r="J84" s="150" t="s">
-        <v>446</v>
-      </c>
-      <c r="K84" s="167"/>
-      <c r="L84" s="135"/>
-      <c r="M84" s="135"/>
-      <c r="N84" s="20"/>
-      <c r="O84" s="20"/>
-      <c r="Q84" s="31"/>
-      <c r="S84" s="31"/>
-      <c r="U84" s="31"/>
-      <c r="W84" s="31"/>
-      <c r="Y84" s="31"/>
+      <c r="P83" s="5"/>
+      <c r="Q83" s="4"/>
+      <c r="R83" s="5"/>
+      <c r="S83" s="4"/>
+      <c r="T83" s="10"/>
+      <c r="U83" s="5"/>
+    </row>
+    <row r="84" spans="1:25" s="24" customFormat="1" ht="16" thickBot="1">
+      <c r="A84" s="66"/>
+      <c r="B84" s="67"/>
+      <c r="C84" s="68"/>
+      <c r="D84" s="67"/>
+      <c r="E84" s="70" t="s">
+        <v>234</v>
+      </c>
+      <c r="F84" s="102" t="s">
+        <v>284</v>
+      </c>
+      <c r="G84" s="106" t="s">
+        <v>280</v>
+      </c>
+      <c r="H84" s="90" t="s">
+        <v>288</v>
+      </c>
+      <c r="I84" s="91" t="s">
+        <v>348</v>
+      </c>
+      <c r="J84" s="134" t="s">
+        <v>401</v>
+      </c>
+      <c r="K84" s="151"/>
+      <c r="L84" s="121"/>
+      <c r="M84" s="121"/>
+      <c r="N84" s="18"/>
+      <c r="O84" s="18"/>
+      <c r="P84" s="17"/>
+      <c r="Q84" s="18"/>
+      <c r="R84" s="17"/>
+      <c r="S84" s="18"/>
+      <c r="T84" s="208"/>
+      <c r="U84" s="17"/>
+      <c r="W84" s="25"/>
+      <c r="Y84" s="25"/>
     </row>
     <row r="85" spans="1:25">
-      <c r="A85" s="119" t="s">
-        <v>250</v>
-      </c>
-      <c r="B85" s="200" t="s">
-        <v>260</v>
-      </c>
-      <c r="C85" s="201"/>
-      <c r="D85" s="77" t="s">
+      <c r="A85" s="107" t="s">
+        <v>232</v>
+      </c>
+      <c r="B85" s="191" t="s">
+        <v>242</v>
+      </c>
+      <c r="C85" s="192"/>
+      <c r="D85" s="65" t="s">
         <v>101</v>
       </c>
-      <c r="E85" s="52" t="s">
-        <v>246</v>
-      </c>
-      <c r="F85" s="43" t="s">
-        <v>454</v>
-      </c>
-      <c r="G85" s="40" t="s">
-        <v>309</v>
-      </c>
-      <c r="H85" s="100" t="s">
-        <v>310</v>
-      </c>
-      <c r="I85" s="40" t="s">
-        <v>311</v>
-      </c>
-      <c r="J85" s="151" t="s">
-        <v>458</v>
-      </c>
-      <c r="K85" s="108"/>
-      <c r="L85" s="134"/>
-      <c r="M85" s="134"/>
+      <c r="E85" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="F85" s="33" t="s">
+        <v>409</v>
+      </c>
+      <c r="G85" s="30" t="s">
+        <v>291</v>
+      </c>
+      <c r="H85" s="88" t="s">
+        <v>292</v>
+      </c>
+      <c r="I85" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="J85" s="135" t="s">
+        <v>413</v>
+      </c>
+      <c r="K85" s="96"/>
+      <c r="L85" s="120"/>
+      <c r="M85" s="120"/>
       <c r="N85" s="4"/>
       <c r="O85" s="4"/>
+      <c r="P85" s="5"/>
+      <c r="Q85" s="4"/>
+      <c r="R85" s="5"/>
+      <c r="S85" s="4"/>
+      <c r="T85" s="10"/>
+      <c r="U85" s="5"/>
     </row>
     <row r="86" spans="1:25">
-      <c r="A86" s="53" t="s">
-        <v>271</v>
-      </c>
-      <c r="B86" s="41"/>
-      <c r="C86" s="42"/>
-      <c r="D86" s="43" t="s">
+      <c r="A86" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="B86" s="31"/>
+      <c r="C86" s="32"/>
+      <c r="D86" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="E86" s="44" t="s">
-        <v>256</v>
-      </c>
-      <c r="F86" s="88" t="s">
-        <v>257</v>
-      </c>
-      <c r="G86" s="117" t="s">
-        <v>423</v>
+      <c r="E86" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="F86" s="76" t="s">
+        <v>239</v>
+      </c>
+      <c r="G86" s="105" t="s">
+        <v>378</v>
       </c>
       <c r="H86" s="5"/>
       <c r="I86" s="4"/>
-      <c r="J86" s="145"/>
-      <c r="K86" s="108"/>
-      <c r="L86" s="134"/>
-      <c r="M86" s="134"/>
+      <c r="J86" s="129"/>
+      <c r="K86" s="96"/>
+      <c r="L86" s="120"/>
+      <c r="M86" s="120"/>
       <c r="N86" s="4"/>
       <c r="O86" s="4"/>
+      <c r="P86" s="5"/>
+      <c r="Q86" s="4"/>
+      <c r="R86" s="5"/>
+      <c r="S86" s="4"/>
+      <c r="T86" s="10"/>
+      <c r="U86" s="5"/>
     </row>
     <row r="87" spans="1:25">
-      <c r="A87" s="50"/>
-      <c r="B87" s="41"/>
-      <c r="C87" s="42"/>
-      <c r="D87" s="73" t="s">
+      <c r="A87" s="40"/>
+      <c r="B87" s="31"/>
+      <c r="C87" s="32"/>
+      <c r="D87" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="E87" s="76" t="s">
-        <v>251</v>
-      </c>
-      <c r="F87" s="91" t="s">
-        <v>294</v>
-      </c>
-      <c r="G87" s="93" t="s">
-        <v>296</v>
-      </c>
-      <c r="H87" s="75" t="s">
-        <v>306</v>
-      </c>
-      <c r="I87" s="101" t="s">
-        <v>393</v>
-      </c>
-      <c r="J87" s="146" t="s">
-        <v>447</v>
-      </c>
-      <c r="K87" s="108"/>
-      <c r="L87" s="134"/>
-      <c r="M87" s="134"/>
+      <c r="E87" s="64" t="s">
+        <v>233</v>
+      </c>
+      <c r="F87" s="79" t="s">
+        <v>276</v>
+      </c>
+      <c r="G87" s="81" t="s">
+        <v>278</v>
+      </c>
+      <c r="H87" s="63" t="s">
+        <v>288</v>
+      </c>
+      <c r="I87" s="89" t="s">
+        <v>348</v>
+      </c>
+      <c r="J87" s="130" t="s">
+        <v>402</v>
+      </c>
+      <c r="K87" s="96"/>
+      <c r="L87" s="120"/>
+      <c r="M87" s="120"/>
       <c r="N87" s="4"/>
       <c r="O87" s="4"/>
-    </row>
-    <row r="88" spans="1:25" s="30" customFormat="1" ht="16" thickBot="1">
-      <c r="A88" s="78"/>
-      <c r="B88" s="79"/>
-      <c r="C88" s="80"/>
-      <c r="D88" s="81"/>
-      <c r="E88" s="82" t="s">
-        <v>252</v>
-      </c>
-      <c r="F88" s="92" t="s">
-        <v>303</v>
-      </c>
-      <c r="G88" s="118" t="s">
-        <v>299</v>
-      </c>
-      <c r="H88" s="102" t="s">
-        <v>306</v>
-      </c>
-      <c r="I88" s="103" t="s">
-        <v>393</v>
-      </c>
-      <c r="J88" s="150" t="s">
-        <v>448</v>
-      </c>
-      <c r="K88" s="167"/>
-      <c r="L88" s="135"/>
-      <c r="M88" s="135"/>
-      <c r="N88" s="20"/>
-      <c r="O88" s="20"/>
-      <c r="Q88" s="31"/>
-      <c r="S88" s="31"/>
-      <c r="U88" s="31"/>
-      <c r="W88" s="31"/>
-      <c r="Y88" s="31"/>
+      <c r="P87" s="5"/>
+      <c r="Q87" s="4"/>
+      <c r="R87" s="5"/>
+      <c r="S87" s="4"/>
+      <c r="T87" s="10"/>
+      <c r="U87" s="5"/>
+    </row>
+    <row r="88" spans="1:25" s="24" customFormat="1" ht="16" thickBot="1">
+      <c r="A88" s="66"/>
+      <c r="B88" s="67"/>
+      <c r="C88" s="68"/>
+      <c r="D88" s="69"/>
+      <c r="E88" s="70" t="s">
+        <v>234</v>
+      </c>
+      <c r="F88" s="80" t="s">
+        <v>285</v>
+      </c>
+      <c r="G88" s="106" t="s">
+        <v>281</v>
+      </c>
+      <c r="H88" s="90" t="s">
+        <v>288</v>
+      </c>
+      <c r="I88" s="91" t="s">
+        <v>348</v>
+      </c>
+      <c r="J88" s="134" t="s">
+        <v>403</v>
+      </c>
+      <c r="K88" s="151"/>
+      <c r="L88" s="121"/>
+      <c r="M88" s="121"/>
+      <c r="N88" s="18"/>
+      <c r="O88" s="18"/>
+      <c r="P88" s="17"/>
+      <c r="Q88" s="18"/>
+      <c r="R88" s="17"/>
+      <c r="S88" s="18"/>
+      <c r="T88" s="208"/>
+      <c r="U88" s="17"/>
+      <c r="W88" s="25"/>
+      <c r="Y88" s="25"/>
     </row>
     <row r="89" spans="1:25" s="8" customFormat="1">
-      <c r="A89" s="40" t="s">
+      <c r="A89" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B89" s="41" t="s">
+      <c r="B89" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="C89" s="42">
+      <c r="C89" s="32">
         <v>19</v>
       </c>
-      <c r="D89" s="43" t="s">
+      <c r="D89" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="E89" s="44" t="s">
+      <c r="E89" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="F89" s="41" t="s">
+      <c r="F89" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="G89" s="44" t="s">
+      <c r="G89" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="H89" s="41" t="s">
+      <c r="H89" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="I89" s="44" t="s">
+      <c r="I89" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="J89" s="144" t="s">
-        <v>431</v>
-      </c>
-      <c r="K89" s="75" t="s">
+      <c r="J89" s="128" t="s">
+        <v>386</v>
+      </c>
+      <c r="K89" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="L89" s="74" t="s">
+      <c r="L89" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="M89" s="74" t="s">
-        <v>497</v>
+      <c r="M89" s="62" t="s">
+        <v>452</v>
       </c>
       <c r="N89" s="4"/>
-      <c r="O89" s="44" t="s">
+      <c r="O89" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q89" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="R89" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="S89" s="9"/>
-      <c r="T89" s="5"/>
-      <c r="U89" s="9" t="s">
+      <c r="P89" s="31" t="s">
+        <v>500</v>
+      </c>
+      <c r="Q89" s="34" t="s">
+        <v>524</v>
+      </c>
+      <c r="R89" s="10"/>
+      <c r="S89" s="4"/>
+      <c r="T89" s="31" t="s">
+        <v>500</v>
+      </c>
+      <c r="U89" s="31" t="s">
         <v>120</v>
+      </c>
+      <c r="V89" s="31" t="s">
+        <v>500</v>
       </c>
       <c r="W89" s="9"/>
       <c r="Y89" s="9"/>
     </row>
-    <row r="90" spans="1:25" s="18" customFormat="1" ht="16" thickBot="1">
-      <c r="A90" s="98" t="s">
+    <row r="90" spans="1:25" s="16" customFormat="1" ht="16" thickBot="1">
+      <c r="A90" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="B90" s="79" t="s">
+      <c r="B90" s="67" t="s">
         <v>150</v>
       </c>
-      <c r="C90" s="80">
+      <c r="C90" s="68">
         <v>20</v>
       </c>
-      <c r="D90" s="79" t="s">
+      <c r="D90" s="67" t="s">
         <v>102</v>
       </c>
-      <c r="E90" s="99" t="s">
+      <c r="E90" s="87" t="s">
         <v>109</v>
       </c>
-      <c r="F90" s="79" t="s">
+      <c r="F90" s="67" t="s">
         <v>111</v>
       </c>
-      <c r="G90" s="99" t="s">
+      <c r="G90" s="87" t="s">
         <v>113</v>
       </c>
-      <c r="H90" s="79" t="s">
+      <c r="H90" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="I90" s="99" t="s">
+      <c r="I90" s="87" t="s">
         <v>121</v>
       </c>
-      <c r="J90" s="153" t="s">
-        <v>431</v>
-      </c>
-      <c r="K90" s="178" t="s">
-        <v>465</v>
-      </c>
-      <c r="L90" s="113" t="s">
+      <c r="J90" s="137" t="s">
+        <v>386</v>
+      </c>
+      <c r="K90" s="162" t="s">
+        <v>420</v>
+      </c>
+      <c r="L90" s="101" t="s">
         <v>121</v>
       </c>
-      <c r="M90" s="113" t="s">
-        <v>498</v>
-      </c>
-      <c r="N90" s="20"/>
-      <c r="O90" s="99" t="s">
+      <c r="M90" s="101" t="s">
+        <v>453</v>
+      </c>
+      <c r="N90" s="18"/>
+      <c r="O90" s="87" t="s">
         <v>169</v>
       </c>
-      <c r="P90" s="18" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q90" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="R90" s="18" t="s">
-        <v>337</v>
-      </c>
-      <c r="S90" s="17"/>
-      <c r="T90" s="19"/>
-      <c r="U90" s="17" t="s">
+      <c r="P90" s="67" t="s">
+        <v>501</v>
+      </c>
+      <c r="Q90" s="87" t="s">
+        <v>524</v>
+      </c>
+      <c r="R90" s="17"/>
+      <c r="S90" s="18"/>
+      <c r="T90" s="207" t="s">
+        <v>501</v>
+      </c>
+      <c r="U90" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="W90" s="17"/>
-      <c r="Y90" s="17"/>
+      <c r="V90" s="207" t="s">
+        <v>501</v>
+      </c>
+      <c r="W90" s="15"/>
+      <c r="Y90" s="15"/>
     </row>
     <row r="91" spans="1:25" s="3" customFormat="1">
-      <c r="A91" s="40" t="s">
-        <v>338</v>
-      </c>
-      <c r="B91" s="41"/>
-      <c r="C91" s="42" t="s">
-        <v>339</v>
-      </c>
-      <c r="D91" s="41" t="s">
-        <v>375</v>
-      </c>
-      <c r="E91" s="44"/>
-      <c r="F91" s="12"/>
+      <c r="A91" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="B91" s="31"/>
+      <c r="C91" s="32" t="s">
+        <v>301</v>
+      </c>
+      <c r="D91" s="31" t="s">
+        <v>330</v>
+      </c>
+      <c r="E91" s="34"/>
+      <c r="F91" s="10"/>
       <c r="G91" s="4"/>
-      <c r="H91" s="12"/>
+      <c r="H91" s="10"/>
       <c r="I91" s="4"/>
-      <c r="J91" s="145"/>
-      <c r="K91" s="108"/>
-      <c r="L91" s="134"/>
-      <c r="M91" s="134"/>
+      <c r="J91" s="129"/>
+      <c r="K91" s="96"/>
+      <c r="L91" s="120"/>
+      <c r="M91" s="120"/>
       <c r="N91" s="4"/>
       <c r="O91" s="4"/>
-      <c r="P91" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q91" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="R91" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="S91" s="9"/>
-      <c r="T91" s="12"/>
-      <c r="U91" s="4"/>
+      <c r="P91" s="31" t="s">
+        <v>516</v>
+      </c>
+      <c r="Q91" s="34" t="s">
+        <v>517</v>
+      </c>
+      <c r="R91" s="10"/>
+      <c r="S91" s="4"/>
+      <c r="T91" s="10"/>
+      <c r="U91" s="5"/>
+      <c r="V91"/>
       <c r="W91" s="9"/>
       <c r="Y91" s="9"/>
     </row>
     <row r="92" spans="1:25" s="8" customFormat="1">
-      <c r="A92" s="40" t="s">
+      <c r="A92" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B92" s="41" t="s">
+      <c r="B92" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="C92" s="42">
+      <c r="C92" s="32">
         <v>23</v>
       </c>
-      <c r="D92" s="43" t="s">
+      <c r="D92" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="E92" s="44" t="s">
+      <c r="E92" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="F92" s="41" t="s">
+      <c r="F92" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="G92" s="44" t="s">
+      <c r="G92" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="H92" s="41" t="s">
+      <c r="H92" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="I92" s="44" t="s">
+      <c r="I92" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="J92" s="154" t="s">
-        <v>430</v>
-      </c>
-      <c r="K92" s="75" t="s">
-        <v>466</v>
-      </c>
-      <c r="L92" s="74" t="s">
-        <v>219</v>
-      </c>
-      <c r="M92" s="74" t="s">
-        <v>500</v>
-      </c>
-      <c r="N92" s="44" t="s">
+      <c r="J92" s="138" t="s">
+        <v>385</v>
+      </c>
+      <c r="K92" s="63" t="s">
+        <v>421</v>
+      </c>
+      <c r="L92" s="62" t="s">
+        <v>208</v>
+      </c>
+      <c r="M92" s="62" t="s">
+        <v>455</v>
+      </c>
+      <c r="N92" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="O92" s="44" t="s">
+      <c r="O92" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="Q92" s="9"/>
-      <c r="S92" s="9"/>
-      <c r="T92" s="5"/>
-      <c r="U92" s="9" t="s">
-        <v>219</v>
-      </c>
+      <c r="P92" s="5"/>
+      <c r="Q92" s="4"/>
+      <c r="R92" s="5"/>
+      <c r="S92" s="4"/>
+      <c r="T92" s="10"/>
+      <c r="U92" s="5"/>
+      <c r="V92"/>
       <c r="W92" s="9"/>
       <c r="Y92" s="9"/>
     </row>
     <row r="93" spans="1:25" s="8" customFormat="1">
-      <c r="A93" s="40" t="s">
+      <c r="A93" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B93" s="41" t="s">
+      <c r="B93" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="C93" s="42">
+      <c r="C93" s="32">
         <v>24</v>
       </c>
-      <c r="D93" s="43" t="s">
+      <c r="D93" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="E93" s="44" t="s">
+      <c r="E93" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="F93" s="41" t="s">
+      <c r="F93" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="G93" s="44" t="s">
+      <c r="G93" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="H93" s="41" t="s">
+      <c r="H93" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="I93" s="44" t="s">
-        <v>407</v>
-      </c>
-      <c r="J93" s="155" t="s">
-        <v>431</v>
-      </c>
-      <c r="K93" s="75" t="s">
-        <v>467</v>
-      </c>
-      <c r="L93" s="74" t="s">
-        <v>220</v>
-      </c>
-      <c r="M93" s="74" t="s">
-        <v>499</v>
-      </c>
-      <c r="N93" s="44" t="s">
+      <c r="I93" s="34" t="s">
+        <v>362</v>
+      </c>
+      <c r="J93" s="139" t="s">
+        <v>386</v>
+      </c>
+      <c r="K93" s="63" t="s">
+        <v>422</v>
+      </c>
+      <c r="L93" s="62" t="s">
+        <v>209</v>
+      </c>
+      <c r="M93" s="62" t="s">
+        <v>454</v>
+      </c>
+      <c r="N93" s="34" t="s">
         <v>160</v>
       </c>
       <c r="O93" s="4"/>
-      <c r="Q93" s="9"/>
-      <c r="S93" s="9"/>
-      <c r="T93" s="5"/>
-      <c r="U93" s="9" t="s">
-        <v>220</v>
-      </c>
+      <c r="P93" s="5"/>
+      <c r="Q93" s="4"/>
+      <c r="R93" s="5"/>
+      <c r="S93" s="4"/>
+      <c r="T93" s="10"/>
+      <c r="U93" s="5"/>
+      <c r="V93"/>
       <c r="W93" s="9"/>
       <c r="Y93" s="9"/>
     </row>
     <row r="94" spans="1:25" s="8" customFormat="1">
-      <c r="A94" s="40" t="s">
+      <c r="A94" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B94" s="41" t="s">
+      <c r="B94" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="C94" s="42">
+      <c r="C94" s="32">
         <v>25</v>
       </c>
-      <c r="D94" s="43" t="s">
+      <c r="D94" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="E94" s="44" t="s">
+      <c r="E94" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="F94" s="41" t="s">
+      <c r="F94" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="G94" s="44" t="s">
+      <c r="G94" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="H94" s="41" t="s">
+      <c r="H94" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="I94" s="44" t="s">
+      <c r="I94" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="J94" s="155" t="s">
-        <v>431</v>
-      </c>
-      <c r="K94" s="75" t="s">
-        <v>468</v>
-      </c>
-      <c r="L94" s="74" t="s">
+      <c r="J94" s="139" t="s">
+        <v>386</v>
+      </c>
+      <c r="K94" s="63" t="s">
+        <v>423</v>
+      </c>
+      <c r="L94" s="62" t="s">
         <v>141</v>
       </c>
-      <c r="M94" s="74" t="s">
-        <v>501</v>
-      </c>
-      <c r="N94" s="44" t="s">
+      <c r="M94" s="62" t="s">
+        <v>456</v>
+      </c>
+      <c r="N94" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="O94" s="44" t="s">
+      <c r="O94" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q94" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="R94" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="S94" s="9"/>
-      <c r="T94" s="5"/>
-      <c r="U94" s="9" t="s">
+      <c r="P94" s="31" t="s">
+        <v>502</v>
+      </c>
+      <c r="Q94" s="34" t="s">
+        <v>524</v>
+      </c>
+      <c r="R94" s="5"/>
+      <c r="S94" s="4"/>
+      <c r="T94" s="31" t="s">
+        <v>502</v>
+      </c>
+      <c r="U94" s="31" t="s">
         <v>141</v>
       </c>
+      <c r="V94"/>
       <c r="W94" s="9"/>
       <c r="Y94" s="9"/>
     </row>
     <row r="95" spans="1:25" s="8" customFormat="1">
-      <c r="A95" s="44" t="s">
+      <c r="A95" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B95" s="41" t="s">
+      <c r="B95" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="C95" s="42">
+      <c r="C95" s="32">
         <v>28</v>
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="4"/>
-      <c r="F95" s="97" t="s">
+      <c r="F95" s="85" t="s">
         <v>175</v>
       </c>
-      <c r="G95" s="93" t="s">
+      <c r="G95" s="81" t="s">
         <v>181</v>
       </c>
-      <c r="H95" s="43" t="s">
+      <c r="H95" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="I95" s="44" t="s">
+      <c r="I95" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="J95" s="155" t="s">
-        <v>431</v>
-      </c>
-      <c r="K95" s="164" t="s">
+      <c r="J95" s="139" t="s">
+        <v>386</v>
+      </c>
+      <c r="K95" s="148" t="s">
         <v>51</v>
       </c>
-      <c r="L95" s="165" t="s">
+      <c r="L95" s="149" t="s">
         <v>144</v>
       </c>
-      <c r="M95" s="165" t="s">
-        <v>479</v>
+      <c r="M95" s="149" t="s">
+        <v>434</v>
       </c>
       <c r="N95" s="4"/>
       <c r="O95" s="4"/>
-      <c r="Q95" s="9"/>
-      <c r="S95" s="9"/>
-      <c r="T95" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="U95" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="V95" s="11" t="s">
-        <v>212</v>
-      </c>
+      <c r="P95" s="5"/>
+      <c r="Q95" s="4"/>
+      <c r="R95" s="5"/>
+      <c r="S95" s="4"/>
+      <c r="T95" s="10"/>
+      <c r="U95" s="5"/>
+      <c r="V95"/>
       <c r="W95" s="9"/>
       <c r="Y95" s="9"/>
     </row>
-    <row r="96" spans="1:25" s="30" customFormat="1" ht="16" thickBot="1">
-      <c r="A96" s="99"/>
-      <c r="B96" s="19"/>
-      <c r="C96" s="107"/>
-      <c r="D96" s="19"/>
-      <c r="E96" s="20"/>
-      <c r="F96" s="79" t="s">
-        <v>257</v>
-      </c>
-      <c r="G96" s="109" t="s">
-        <v>386</v>
-      </c>
-      <c r="H96" s="19"/>
-      <c r="I96" s="20"/>
-      <c r="J96" s="156"/>
-      <c r="K96" s="167"/>
-      <c r="L96" s="135"/>
-      <c r="M96" s="135"/>
-      <c r="N96" s="20"/>
-      <c r="O96" s="20"/>
-      <c r="Q96" s="31"/>
-      <c r="S96" s="31"/>
-      <c r="T96" s="19"/>
-      <c r="U96" s="20"/>
-      <c r="W96" s="31"/>
-      <c r="Y96" s="31"/>
+    <row r="96" spans="1:25" s="24" customFormat="1" ht="16" thickBot="1">
+      <c r="A96" s="87"/>
+      <c r="B96" s="17"/>
+      <c r="C96" s="95"/>
+      <c r="D96" s="17"/>
+      <c r="E96" s="18"/>
+      <c r="F96" s="67" t="s">
+        <v>239</v>
+      </c>
+      <c r="G96" s="97" t="s">
+        <v>341</v>
+      </c>
+      <c r="H96" s="17"/>
+      <c r="I96" s="18"/>
+      <c r="J96" s="140"/>
+      <c r="K96" s="151"/>
+      <c r="L96" s="121"/>
+      <c r="M96" s="121"/>
+      <c r="N96" s="18"/>
+      <c r="O96" s="18"/>
+      <c r="P96" s="17"/>
+      <c r="Q96" s="18"/>
+      <c r="R96" s="17"/>
+      <c r="S96" s="18"/>
+      <c r="T96" s="208"/>
+      <c r="U96" s="17"/>
+      <c r="W96" s="25"/>
+      <c r="Y96" s="25"/>
     </row>
     <row r="97" spans="1:25" ht="15" customHeight="1">
-      <c r="A97" s="44" t="s">
-        <v>390</v>
-      </c>
-      <c r="B97" s="12"/>
-      <c r="C97" s="39"/>
+      <c r="A97" s="34" t="s">
+        <v>345</v>
+      </c>
+      <c r="B97" s="10"/>
+      <c r="C97" s="29"/>
       <c r="D97" s="5"/>
       <c r="E97" s="4"/>
-      <c r="F97" s="41" t="s">
-        <v>257</v>
-      </c>
-      <c r="G97" s="44" t="s">
-        <v>388</v>
-      </c>
-      <c r="H97" s="43" t="s">
-        <v>398</v>
+      <c r="F97" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="G97" s="34" t="s">
+        <v>343</v>
+      </c>
+      <c r="H97" s="33" t="s">
+        <v>353</v>
       </c>
       <c r="I97" s="4"/>
-      <c r="J97" s="157"/>
-      <c r="K97" s="182" t="s">
-        <v>527</v>
-      </c>
-      <c r="L97" s="183"/>
-      <c r="M97" s="184"/>
-      <c r="N97" s="206" t="s">
-        <v>534</v>
+      <c r="J97" s="141"/>
+      <c r="K97" s="171" t="s">
+        <v>482</v>
+      </c>
+      <c r="L97" s="172"/>
+      <c r="M97" s="173"/>
+      <c r="N97" s="168" t="s">
+        <v>489</v>
       </c>
       <c r="O97" s="4"/>
-      <c r="T97" s="5"/>
-      <c r="U97" s="4"/>
+      <c r="P97" s="5"/>
+      <c r="Q97" s="4"/>
+      <c r="R97" s="5"/>
+      <c r="S97" s="4"/>
+      <c r="T97" s="10"/>
+      <c r="U97" s="5"/>
     </row>
     <row r="98" spans="1:25">
-      <c r="A98" s="44"/>
-      <c r="B98" s="12"/>
-      <c r="C98" s="39"/>
+      <c r="A98" s="34"/>
+      <c r="B98" s="10"/>
+      <c r="C98" s="29"/>
       <c r="D98" s="5"/>
       <c r="E98" s="4"/>
-      <c r="F98" s="41" t="s">
-        <v>257</v>
-      </c>
-      <c r="G98" s="105" t="s">
-        <v>387</v>
+      <c r="F98" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="G98" s="93" t="s">
+        <v>342</v>
       </c>
       <c r="H98" s="5"/>
       <c r="I98" s="4"/>
-      <c r="J98" s="157"/>
-      <c r="K98" s="185"/>
-      <c r="L98" s="186"/>
-      <c r="M98" s="187"/>
-      <c r="N98" s="207"/>
+      <c r="J98" s="141"/>
+      <c r="K98" s="174"/>
+      <c r="L98" s="175"/>
+      <c r="M98" s="176"/>
+      <c r="N98" s="169"/>
       <c r="O98" s="4"/>
-      <c r="T98" s="5"/>
-      <c r="U98" s="4"/>
+      <c r="P98" s="5"/>
+      <c r="Q98" s="4"/>
+      <c r="R98" s="5"/>
+      <c r="S98" s="4"/>
+      <c r="T98" s="10"/>
+      <c r="U98" s="5"/>
     </row>
     <row r="99" spans="1:25">
-      <c r="A99" s="44"/>
-      <c r="B99" s="12"/>
-      <c r="C99" s="39"/>
+      <c r="A99" s="34"/>
+      <c r="B99" s="10"/>
+      <c r="C99" s="29"/>
       <c r="D99" s="5"/>
       <c r="E99" s="4"/>
-      <c r="F99" s="41" t="s">
-        <v>257</v>
-      </c>
-      <c r="G99" s="44" t="s">
-        <v>389</v>
-      </c>
-      <c r="H99" s="43" t="s">
-        <v>399</v>
+      <c r="F99" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="G99" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="H99" s="33" t="s">
+        <v>354</v>
       </c>
       <c r="I99" s="4"/>
-      <c r="J99" s="157"/>
-      <c r="K99" s="185"/>
-      <c r="L99" s="186"/>
-      <c r="M99" s="187"/>
-      <c r="N99" s="207"/>
+      <c r="J99" s="141"/>
+      <c r="K99" s="174"/>
+      <c r="L99" s="175"/>
+      <c r="M99" s="176"/>
+      <c r="N99" s="169"/>
       <c r="O99" s="4"/>
-      <c r="T99" s="5"/>
-      <c r="U99" s="4"/>
-    </row>
-    <row r="100" spans="1:25" s="30" customFormat="1" ht="16" thickBot="1">
-      <c r="A100" s="99"/>
-      <c r="B100" s="19"/>
-      <c r="C100" s="107"/>
-      <c r="D100" s="19"/>
-      <c r="E100" s="20"/>
-      <c r="F100" s="19"/>
-      <c r="G100" s="20"/>
-      <c r="H100" s="79" t="s">
-        <v>408</v>
-      </c>
-      <c r="I100" s="99" t="s">
-        <v>410</v>
-      </c>
-      <c r="J100" s="158" t="s">
-        <v>431</v>
-      </c>
-      <c r="K100" s="188"/>
-      <c r="L100" s="189"/>
-      <c r="M100" s="190"/>
-      <c r="N100" s="208"/>
-      <c r="O100" s="20"/>
-      <c r="Q100" s="31"/>
-      <c r="S100" s="31"/>
-      <c r="T100" s="19"/>
-      <c r="U100" s="20"/>
-      <c r="W100" s="31"/>
-      <c r="Y100" s="31"/>
+      <c r="P99" s="5"/>
+      <c r="Q99" s="4"/>
+      <c r="R99" s="5"/>
+      <c r="S99" s="4"/>
+      <c r="T99" s="10"/>
+      <c r="U99" s="5"/>
+    </row>
+    <row r="100" spans="1:25" s="24" customFormat="1" ht="16" thickBot="1">
+      <c r="A100" s="87"/>
+      <c r="B100" s="17"/>
+      <c r="C100" s="95"/>
+      <c r="D100" s="17"/>
+      <c r="E100" s="18"/>
+      <c r="F100" s="17"/>
+      <c r="G100" s="18"/>
+      <c r="H100" s="67" t="s">
+        <v>363</v>
+      </c>
+      <c r="I100" s="87" t="s">
+        <v>365</v>
+      </c>
+      <c r="J100" s="142" t="s">
+        <v>386</v>
+      </c>
+      <c r="K100" s="177"/>
+      <c r="L100" s="178"/>
+      <c r="M100" s="179"/>
+      <c r="N100" s="170"/>
+      <c r="O100" s="18"/>
+      <c r="P100" s="17"/>
+      <c r="Q100" s="18"/>
+      <c r="R100" s="17"/>
+      <c r="S100" s="18"/>
+      <c r="T100" s="208"/>
+      <c r="U100" s="17"/>
+      <c r="W100" s="25"/>
+      <c r="Y100" s="25"/>
     </row>
     <row r="101" spans="1:25" s="8" customFormat="1">
-      <c r="A101" s="44" t="s">
+      <c r="A101" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B101" s="41" t="s">
+      <c r="B101" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="C101" s="42">
+      <c r="C101" s="32">
         <v>36</v>
       </c>
       <c r="D101" s="5"/>
       <c r="E101" s="4"/>
       <c r="F101" s="5"/>
       <c r="G101" s="4"/>
-      <c r="H101" s="43" t="s">
+      <c r="H101" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="I101" s="74" t="s">
+      <c r="I101" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="J101" s="155" t="s">
-        <v>431</v>
-      </c>
-      <c r="K101" s="75" t="s">
-        <v>470</v>
-      </c>
-      <c r="L101" s="74" t="s">
-        <v>528</v>
-      </c>
-      <c r="M101" s="74" t="s">
-        <v>529</v>
-      </c>
-      <c r="N101" s="44" t="s">
+      <c r="J101" s="139" t="s">
+        <v>386</v>
+      </c>
+      <c r="K101" s="63" t="s">
+        <v>425</v>
+      </c>
+      <c r="L101" s="62" t="s">
+        <v>483</v>
+      </c>
+      <c r="M101" s="62" t="s">
+        <v>484</v>
+      </c>
+      <c r="N101" s="34" t="s">
         <v>164</v>
       </c>
       <c r="O101" s="4"/>
-      <c r="Q101" s="9"/>
-      <c r="S101" s="9"/>
-      <c r="U101" s="9"/>
+      <c r="P101" s="5"/>
+      <c r="Q101" s="4"/>
+      <c r="R101" s="5"/>
+      <c r="S101" s="4"/>
+      <c r="T101" s="10"/>
+      <c r="U101" s="5"/>
+      <c r="V101"/>
       <c r="W101" s="9"/>
       <c r="Y101" s="9"/>
     </row>
     <row r="102" spans="1:25">
-      <c r="A102" s="40" t="s">
+      <c r="A102" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B102" s="41" t="s">
+      <c r="B102" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="C102" s="42">
+      <c r="C102" s="32">
         <v>37</v>
       </c>
-      <c r="D102" s="43" t="s">
+      <c r="D102" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="E102" s="44" t="s">
+      <c r="E102" s="34" t="s">
         <v>184</v>
       </c>
-      <c r="F102" s="41" t="s">
+      <c r="F102" s="31" t="s">
         <v>185</v>
       </c>
-      <c r="G102" s="93" t="s">
+      <c r="G102" s="81" t="s">
         <v>203</v>
       </c>
-      <c r="H102" s="41" t="s">
-        <v>396</v>
+      <c r="H102" s="31" t="s">
+        <v>351</v>
       </c>
       <c r="I102" s="4"/>
-      <c r="J102" s="155" t="s">
-        <v>431</v>
-      </c>
-      <c r="K102" s="75" t="s">
+      <c r="J102" s="139" t="s">
+        <v>386</v>
+      </c>
+      <c r="K102" s="63" t="s">
         <v>165</v>
       </c>
-      <c r="L102" s="74" t="s">
-        <v>221</v>
-      </c>
-      <c r="M102" s="74" t="s">
-        <v>512</v>
-      </c>
-      <c r="N102" s="44" t="s">
+      <c r="L102" s="62" t="s">
+        <v>210</v>
+      </c>
+      <c r="M102" s="62" t="s">
+        <v>467</v>
+      </c>
+      <c r="N102" s="34" t="s">
         <v>165</v>
       </c>
       <c r="O102" s="4"/>
-      <c r="T102" s="5"/>
-      <c r="U102" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="103" spans="1:25" s="30" customFormat="1" ht="16" thickBot="1">
-      <c r="A103" s="98" t="s">
+      <c r="P102" s="5"/>
+      <c r="Q102" s="4"/>
+      <c r="R102" s="5"/>
+      <c r="S102" s="4"/>
+      <c r="T102" s="10"/>
+      <c r="U102" s="5"/>
+    </row>
+    <row r="103" spans="1:25" s="24" customFormat="1" ht="16" thickBot="1">
+      <c r="A103" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="B103" s="79" t="s">
+      <c r="B103" s="67" t="s">
         <v>150</v>
       </c>
-      <c r="C103" s="80">
+      <c r="C103" s="68">
         <v>38</v>
       </c>
-      <c r="D103" s="79" t="s">
+      <c r="D103" s="67" t="s">
         <v>102</v>
       </c>
-      <c r="E103" s="99" t="s">
+      <c r="E103" s="87" t="s">
         <v>146</v>
       </c>
-      <c r="F103" s="79" t="s">
-        <v>385</v>
-      </c>
-      <c r="G103" s="181" t="s">
+      <c r="F103" s="67" t="s">
+        <v>340</v>
+      </c>
+      <c r="G103" s="164" t="s">
         <v>204</v>
       </c>
-      <c r="H103" s="79" t="s">
-        <v>397</v>
-      </c>
-      <c r="I103" s="20"/>
-      <c r="J103" s="158" t="s">
-        <v>431</v>
-      </c>
-      <c r="K103" s="102" t="s">
+      <c r="H103" s="67" t="s">
+        <v>352</v>
+      </c>
+      <c r="I103" s="18"/>
+      <c r="J103" s="142" t="s">
+        <v>386</v>
+      </c>
+      <c r="K103" s="90" t="s">
+        <v>424</v>
+      </c>
+      <c r="L103" s="101" t="s">
+        <v>199</v>
+      </c>
+      <c r="M103" s="101" t="s">
+        <v>468</v>
+      </c>
+      <c r="N103" s="87" t="s">
+        <v>166</v>
+      </c>
+      <c r="O103" s="18"/>
+      <c r="P103" s="67" t="s">
+        <v>504</v>
+      </c>
+      <c r="Q103" s="87" t="s">
+        <v>524</v>
+      </c>
+      <c r="R103" s="17"/>
+      <c r="S103" s="18"/>
+      <c r="T103" s="207" t="s">
+        <v>504</v>
+      </c>
+      <c r="U103" s="67" t="s">
+        <v>503</v>
+      </c>
+      <c r="W103" s="25"/>
+      <c r="Y103" s="25"/>
+    </row>
+    <row r="104" spans="1:25">
+      <c r="A104" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B104" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="C104" s="32">
+        <v>39</v>
+      </c>
+      <c r="D104" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="E104" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="F104" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="G104" s="4"/>
+      <c r="H104" s="10"/>
+      <c r="I104" s="4"/>
+      <c r="J104" s="129"/>
+      <c r="K104" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="L104" s="62" t="s">
+        <v>211</v>
+      </c>
+      <c r="M104" s="62" t="s">
         <v>469</v>
       </c>
-      <c r="L103" s="113" t="s">
-        <v>199</v>
-      </c>
-      <c r="M103" s="113" t="s">
-        <v>513</v>
-      </c>
-      <c r="N103" s="99" t="s">
-        <v>166</v>
-      </c>
-      <c r="O103" s="20"/>
-      <c r="P103" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q103" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="R103" s="18" t="s">
-        <v>347</v>
-      </c>
-      <c r="S103" s="31"/>
-      <c r="T103" s="19"/>
-      <c r="U103" s="31" t="s">
-        <v>199</v>
-      </c>
-      <c r="W103" s="31"/>
-      <c r="Y103" s="31"/>
-    </row>
-    <row r="104" spans="1:25">
-      <c r="A104" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="B104" s="41" t="s">
-        <v>163</v>
-      </c>
-      <c r="C104" s="42">
-        <v>39</v>
-      </c>
-      <c r="D104" s="43" t="s">
+      <c r="N104" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="O104" s="4"/>
+      <c r="P104" s="63" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q104" s="215" t="s">
+        <v>518</v>
+      </c>
+      <c r="R104" s="10"/>
+      <c r="S104" s="4"/>
+      <c r="T104" s="31" t="s">
+        <v>505</v>
+      </c>
+      <c r="U104" s="5"/>
+    </row>
+    <row r="105" spans="1:25">
+      <c r="A105" s="34"/>
+      <c r="B105" s="31"/>
+      <c r="C105" s="32"/>
+      <c r="D105" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="E104" s="44" t="s">
+      <c r="E105" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="F104" s="41" t="s">
-        <v>189</v>
-      </c>
-      <c r="G104" s="4"/>
-      <c r="H104" s="12"/>
-      <c r="I104" s="4"/>
-      <c r="J104" s="145"/>
-      <c r="K104" s="75" t="s">
-        <v>51</v>
-      </c>
-      <c r="L104" s="74" t="s">
-        <v>224</v>
-      </c>
-      <c r="M104" s="74" t="s">
-        <v>514</v>
-      </c>
-      <c r="N104" s="44" t="s">
-        <v>167</v>
-      </c>
-      <c r="O104" s="4"/>
-      <c r="P104" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q104" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="R104" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="T104" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="U104" s="27" t="s">
-        <v>224</v>
-      </c>
-      <c r="V104" s="11" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="105" spans="1:25">
-      <c r="A105" s="44"/>
-      <c r="B105" s="41"/>
-      <c r="C105" s="42"/>
-      <c r="D105" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="E105" s="44" t="s">
-        <v>186</v>
-      </c>
-      <c r="F105" s="41" t="s">
+      <c r="F105" s="31" t="s">
         <v>190</v>
       </c>
       <c r="G105" s="4"/>
       <c r="H105" s="5"/>
       <c r="I105" s="4"/>
-      <c r="J105" s="145"/>
-      <c r="K105" s="75" t="s">
+      <c r="J105" s="129"/>
+      <c r="K105" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="L105" s="74" t="s">
-        <v>236</v>
-      </c>
-      <c r="M105" s="74" t="s">
-        <v>515</v>
-      </c>
-      <c r="N105" s="44" t="s">
-        <v>535</v>
+      <c r="L105" s="62" t="s">
+        <v>219</v>
+      </c>
+      <c r="M105" s="62" t="s">
+        <v>470</v>
+      </c>
+      <c r="N105" s="34" t="s">
+        <v>490</v>
       </c>
       <c r="O105" s="4"/>
-      <c r="T105" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="V105" t="s">
-        <v>226</v>
+      <c r="P105" s="63" t="s">
+        <v>520</v>
+      </c>
+      <c r="Q105" s="215" t="s">
+        <v>518</v>
+      </c>
+      <c r="R105" s="5"/>
+      <c r="S105" s="4"/>
+      <c r="T105" s="210" t="s">
+        <v>507</v>
+      </c>
+      <c r="U105" s="211" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="106" spans="1:25">
-      <c r="A106" s="44"/>
-      <c r="B106" s="41"/>
-      <c r="C106" s="42"/>
-      <c r="D106" s="43" t="s">
+      <c r="A106" s="34"/>
+      <c r="B106" s="31"/>
+      <c r="C106" s="32"/>
+      <c r="D106" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="E106" s="44" t="s">
+      <c r="E106" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="F106" s="41" t="s">
+      <c r="F106" s="31" t="s">
         <v>191</v>
       </c>
       <c r="G106" s="4"/>
       <c r="H106" s="5"/>
       <c r="I106" s="4"/>
-      <c r="J106" s="145"/>
-      <c r="K106" s="75" t="s">
+      <c r="J106" s="129"/>
+      <c r="K106" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="L106" s="74" t="s">
-        <v>237</v>
-      </c>
-      <c r="M106" s="74" t="s">
-        <v>516</v>
+      <c r="L106" s="62" t="s">
+        <v>220</v>
+      </c>
+      <c r="M106" s="62" t="s">
+        <v>471</v>
       </c>
       <c r="N106" s="4"/>
       <c r="O106" s="4"/>
-      <c r="U106" s="1" t="s">
-        <v>236</v>
+      <c r="P106" s="63" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q106" s="215" t="s">
+        <v>518</v>
+      </c>
+      <c r="R106" s="5"/>
+      <c r="S106" s="4"/>
+      <c r="T106" s="212" t="s">
+        <v>509</v>
+      </c>
+      <c r="U106" s="213" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="107" spans="1:25">
-      <c r="A107" s="44"/>
-      <c r="B107" s="41"/>
-      <c r="C107" s="42"/>
-      <c r="D107" s="43" t="s">
+      <c r="A107" s="34"/>
+      <c r="B107" s="31"/>
+      <c r="C107" s="32"/>
+      <c r="D107" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="E107" s="44" t="s">
+      <c r="E107" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="F107" s="41" t="s">
-        <v>402</v>
-      </c>
-      <c r="G107" s="44"/>
-      <c r="H107" s="41" t="s">
-        <v>411</v>
-      </c>
-      <c r="I107" s="44"/>
-      <c r="J107" s="155" t="s">
-        <v>431</v>
-      </c>
-      <c r="K107" s="75" t="s">
-        <v>257</v>
-      </c>
-      <c r="L107" s="74" t="s">
-        <v>517</v>
-      </c>
-      <c r="M107" s="74" t="s">
-        <v>518</v>
+      <c r="F107" s="31" t="s">
+        <v>357</v>
+      </c>
+      <c r="G107" s="34"/>
+      <c r="H107" s="31" t="s">
+        <v>366</v>
+      </c>
+      <c r="I107" s="34"/>
+      <c r="J107" s="139" t="s">
+        <v>386</v>
+      </c>
+      <c r="K107" s="63" t="s">
+        <v>239</v>
+      </c>
+      <c r="L107" s="62" t="s">
+        <v>472</v>
+      </c>
+      <c r="M107" s="62" t="s">
+        <v>473</v>
       </c>
       <c r="N107" s="4"/>
       <c r="O107" s="4"/>
-      <c r="U107" s="1" t="s">
-        <v>237</v>
+      <c r="P107" s="5"/>
+      <c r="Q107" s="4"/>
+      <c r="R107" s="5"/>
+      <c r="S107" s="4"/>
+      <c r="T107" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="U107" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="V107" s="63" t="s">
+        <v>469</v>
+      </c>
+      <c r="W107" s="219" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="108" spans="1:25">
-      <c r="A108" s="44"/>
-      <c r="B108" s="41"/>
-      <c r="C108" s="42"/>
-      <c r="D108" s="43" t="s">
+      <c r="A108" s="34"/>
+      <c r="B108" s="31"/>
+      <c r="C108" s="32"/>
+      <c r="D108" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="E108" s="44" t="s">
+      <c r="E108" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="F108" s="12"/>
-      <c r="G108" s="94"/>
+      <c r="F108" s="10"/>
+      <c r="G108" s="82"/>
       <c r="H108" s="5"/>
       <c r="I108" s="4"/>
-      <c r="J108" s="145"/>
-      <c r="K108" s="108"/>
-      <c r="L108" s="134"/>
-      <c r="M108" s="134"/>
+      <c r="J108" s="129"/>
+      <c r="K108" s="96"/>
+      <c r="L108" s="120"/>
+      <c r="M108" s="120"/>
       <c r="N108" s="4"/>
       <c r="O108" s="4"/>
+      <c r="P108" s="5"/>
+      <c r="Q108" s="4"/>
+      <c r="R108" s="5"/>
+      <c r="S108" s="4"/>
+      <c r="T108" s="31" t="s">
+        <v>511</v>
+      </c>
+      <c r="U108" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="V108" s="63" t="s">
+        <v>470</v>
+      </c>
+      <c r="W108" s="219"/>
     </row>
     <row r="109" spans="1:25">
-      <c r="A109" s="44"/>
-      <c r="B109" s="41"/>
-      <c r="C109" s="42"/>
-      <c r="D109" s="43" t="s">
+      <c r="A109" s="34"/>
+      <c r="B109" s="31"/>
+      <c r="C109" s="32"/>
+      <c r="D109" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="E109" s="44" t="s">
+      <c r="E109" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="F109" s="12"/>
+      <c r="F109" s="10"/>
       <c r="G109" s="4"/>
       <c r="H109" s="5"/>
       <c r="I109" s="4"/>
-      <c r="J109" s="145"/>
-      <c r="K109" s="108"/>
-      <c r="L109" s="134"/>
-      <c r="M109" s="134"/>
+      <c r="J109" s="129"/>
+      <c r="K109" s="96"/>
+      <c r="L109" s="120"/>
+      <c r="M109" s="120"/>
       <c r="N109" s="4"/>
       <c r="O109" s="4"/>
+      <c r="P109" s="5"/>
+      <c r="Q109" s="4"/>
+      <c r="R109" s="5"/>
+      <c r="S109" s="4"/>
+      <c r="T109" s="31" t="s">
+        <v>512</v>
+      </c>
+      <c r="U109" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="V109" s="63" t="s">
+        <v>471</v>
+      </c>
+      <c r="W109" s="219"/>
     </row>
     <row r="110" spans="1:25">
-      <c r="A110" s="44"/>
-      <c r="B110" s="41"/>
-      <c r="C110" s="42"/>
-      <c r="D110" s="43" t="s">
+      <c r="A110" s="34"/>
+      <c r="B110" s="31"/>
+      <c r="C110" s="32"/>
+      <c r="D110" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="E110" s="44" t="s">
+      <c r="E110" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="F110" s="12"/>
+      <c r="F110" s="10"/>
       <c r="G110" s="4"/>
       <c r="H110" s="5"/>
       <c r="I110" s="4"/>
-      <c r="J110" s="145"/>
-      <c r="K110" s="108"/>
-      <c r="L110" s="134"/>
-      <c r="M110" s="134"/>
+      <c r="J110" s="129"/>
+      <c r="K110" s="96"/>
+      <c r="L110" s="120"/>
+      <c r="M110" s="120"/>
       <c r="N110" s="4"/>
       <c r="O110" s="4"/>
-    </row>
-    <row r="111" spans="1:25" s="30" customFormat="1" ht="16" thickBot="1">
-      <c r="A111" s="99"/>
-      <c r="B111" s="79"/>
-      <c r="C111" s="80"/>
-      <c r="D111" s="79" t="s">
+      <c r="P110" s="5"/>
+      <c r="Q110" s="4"/>
+      <c r="R110" s="5"/>
+      <c r="S110" s="4"/>
+      <c r="T110" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="U110" s="33" t="s">
+        <v>508</v>
+      </c>
+      <c r="V110" s="63" t="s">
+        <v>473</v>
+      </c>
+      <c r="W110" s="219"/>
+    </row>
+    <row r="111" spans="1:25" s="24" customFormat="1" ht="16" thickBot="1">
+      <c r="A111" s="87"/>
+      <c r="B111" s="67"/>
+      <c r="C111" s="68"/>
+      <c r="D111" s="67" t="s">
         <v>102</v>
       </c>
-      <c r="E111" s="99" t="s">
+      <c r="E111" s="87" t="s">
         <v>186</v>
       </c>
-      <c r="F111" s="19"/>
-      <c r="G111" s="20"/>
-      <c r="H111" s="19"/>
-      <c r="I111" s="20"/>
-      <c r="J111" s="149"/>
-      <c r="K111" s="168"/>
-      <c r="L111" s="135"/>
-      <c r="M111" s="135"/>
-      <c r="N111" s="20"/>
-      <c r="O111" s="20"/>
-      <c r="Q111" s="31"/>
-      <c r="S111" s="31"/>
-      <c r="U111" s="31"/>
-      <c r="W111" s="31"/>
-      <c r="Y111" s="31"/>
+      <c r="F111" s="17"/>
+      <c r="G111" s="18"/>
+      <c r="H111" s="17"/>
+      <c r="I111" s="18"/>
+      <c r="J111" s="133"/>
+      <c r="K111" s="152"/>
+      <c r="L111" s="121"/>
+      <c r="M111" s="121"/>
+      <c r="N111" s="18"/>
+      <c r="O111" s="18"/>
+      <c r="P111" s="17"/>
+      <c r="Q111" s="18"/>
+      <c r="R111" s="17"/>
+      <c r="S111" s="18"/>
+      <c r="T111" s="208"/>
+      <c r="U111" s="17"/>
+      <c r="W111" s="25"/>
+      <c r="Y111" s="25"/>
     </row>
     <row r="112" spans="1:25">
-      <c r="A112" s="40" t="s">
+      <c r="A112" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B112" s="41" t="s">
+      <c r="B112" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="C112" s="42">
+      <c r="C112" s="32">
         <v>40</v>
       </c>
-      <c r="D112" s="43" t="s">
+      <c r="D112" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="E112" s="44" t="s">
+      <c r="E112" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="F112" s="41" t="s">
+      <c r="F112" s="31" t="s">
         <v>192</v>
       </c>
       <c r="G112" s="4"/>
-      <c r="H112" s="12"/>
+      <c r="H112" s="10"/>
       <c r="I112" s="4"/>
-      <c r="J112" s="145"/>
-      <c r="K112" s="75" t="s">
-        <v>504</v>
-      </c>
-      <c r="L112" s="74" t="s">
-        <v>502</v>
-      </c>
-      <c r="M112" s="74" t="s">
-        <v>519</v>
-      </c>
-      <c r="N112" s="206" t="s">
-        <v>536</v>
+      <c r="J112" s="129"/>
+      <c r="K112" s="63" t="s">
+        <v>459</v>
+      </c>
+      <c r="L112" s="62" t="s">
+        <v>457</v>
+      </c>
+      <c r="M112" s="62" t="s">
+        <v>474</v>
+      </c>
+      <c r="N112" s="168" t="s">
+        <v>491</v>
       </c>
       <c r="O112" s="4"/>
-      <c r="T112" s="5"/>
-      <c r="U112" s="1" t="s">
-        <v>228</v>
-      </c>
+      <c r="P112" s="5"/>
+      <c r="Q112" s="4"/>
+      <c r="R112" s="5"/>
+      <c r="S112" s="4"/>
+      <c r="T112" s="10"/>
+      <c r="U112" s="5"/>
     </row>
     <row r="113" spans="1:25">
-      <c r="A113" s="44"/>
-      <c r="B113" s="41"/>
-      <c r="C113" s="42"/>
-      <c r="D113" s="43" t="s">
+      <c r="A113" s="34"/>
+      <c r="B113" s="31"/>
+      <c r="C113" s="32"/>
+      <c r="D113" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="E113" s="44" t="s">
+      <c r="E113" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="F113" s="43" t="s">
+      <c r="F113" s="33" t="s">
         <v>193</v>
       </c>
       <c r="G113" s="4"/>
       <c r="H113" s="5"/>
       <c r="I113" s="4"/>
-      <c r="J113" s="145"/>
-      <c r="K113" s="75" t="s">
-        <v>505</v>
-      </c>
-      <c r="L113" s="74" t="s">
-        <v>229</v>
-      </c>
-      <c r="M113" s="74" t="s">
-        <v>520</v>
-      </c>
-      <c r="N113" s="207"/>
+      <c r="J113" s="129"/>
+      <c r="K113" s="63" t="s">
+        <v>460</v>
+      </c>
+      <c r="L113" s="62" t="s">
+        <v>213</v>
+      </c>
+      <c r="M113" s="62" t="s">
+        <v>475</v>
+      </c>
+      <c r="N113" s="169"/>
       <c r="O113" s="4"/>
-      <c r="T113" s="5"/>
-      <c r="U113" s="1" t="s">
-        <v>229</v>
-      </c>
+      <c r="P113" s="5"/>
+      <c r="Q113" s="4"/>
+      <c r="R113" s="5"/>
+      <c r="S113" s="4"/>
+      <c r="T113" s="10"/>
+      <c r="U113" s="5"/>
     </row>
     <row r="114" spans="1:25">
-      <c r="A114" s="44"/>
-      <c r="B114" s="41"/>
-      <c r="C114" s="42"/>
-      <c r="D114" s="43" t="s">
+      <c r="A114" s="34"/>
+      <c r="B114" s="31"/>
+      <c r="C114" s="32"/>
+      <c r="D114" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="E114" s="44" t="s">
+      <c r="E114" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="F114" s="43" t="s">
+      <c r="F114" s="33" t="s">
         <v>194</v>
       </c>
       <c r="G114" s="4"/>
       <c r="H114" s="5"/>
       <c r="I114" s="4"/>
-      <c r="J114" s="145"/>
-      <c r="K114" s="75" t="s">
-        <v>506</v>
-      </c>
-      <c r="L114" s="74" t="s">
-        <v>227</v>
-      </c>
-      <c r="M114" s="74" t="s">
-        <v>521</v>
-      </c>
-      <c r="N114" s="207"/>
+      <c r="J114" s="129"/>
+      <c r="K114" s="63" t="s">
+        <v>461</v>
+      </c>
+      <c r="L114" s="62" t="s">
+        <v>212</v>
+      </c>
+      <c r="M114" s="62" t="s">
+        <v>476</v>
+      </c>
+      <c r="N114" s="169"/>
       <c r="O114" s="4"/>
-      <c r="T114" s="5"/>
-      <c r="U114" s="1" t="s">
-        <v>227</v>
-      </c>
+      <c r="P114" s="5"/>
+      <c r="Q114" s="4"/>
+      <c r="R114" s="5"/>
+      <c r="S114" s="4"/>
+      <c r="T114" s="10"/>
+      <c r="U114" s="5"/>
     </row>
     <row r="115" spans="1:25">
-      <c r="A115" s="44"/>
-      <c r="B115" s="41"/>
-      <c r="C115" s="42"/>
-      <c r="D115" s="43" t="s">
+      <c r="A115" s="34"/>
+      <c r="B115" s="31"/>
+      <c r="C115" s="32"/>
+      <c r="D115" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="E115" s="44" t="s">
+      <c r="E115" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="F115" s="41" t="s">
-        <v>405</v>
-      </c>
-      <c r="G115" s="44"/>
-      <c r="H115" s="41" t="s">
-        <v>412</v>
-      </c>
-      <c r="I115" s="44"/>
-      <c r="J115" s="155" t="s">
-        <v>431</v>
-      </c>
-      <c r="K115" s="75" t="s">
-        <v>257</v>
-      </c>
-      <c r="L115" s="74" t="s">
-        <v>503</v>
-      </c>
-      <c r="M115" s="74" t="s">
-        <v>522</v>
-      </c>
-      <c r="N115" s="207"/>
+      <c r="F115" s="31" t="s">
+        <v>360</v>
+      </c>
+      <c r="G115" s="34"/>
+      <c r="H115" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="I115" s="34"/>
+      <c r="J115" s="139" t="s">
+        <v>386</v>
+      </c>
+      <c r="K115" s="63" t="s">
+        <v>239</v>
+      </c>
+      <c r="L115" s="62" t="s">
+        <v>458</v>
+      </c>
+      <c r="M115" s="62" t="s">
+        <v>477</v>
+      </c>
+      <c r="N115" s="169"/>
       <c r="O115" s="4"/>
-    </row>
-    <row r="116" spans="1:25" s="30" customFormat="1" ht="16" thickBot="1">
-      <c r="A116" s="99"/>
-      <c r="B116" s="79"/>
-      <c r="C116" s="80"/>
-      <c r="D116" s="79" t="s">
+      <c r="P115" s="5"/>
+      <c r="Q115" s="4"/>
+      <c r="R115" s="5"/>
+      <c r="S115" s="4"/>
+      <c r="T115" s="10"/>
+      <c r="U115" s="5"/>
+    </row>
+    <row r="116" spans="1:25" s="24" customFormat="1" ht="16" thickBot="1">
+      <c r="A116" s="87"/>
+      <c r="B116" s="67"/>
+      <c r="C116" s="68"/>
+      <c r="D116" s="67" t="s">
         <v>102</v>
       </c>
-      <c r="E116" s="99" t="s">
+      <c r="E116" s="87" t="s">
         <v>187</v>
       </c>
-      <c r="F116" s="19"/>
-      <c r="G116" s="20"/>
-      <c r="H116" s="19"/>
-      <c r="I116" s="20"/>
-      <c r="J116" s="149"/>
-      <c r="K116" s="168"/>
-      <c r="L116" s="135"/>
-      <c r="M116" s="135"/>
-      <c r="N116" s="208"/>
-      <c r="O116" s="20"/>
-      <c r="Q116" s="31"/>
-      <c r="S116" s="31"/>
-      <c r="U116" s="31"/>
-      <c r="W116" s="31"/>
-      <c r="Y116" s="31"/>
+      <c r="F116" s="17"/>
+      <c r="G116" s="18"/>
+      <c r="H116" s="17"/>
+      <c r="I116" s="18"/>
+      <c r="J116" s="133"/>
+      <c r="K116" s="152"/>
+      <c r="L116" s="121"/>
+      <c r="M116" s="121"/>
+      <c r="N116" s="170"/>
+      <c r="O116" s="18"/>
+      <c r="P116" s="17"/>
+      <c r="Q116" s="18"/>
+      <c r="R116" s="17"/>
+      <c r="S116" s="18"/>
+      <c r="T116" s="208"/>
+      <c r="U116" s="17"/>
+      <c r="W116" s="25"/>
+      <c r="Y116" s="25"/>
     </row>
     <row r="117" spans="1:25">
-      <c r="A117" s="40" t="s">
+      <c r="A117" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B117" s="41" t="s">
+      <c r="B117" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="C117" s="42">
+      <c r="C117" s="32">
         <v>41</v>
       </c>
-      <c r="D117" s="43" t="s">
+      <c r="D117" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="E117" s="44" t="s">
+      <c r="E117" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="F117" s="41" t="s">
+      <c r="F117" s="31" t="s">
         <v>195</v>
       </c>
       <c r="G117" s="4"/>
-      <c r="H117" s="12"/>
+      <c r="H117" s="10"/>
       <c r="I117" s="4"/>
-      <c r="J117" s="145"/>
-      <c r="K117" s="75" t="s">
-        <v>507</v>
-      </c>
-      <c r="L117" s="74" t="s">
-        <v>511</v>
-      </c>
-      <c r="M117" s="74" t="s">
-        <v>523</v>
-      </c>
-      <c r="N117" s="206" t="s">
-        <v>537</v>
+      <c r="J117" s="129"/>
+      <c r="K117" s="63" t="s">
+        <v>462</v>
+      </c>
+      <c r="L117" s="62" t="s">
+        <v>466</v>
+      </c>
+      <c r="M117" s="62" t="s">
+        <v>478</v>
+      </c>
+      <c r="N117" s="168" t="s">
+        <v>492</v>
       </c>
       <c r="O117" s="4"/>
-      <c r="T117" s="5"/>
-      <c r="U117" s="1" t="s">
-        <v>230</v>
-      </c>
+      <c r="P117" s="5"/>
+      <c r="Q117" s="4"/>
+      <c r="R117" s="5"/>
+      <c r="S117" s="4"/>
+      <c r="T117" s="10"/>
+      <c r="U117" s="5"/>
     </row>
     <row r="118" spans="1:25">
-      <c r="A118" s="44"/>
-      <c r="B118" s="41"/>
-      <c r="C118" s="42"/>
-      <c r="D118" s="43" t="s">
+      <c r="A118" s="34"/>
+      <c r="B118" s="31"/>
+      <c r="C118" s="32"/>
+      <c r="D118" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="E118" s="44" t="s">
+      <c r="E118" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="F118" s="41" t="s">
+      <c r="F118" s="31" t="s">
         <v>196</v>
       </c>
       <c r="G118" s="4"/>
       <c r="H118" s="5"/>
       <c r="I118" s="4"/>
-      <c r="J118" s="145"/>
-      <c r="K118" s="75" t="s">
-        <v>508</v>
-      </c>
-      <c r="L118" s="74" t="s">
-        <v>231</v>
-      </c>
-      <c r="M118" s="74" t="s">
-        <v>524</v>
-      </c>
-      <c r="N118" s="207"/>
+      <c r="J118" s="129"/>
+      <c r="K118" s="63" t="s">
+        <v>463</v>
+      </c>
+      <c r="L118" s="62" t="s">
+        <v>214</v>
+      </c>
+      <c r="M118" s="62" t="s">
+        <v>479</v>
+      </c>
+      <c r="N118" s="169"/>
       <c r="O118" s="4"/>
-      <c r="T118" s="5"/>
-      <c r="U118" s="1" t="s">
-        <v>231</v>
-      </c>
+      <c r="P118" s="5"/>
+      <c r="Q118" s="4"/>
+      <c r="R118" s="5"/>
+      <c r="S118" s="4"/>
+      <c r="T118" s="10"/>
+      <c r="U118" s="5"/>
     </row>
     <row r="119" spans="1:25">
-      <c r="A119" s="44"/>
-      <c r="B119" s="41"/>
-      <c r="C119" s="42"/>
-      <c r="D119" s="43" t="s">
+      <c r="A119" s="34"/>
+      <c r="B119" s="31"/>
+      <c r="C119" s="32"/>
+      <c r="D119" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="E119" s="44" t="s">
+      <c r="E119" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="F119" s="41" t="s">
+      <c r="F119" s="31" t="s">
         <v>197</v>
       </c>
       <c r="G119" s="4"/>
       <c r="H119" s="5"/>
       <c r="I119" s="4"/>
-      <c r="J119" s="145"/>
-      <c r="K119" s="75" t="s">
-        <v>509</v>
-      </c>
-      <c r="L119" s="74" t="s">
-        <v>232</v>
-      </c>
-      <c r="M119" s="74" t="s">
-        <v>525</v>
-      </c>
-      <c r="N119" s="207"/>
+      <c r="J119" s="129"/>
+      <c r="K119" s="63" t="s">
+        <v>464</v>
+      </c>
+      <c r="L119" s="62" t="s">
+        <v>215</v>
+      </c>
+      <c r="M119" s="62" t="s">
+        <v>480</v>
+      </c>
+      <c r="N119" s="169"/>
       <c r="O119" s="4"/>
-      <c r="T119" s="5"/>
-      <c r="U119" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="120" spans="1:25" s="30" customFormat="1" ht="16" thickBot="1">
-      <c r="A120" s="99"/>
-      <c r="B120" s="79"/>
-      <c r="C120" s="80"/>
-      <c r="D120" s="79" t="s">
+      <c r="P119" s="5"/>
+      <c r="Q119" s="4"/>
+      <c r="R119" s="5"/>
+      <c r="S119" s="4"/>
+      <c r="T119" s="10"/>
+      <c r="U119" s="5"/>
+    </row>
+    <row r="120" spans="1:25" s="24" customFormat="1" ht="16" thickBot="1">
+      <c r="A120" s="87"/>
+      <c r="B120" s="67"/>
+      <c r="C120" s="68"/>
+      <c r="D120" s="67" t="s">
         <v>102</v>
       </c>
-      <c r="E120" s="99" t="s">
+      <c r="E120" s="87" t="s">
         <v>188</v>
       </c>
-      <c r="F120" s="79" t="s">
-        <v>406</v>
-      </c>
-      <c r="G120" s="99"/>
-      <c r="H120" s="79" t="s">
-        <v>413</v>
-      </c>
-      <c r="I120" s="99"/>
-      <c r="J120" s="158" t="s">
-        <v>431</v>
-      </c>
-      <c r="K120" s="178" t="s">
-        <v>257</v>
-      </c>
-      <c r="L120" s="113" t="s">
-        <v>510</v>
-      </c>
-      <c r="M120" s="113" t="s">
-        <v>526</v>
-      </c>
-      <c r="N120" s="208"/>
-      <c r="O120" s="20"/>
-      <c r="Q120" s="31"/>
-      <c r="S120" s="31"/>
-      <c r="U120" s="31"/>
-      <c r="W120" s="31"/>
-      <c r="Y120" s="31"/>
-    </row>
-    <row r="122" spans="1:25" s="16" customFormat="1">
-      <c r="A122" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="B122" s="14"/>
-      <c r="C122" s="15"/>
-      <c r="D122" s="16" t="s">
-        <v>377</v>
-      </c>
-      <c r="E122" s="13"/>
-      <c r="G122" s="13"/>
-      <c r="I122" s="13"/>
-      <c r="J122" s="159"/>
-      <c r="K122" s="138"/>
-      <c r="L122" s="131"/>
-      <c r="M122" s="131"/>
-      <c r="N122" s="13"/>
-      <c r="O122" s="13"/>
-      <c r="Q122" s="13"/>
-      <c r="S122" s="13"/>
-      <c r="U122" s="13"/>
-      <c r="W122" s="13"/>
-      <c r="Y122" s="13"/>
+      <c r="F120" s="67" t="s">
+        <v>361</v>
+      </c>
+      <c r="G120" s="87"/>
+      <c r="H120" s="67" t="s">
+        <v>368</v>
+      </c>
+      <c r="I120" s="87"/>
+      <c r="J120" s="142" t="s">
+        <v>386</v>
+      </c>
+      <c r="K120" s="162" t="s">
+        <v>239</v>
+      </c>
+      <c r="L120" s="101" t="s">
+        <v>465</v>
+      </c>
+      <c r="M120" s="101" t="s">
+        <v>481</v>
+      </c>
+      <c r="N120" s="170"/>
+      <c r="O120" s="18"/>
+      <c r="P120" s="17"/>
+      <c r="Q120" s="18"/>
+      <c r="R120" s="17"/>
+      <c r="S120" s="18"/>
+      <c r="T120" s="208"/>
+      <c r="U120" s="17"/>
+      <c r="W120" s="25"/>
+      <c r="Y120" s="25"/>
+    </row>
+    <row r="122" spans="1:25" s="14" customFormat="1">
+      <c r="A122" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="B122" s="12"/>
+      <c r="C122" s="13"/>
+      <c r="D122" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="E122" s="11"/>
+      <c r="G122" s="11"/>
+      <c r="I122" s="11"/>
+      <c r="J122" s="143"/>
+      <c r="K122" s="123"/>
+      <c r="L122" s="117"/>
+      <c r="M122" s="117"/>
+      <c r="N122" s="11"/>
+      <c r="O122" s="11"/>
+      <c r="Q122" s="11"/>
+      <c r="S122" s="11"/>
+      <c r="T122" s="12"/>
+      <c r="U122" s="12"/>
+      <c r="V122" s="12"/>
+      <c r="W122" s="11"/>
+      <c r="Y122" s="11"/>
     </row>
     <row r="123" spans="1:25">
       <c r="A123" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="C123" s="202" t="s">
-        <v>267</v>
+        <v>331</v>
+      </c>
+      <c r="C123" s="167" t="s">
+        <v>249</v>
       </c>
       <c r="D123" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
     </row>
     <row r="124" spans="1:25">
-      <c r="C124" s="202"/>
+      <c r="C124" s="167"/>
       <c r="D124" t="s">
         <v>102</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
     </row>
     <row r="125" spans="1:25">
-      <c r="C125" s="202"/>
-      <c r="D125" s="84" t="s">
-        <v>258</v>
-      </c>
-      <c r="E125" s="85" t="s">
-        <v>264</v>
+      <c r="C125" s="167"/>
+      <c r="D125" s="72" t="s">
+        <v>240</v>
+      </c>
+      <c r="E125" s="73" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="126" spans="1:25">
-      <c r="C126" s="202"/>
-      <c r="D126" s="86" t="s">
+      <c r="C126" s="167"/>
+      <c r="D126" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="E126" s="87" t="s">
-        <v>265</v>
+      <c r="E126" s="75" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="127" spans="1:25">
-      <c r="C127" s="202"/>
-      <c r="D127" s="84"/>
-      <c r="E127" s="87" t="s">
-        <v>266</v>
+      <c r="C127" s="167"/>
+      <c r="D127" s="72"/>
+      <c r="E127" s="75" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="128" spans="1:25">
-      <c r="C128" s="202"/>
-    </row>
-    <row r="129" spans="1:25" s="24" customFormat="1" ht="7" customHeight="1">
-      <c r="A129" s="21"/>
-      <c r="B129" s="22"/>
-      <c r="C129" s="23"/>
-      <c r="E129" s="21"/>
-      <c r="G129" s="21"/>
-      <c r="I129" s="21"/>
-      <c r="J129" s="161"/>
-      <c r="K129" s="140"/>
-      <c r="L129" s="209"/>
-      <c r="M129" s="133"/>
-      <c r="N129" s="21"/>
-      <c r="O129" s="21"/>
-      <c r="Q129" s="21"/>
-      <c r="S129" s="21"/>
-      <c r="U129" s="21"/>
-      <c r="W129" s="21"/>
-      <c r="Y129" s="21"/>
+      <c r="C128" s="167"/>
+    </row>
+    <row r="129" spans="1:25" s="22" customFormat="1" ht="7" customHeight="1">
+      <c r="A129" s="19"/>
+      <c r="B129" s="20"/>
+      <c r="C129" s="21"/>
+      <c r="E129" s="19"/>
+      <c r="G129" s="19"/>
+      <c r="I129" s="19"/>
+      <c r="J129" s="145"/>
+      <c r="K129" s="125"/>
+      <c r="L129" s="166"/>
+      <c r="M129" s="119"/>
+      <c r="N129" s="19"/>
+      <c r="O129" s="19"/>
+      <c r="Q129" s="19"/>
+      <c r="S129" s="19"/>
+      <c r="T129" s="202"/>
+      <c r="U129" s="206"/>
+      <c r="V129" s="206"/>
+      <c r="W129" s="19"/>
+      <c r="Y129" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="C123:C128"/>
-    <mergeCell ref="N97:N100"/>
-    <mergeCell ref="N112:N116"/>
-    <mergeCell ref="N117:N120"/>
-    <mergeCell ref="K97:M100"/>
+  <mergeCells count="22">
+    <mergeCell ref="X1:X2"/>
     <mergeCell ref="T1:U1"/>
+    <mergeCell ref="W107:W110"/>
+    <mergeCell ref="V1:W2"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="P1:Q2"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="R1:S2"/>
+    <mergeCell ref="C123:C128"/>
+    <mergeCell ref="N97:N100"/>
+    <mergeCell ref="N112:N116"/>
+    <mergeCell ref="N117:N120"/>
+    <mergeCell ref="K97:M100"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/docs/design/CrossMdlAssign.xlsx
+++ b/docs/design/CrossMdlAssign.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="140" windowWidth="25720" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="1100" yWindow="1440" windowWidth="25720" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -370,7 +370,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="533">
   <si>
     <t>Local Var</t>
   </si>
@@ -2555,7 +2555,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="235">
+  <cellStyleXfs count="239">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2791,8 +2791,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="220">
+  <cellXfs count="225">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3000,6 +3004,85 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -3039,98 +3122,30 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="235">
+  <cellStyles count="239">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3248,6 +3263,8 @@
     <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3365,6 +3382,8 @@
     <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3697,9 +3716,9 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AJ129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W11" sqref="W11"/>
+      <selection pane="bottomLeft" activeCell="Y10" sqref="Y10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3724,65 +3743,66 @@
     <col min="18" max="18" width="10.83203125" customWidth="1"/>
     <col min="19" max="19" width="10.83203125" style="1" customWidth="1"/>
     <col min="20" max="20" width="17.33203125" style="6" customWidth="1"/>
-    <col min="21" max="21" width="16.5" customWidth="1"/>
-    <col min="22" max="22" width="18.5" customWidth="1"/>
-    <col min="23" max="23" width="21.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="16.5" style="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5" customWidth="1"/>
+    <col min="23" max="23" width="11.5" style="1" customWidth="1"/>
     <col min="25" max="25" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="2" customFormat="1" ht="16" thickTop="1">
-      <c r="A1" s="182" t="s">
+      <c r="A1" s="189" t="s">
         <v>201</v>
       </c>
-      <c r="B1" s="182"/>
-      <c r="C1" s="183"/>
-      <c r="D1" s="190" t="s">
+      <c r="B1" s="189"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="195" t="s">
         <v>147</v>
       </c>
-      <c r="E1" s="181"/>
-      <c r="F1" s="180" t="s">
+      <c r="E1" s="196"/>
+      <c r="F1" s="197" t="s">
         <v>180</v>
       </c>
-      <c r="G1" s="181"/>
-      <c r="H1" s="180" t="s">
+      <c r="G1" s="196"/>
+      <c r="H1" s="197" t="s">
         <v>179</v>
       </c>
-      <c r="I1" s="181"/>
+      <c r="I1" s="196"/>
       <c r="J1" s="126" t="s">
         <v>174</v>
       </c>
-      <c r="K1" s="180" t="s">
+      <c r="K1" s="197" t="s">
         <v>205</v>
       </c>
-      <c r="L1" s="190"/>
+      <c r="L1" s="195"/>
       <c r="M1" s="122" t="s">
         <v>216</v>
       </c>
-      <c r="N1" s="188" t="s">
+      <c r="N1" s="193" t="s">
         <v>485</v>
       </c>
-      <c r="O1" s="186" t="s">
+      <c r="O1" s="191" t="s">
         <v>486</v>
       </c>
-      <c r="P1" s="195" t="s">
+      <c r="P1" s="185" t="s">
         <v>494</v>
       </c>
-      <c r="Q1" s="196"/>
-      <c r="R1" s="184" t="s">
+      <c r="Q1" s="186"/>
+      <c r="R1" s="198" t="s">
         <v>183</v>
       </c>
-      <c r="S1" s="185"/>
-      <c r="T1" s="201" t="s">
+      <c r="S1" s="199"/>
+      <c r="T1" s="222" t="s">
         <v>495</v>
       </c>
-      <c r="U1" s="201"/>
-      <c r="V1" s="199" t="s">
+      <c r="U1" s="223"/>
+      <c r="V1" s="222" t="s">
         <v>496</v>
       </c>
-      <c r="W1" s="199"/>
-      <c r="X1" s="199" t="s">
+      <c r="W1" s="223"/>
+      <c r="X1" s="220" t="s">
         <v>497</v>
       </c>
+      <c r="Y1" s="224"/>
     </row>
     <row r="2" spans="1:25" s="54" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A2" s="52" t="s">
@@ -3800,45 +3820,45 @@
       <c r="E2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="203" t="s">
+      <c r="F2" s="168" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="203" t="s">
+      <c r="H2" s="168" t="s">
         <v>0</v>
       </c>
       <c r="I2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="204" t="s">
+      <c r="J2" s="169" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="203" t="s">
+      <c r="K2" s="168" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="205" t="s">
+      <c r="L2" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="204" t="s">
+      <c r="M2" s="169" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="189"/>
-      <c r="O2" s="187"/>
-      <c r="P2" s="197"/>
-      <c r="Q2" s="198"/>
-      <c r="R2" s="193"/>
-      <c r="S2" s="194"/>
-      <c r="T2" s="203" t="s">
+      <c r="N2" s="194"/>
+      <c r="O2" s="192"/>
+      <c r="P2" s="187"/>
+      <c r="Q2" s="188"/>
+      <c r="R2" s="200"/>
+      <c r="S2" s="201"/>
+      <c r="T2" s="168" t="s">
         <v>0</v>
       </c>
       <c r="U2" s="55" t="s">
         <v>1</v>
       </c>
       <c r="V2" s="200"/>
-      <c r="W2" s="200"/>
-      <c r="X2" s="200"/>
+      <c r="W2" s="201"/>
+      <c r="X2" s="221"/>
       <c r="Y2" s="56"/>
     </row>
     <row r="3" spans="1:25" s="44" customFormat="1" ht="16" thickTop="1">
@@ -3867,16 +3887,18 @@
       <c r="M3" s="120"/>
       <c r="N3" s="165"/>
       <c r="O3" s="165"/>
-      <c r="P3" s="214"/>
+      <c r="P3" s="177"/>
       <c r="Q3" s="83"/>
-      <c r="R3" s="218" t="s">
+      <c r="R3" s="181" t="s">
         <v>531</v>
       </c>
       <c r="S3" s="49"/>
       <c r="T3" s="10"/>
-      <c r="U3" s="5"/>
-      <c r="V3"/>
-      <c r="W3" s="45"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="218" t="s">
+        <v>531</v>
+      </c>
+      <c r="W3" s="219"/>
       <c r="Y3" s="45"/>
     </row>
     <row r="4" spans="1:25" s="44" customFormat="1">
@@ -3905,14 +3927,14 @@
       <c r="M4" s="120"/>
       <c r="N4" s="165"/>
       <c r="O4" s="165"/>
-      <c r="P4" s="214"/>
+      <c r="P4" s="177"/>
       <c r="Q4" s="83"/>
       <c r="R4" s="84"/>
       <c r="S4" s="83"/>
       <c r="T4" s="10"/>
-      <c r="U4" s="5"/>
-      <c r="V4"/>
-      <c r="W4" s="45"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="83"/>
       <c r="Y4" s="45"/>
     </row>
     <row r="5" spans="1:25" s="8" customFormat="1">
@@ -3964,13 +3986,13 @@
       <c r="T5" s="63" t="s">
         <v>414</v>
       </c>
-      <c r="U5" s="33" t="s">
+      <c r="U5" s="34" t="s">
         <v>217</v>
       </c>
       <c r="V5" s="63" t="s">
         <v>414</v>
       </c>
-      <c r="W5" s="9"/>
+      <c r="W5" s="4"/>
       <c r="Y5" s="9"/>
     </row>
     <row r="6" spans="1:25" s="8" customFormat="1">
@@ -4034,13 +4056,13 @@
       <c r="T6" s="63" t="s">
         <v>498</v>
       </c>
-      <c r="U6" s="33" t="s">
+      <c r="U6" s="34" t="s">
         <v>36</v>
       </c>
       <c r="V6" s="33" t="s">
         <v>498</v>
       </c>
-      <c r="W6" s="9"/>
+      <c r="W6" s="4"/>
       <c r="Y6" s="9"/>
     </row>
     <row r="7" spans="1:25" s="8" customFormat="1">
@@ -4100,13 +4122,13 @@
       <c r="T7" s="63" t="s">
         <v>499</v>
       </c>
-      <c r="U7" s="33" t="s">
+      <c r="U7" s="34" t="s">
         <v>41</v>
       </c>
       <c r="V7" s="33" t="s">
         <v>499</v>
       </c>
-      <c r="W7" s="9"/>
+      <c r="W7" s="4"/>
       <c r="Y7" s="9"/>
     </row>
     <row r="8" spans="1:25" s="8" customFormat="1">
@@ -4158,9 +4180,9 @@
       <c r="R8" s="5"/>
       <c r="S8" s="4"/>
       <c r="T8" s="10"/>
-      <c r="U8" s="5"/>
-      <c r="V8"/>
-      <c r="W8" s="9"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="4"/>
       <c r="Y8" s="9"/>
     </row>
     <row r="9" spans="1:25">
@@ -4190,7 +4212,9 @@
       <c r="R9" s="5"/>
       <c r="S9" s="4"/>
       <c r="T9" s="10"/>
-      <c r="U9" s="5"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="4"/>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="34"/>
@@ -4221,7 +4245,9 @@
       <c r="R10" s="5"/>
       <c r="S10" s="4"/>
       <c r="T10" s="10"/>
-      <c r="U10" s="5"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="4"/>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="34"/>
@@ -4250,7 +4276,9 @@
       <c r="R11" s="5"/>
       <c r="S11" s="4"/>
       <c r="T11" s="10"/>
-      <c r="U11" s="5"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="4"/>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="34"/>
@@ -4281,7 +4309,9 @@
       <c r="R12" s="5"/>
       <c r="S12" s="4"/>
       <c r="T12" s="10"/>
-      <c r="U12" s="5"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="4"/>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="30" t="s">
@@ -4326,7 +4356,9 @@
       <c r="R13" s="5"/>
       <c r="S13" s="4"/>
       <c r="T13" s="10"/>
-      <c r="U13" s="5"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="4"/>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" s="30" t="s">
@@ -4369,11 +4401,13 @@
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="5"/>
-      <c r="Q14" s="217"/>
+      <c r="Q14" s="180"/>
       <c r="R14" s="5"/>
       <c r="S14" s="4"/>
       <c r="T14" s="10"/>
-      <c r="U14" s="5"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="4"/>
     </row>
     <row r="15" spans="1:25" s="8" customFormat="1">
       <c r="A15" s="30" t="s">
@@ -4424,9 +4458,9 @@
       <c r="R15" s="5"/>
       <c r="S15" s="4"/>
       <c r="T15" s="10"/>
-      <c r="U15" s="5"/>
-      <c r="V15"/>
-      <c r="W15" s="9"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="4"/>
       <c r="Y15" s="9"/>
     </row>
     <row r="16" spans="1:25">
@@ -4460,7 +4494,9 @@
       <c r="R16" s="5"/>
       <c r="S16" s="4"/>
       <c r="T16" s="10"/>
-      <c r="U16" s="5"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="4"/>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="34"/>
@@ -4491,7 +4527,9 @@
       <c r="R17" s="5"/>
       <c r="S17" s="4"/>
       <c r="T17" s="10"/>
-      <c r="U17" s="5"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="4"/>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="34"/>
@@ -4516,7 +4554,9 @@
       <c r="R18" s="5"/>
       <c r="S18" s="4"/>
       <c r="T18" s="10"/>
-      <c r="U18" s="5"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="4"/>
     </row>
     <row r="19" spans="1:25" s="8" customFormat="1">
       <c r="A19" s="30" t="s">
@@ -4569,9 +4609,9 @@
       <c r="R19" s="5"/>
       <c r="S19" s="4"/>
       <c r="T19" s="10"/>
-      <c r="U19" s="5"/>
-      <c r="V19"/>
-      <c r="W19" s="9"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="4"/>
       <c r="Y19" s="9"/>
     </row>
     <row r="20" spans="1:25" s="8" customFormat="1">
@@ -4625,9 +4665,9 @@
       <c r="R20" s="5"/>
       <c r="S20" s="4"/>
       <c r="T20" s="10"/>
-      <c r="U20" s="5"/>
-      <c r="V20"/>
-      <c r="W20" s="9"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="4"/>
       <c r="Y20" s="9"/>
     </row>
     <row r="21" spans="1:25" s="8" customFormat="1">
@@ -4681,9 +4721,9 @@
       <c r="R21" s="5"/>
       <c r="S21" s="4"/>
       <c r="T21" s="10"/>
-      <c r="U21" s="5"/>
-      <c r="V21"/>
-      <c r="W21" s="9"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="4"/>
       <c r="Y21" s="9"/>
     </row>
     <row r="22" spans="1:25">
@@ -4711,7 +4751,9 @@
       <c r="R22" s="5"/>
       <c r="S22" s="4"/>
       <c r="T22" s="10"/>
-      <c r="U22" s="5"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="4"/>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" s="34"/>
@@ -4736,7 +4778,9 @@
       <c r="R23" s="5"/>
       <c r="S23" s="4"/>
       <c r="T23" s="10"/>
-      <c r="U23" s="5"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="4"/>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" s="34"/>
@@ -4761,7 +4805,9 @@
       <c r="R24" s="5"/>
       <c r="S24" s="4"/>
       <c r="T24" s="10"/>
-      <c r="U24" s="5"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="4"/>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" s="34"/>
@@ -4786,7 +4832,9 @@
       <c r="R25" s="5"/>
       <c r="S25" s="4"/>
       <c r="T25" s="10"/>
-      <c r="U25" s="5"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="4"/>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" s="34"/>
@@ -4811,7 +4859,9 @@
       <c r="R26" s="5"/>
       <c r="S26" s="4"/>
       <c r="T26" s="10"/>
-      <c r="U26" s="5"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="4"/>
     </row>
     <row r="27" spans="1:25" s="8" customFormat="1">
       <c r="A27" s="30" t="s">
@@ -4862,9 +4912,9 @@
       <c r="R27" s="5"/>
       <c r="S27" s="4"/>
       <c r="T27" s="10"/>
-      <c r="U27" s="5"/>
-      <c r="V27"/>
-      <c r="W27" s="9"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="4"/>
       <c r="Y27" s="9"/>
     </row>
     <row r="28" spans="1:25" s="8" customFormat="1">
@@ -4918,9 +4968,9 @@
       <c r="R28" s="10"/>
       <c r="S28" s="4"/>
       <c r="T28" s="10"/>
-      <c r="U28" s="5"/>
-      <c r="V28"/>
-      <c r="W28" s="9"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="4"/>
       <c r="Y28" s="9"/>
     </row>
     <row r="29" spans="1:25" s="8" customFormat="1">
@@ -4972,9 +5022,9 @@
       <c r="R29" s="5"/>
       <c r="S29" s="4"/>
       <c r="T29" s="10"/>
-      <c r="U29" s="5"/>
-      <c r="V29"/>
-      <c r="W29" s="9"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="4"/>
       <c r="Y29" s="9"/>
     </row>
     <row r="30" spans="1:25" s="8" customFormat="1">
@@ -5028,9 +5078,9 @@
       <c r="R30" s="5"/>
       <c r="S30" s="4"/>
       <c r="T30" s="10"/>
-      <c r="U30" s="5"/>
-      <c r="V30"/>
-      <c r="W30" s="9"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="4"/>
       <c r="Y30" s="9"/>
     </row>
     <row r="31" spans="1:25">
@@ -5058,7 +5108,9 @@
       <c r="R31" s="5"/>
       <c r="S31" s="4"/>
       <c r="T31" s="10"/>
-      <c r="U31" s="5"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="4"/>
     </row>
     <row r="32" spans="1:25">
       <c r="A32" s="34"/>
@@ -5083,7 +5135,9 @@
       <c r="R32" s="5"/>
       <c r="S32" s="4"/>
       <c r="T32" s="10"/>
-      <c r="U32" s="5"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="4"/>
     </row>
     <row r="33" spans="1:25" s="6" customFormat="1">
       <c r="A33" s="34"/>
@@ -5108,9 +5162,9 @@
       <c r="R33" s="10"/>
       <c r="S33" s="4"/>
       <c r="T33" s="10"/>
-      <c r="U33" s="5"/>
-      <c r="V33"/>
-      <c r="W33" s="1"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="4"/>
       <c r="Y33" s="1"/>
     </row>
     <row r="34" spans="1:25" s="8" customFormat="1">
@@ -5152,9 +5206,9 @@
       <c r="R34" s="5"/>
       <c r="S34" s="4"/>
       <c r="T34" s="10"/>
-      <c r="U34" s="5"/>
-      <c r="V34"/>
-      <c r="W34" s="9"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="4"/>
       <c r="Y34" s="9"/>
     </row>
     <row r="35" spans="1:25" s="8" customFormat="1">
@@ -5188,9 +5242,9 @@
       <c r="R35" s="5"/>
       <c r="S35" s="4"/>
       <c r="T35" s="10"/>
-      <c r="U35" s="5"/>
-      <c r="V35"/>
-      <c r="W35" s="9"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="4"/>
       <c r="Y35" s="9"/>
     </row>
     <row r="36" spans="1:25" s="8" customFormat="1">
@@ -5220,9 +5274,9 @@
       <c r="R36" s="5"/>
       <c r="S36" s="4"/>
       <c r="T36" s="10"/>
-      <c r="U36" s="5"/>
-      <c r="V36"/>
-      <c r="W36" s="9"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="4"/>
       <c r="Y36" s="9"/>
     </row>
     <row r="37" spans="1:25" s="8" customFormat="1">
@@ -5248,9 +5302,9 @@
       <c r="R37" s="5"/>
       <c r="S37" s="4"/>
       <c r="T37" s="10"/>
-      <c r="U37" s="5"/>
-      <c r="V37"/>
-      <c r="W37" s="9"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="4"/>
       <c r="Y37" s="9"/>
     </row>
     <row r="38" spans="1:25" s="8" customFormat="1">
@@ -5276,9 +5330,9 @@
       <c r="R38" s="5"/>
       <c r="S38" s="4"/>
       <c r="T38" s="10"/>
-      <c r="U38" s="5"/>
-      <c r="V38"/>
-      <c r="W38" s="9"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="4"/>
       <c r="Y38" s="9"/>
     </row>
     <row r="39" spans="1:25" s="8" customFormat="1">
@@ -5312,9 +5366,9 @@
       <c r="R39" s="5"/>
       <c r="S39" s="4"/>
       <c r="T39" s="10"/>
-      <c r="U39" s="5"/>
-      <c r="V39"/>
-      <c r="W39" s="9"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="4"/>
       <c r="Y39" s="9"/>
     </row>
     <row r="40" spans="1:25" s="8" customFormat="1">
@@ -5342,9 +5396,9 @@
       <c r="R40" s="5"/>
       <c r="S40" s="4"/>
       <c r="T40" s="10"/>
-      <c r="U40" s="5"/>
-      <c r="V40"/>
-      <c r="W40" s="9"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="4"/>
       <c r="Y40" s="9"/>
     </row>
     <row r="41" spans="1:25" s="8" customFormat="1">
@@ -5370,9 +5424,9 @@
       <c r="R41" s="5"/>
       <c r="S41" s="4"/>
       <c r="T41" s="10"/>
-      <c r="U41" s="5"/>
-      <c r="V41"/>
-      <c r="W41" s="9"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="4"/>
       <c r="Y41" s="9"/>
     </row>
     <row r="42" spans="1:25" s="8" customFormat="1">
@@ -5398,9 +5452,9 @@
       <c r="R42" s="5"/>
       <c r="S42" s="4"/>
       <c r="T42" s="10"/>
-      <c r="U42" s="5"/>
-      <c r="V42"/>
-      <c r="W42" s="9"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="5"/>
+      <c r="W42" s="4"/>
       <c r="Y42" s="9"/>
     </row>
     <row r="43" spans="1:25" s="8" customFormat="1">
@@ -5434,9 +5488,9 @@
       <c r="R43" s="5"/>
       <c r="S43" s="4"/>
       <c r="T43" s="10"/>
-      <c r="U43" s="5"/>
-      <c r="V43"/>
-      <c r="W43" s="9"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="5"/>
+      <c r="W43" s="4"/>
       <c r="Y43" s="9"/>
     </row>
     <row r="44" spans="1:25" s="8" customFormat="1">
@@ -5464,9 +5518,9 @@
       <c r="R44" s="5"/>
       <c r="S44" s="4"/>
       <c r="T44" s="10"/>
-      <c r="U44" s="5"/>
-      <c r="V44"/>
-      <c r="W44" s="9"/>
+      <c r="U44" s="4"/>
+      <c r="V44" s="5"/>
+      <c r="W44" s="4"/>
       <c r="Y44" s="9"/>
     </row>
     <row r="45" spans="1:25" s="8" customFormat="1">
@@ -5492,9 +5546,9 @@
       <c r="R45" s="5"/>
       <c r="S45" s="4"/>
       <c r="T45" s="10"/>
-      <c r="U45" s="5"/>
-      <c r="V45"/>
-      <c r="W45" s="9"/>
+      <c r="U45" s="4"/>
+      <c r="V45" s="5"/>
+      <c r="W45" s="4"/>
       <c r="Y45" s="9"/>
     </row>
     <row r="46" spans="1:25" s="8" customFormat="1">
@@ -5520,9 +5574,9 @@
       <c r="R46" s="5"/>
       <c r="S46" s="4"/>
       <c r="T46" s="10"/>
-      <c r="U46" s="5"/>
-      <c r="V46"/>
-      <c r="W46" s="9"/>
+      <c r="U46" s="4"/>
+      <c r="V46" s="5"/>
+      <c r="W46" s="4"/>
       <c r="Y46" s="9"/>
     </row>
     <row r="47" spans="1:25" s="8" customFormat="1">
@@ -5556,9 +5610,9 @@
       <c r="R47" s="5"/>
       <c r="S47" s="4"/>
       <c r="T47" s="10"/>
-      <c r="U47" s="5"/>
-      <c r="V47"/>
-      <c r="W47" s="9"/>
+      <c r="U47" s="4"/>
+      <c r="V47" s="5"/>
+      <c r="W47" s="4"/>
       <c r="Y47" s="9"/>
     </row>
     <row r="48" spans="1:25" s="8" customFormat="1">
@@ -5592,9 +5646,9 @@
       <c r="R48" s="5"/>
       <c r="S48" s="4"/>
       <c r="T48" s="10"/>
-      <c r="U48" s="5"/>
-      <c r="V48"/>
-      <c r="W48" s="9"/>
+      <c r="U48" s="4"/>
+      <c r="V48" s="5"/>
+      <c r="W48" s="4"/>
       <c r="Y48" s="9"/>
     </row>
     <row r="49" spans="1:25" s="8" customFormat="1">
@@ -5628,9 +5682,9 @@
       <c r="R49" s="5"/>
       <c r="S49" s="4"/>
       <c r="T49" s="10"/>
-      <c r="U49" s="5"/>
-      <c r="V49"/>
-      <c r="W49" s="9"/>
+      <c r="U49" s="4"/>
+      <c r="V49" s="5"/>
+      <c r="W49" s="4"/>
       <c r="Y49" s="9"/>
     </row>
     <row r="50" spans="1:25" s="8" customFormat="1">
@@ -5666,9 +5720,9 @@
       <c r="R50" s="5"/>
       <c r="S50" s="4"/>
       <c r="T50" s="10"/>
-      <c r="U50" s="5"/>
-      <c r="V50"/>
-      <c r="W50" s="9"/>
+      <c r="U50" s="4"/>
+      <c r="V50" s="5"/>
+      <c r="W50" s="4"/>
       <c r="Y50" s="9"/>
     </row>
     <row r="51" spans="1:25" s="16" customFormat="1" ht="16" thickBot="1">
@@ -5697,10 +5751,10 @@
       <c r="Q51" s="18"/>
       <c r="R51" s="17"/>
       <c r="S51" s="18"/>
-      <c r="T51" s="208"/>
-      <c r="U51" s="17"/>
-      <c r="V51" s="24"/>
-      <c r="W51" s="15"/>
+      <c r="T51" s="173"/>
+      <c r="U51" s="18"/>
+      <c r="V51" s="17"/>
+      <c r="W51" s="18"/>
       <c r="Y51" s="15"/>
     </row>
     <row r="52" spans="1:25" s="154" customFormat="1" ht="16" thickBot="1">
@@ -5725,7 +5779,8 @@
       <c r="O52" s="156"/>
       <c r="Q52" s="156"/>
       <c r="S52" s="156"/>
-      <c r="T52" s="209"/>
+      <c r="T52" s="174"/>
+      <c r="U52" s="156"/>
       <c r="W52" s="156"/>
       <c r="Y52" s="156"/>
     </row>
@@ -5757,6 +5812,7 @@
       <c r="Q53" s="4"/>
       <c r="S53" s="4"/>
       <c r="T53" s="10"/>
+      <c r="U53" s="4"/>
       <c r="W53" s="4"/>
       <c r="Y53" s="4"/>
     </row>
@@ -5786,6 +5842,7 @@
       <c r="Q54" s="4"/>
       <c r="S54" s="4"/>
       <c r="T54" s="10"/>
+      <c r="U54" s="4"/>
       <c r="W54" s="4"/>
       <c r="Y54" s="4"/>
     </row>
@@ -5824,6 +5881,7 @@
       <c r="Q55" s="4"/>
       <c r="S55" s="4"/>
       <c r="T55" s="10"/>
+      <c r="U55" s="4"/>
       <c r="W55" s="4"/>
       <c r="Y55" s="4"/>
     </row>
@@ -5850,7 +5908,8 @@
       <c r="O56" s="18"/>
       <c r="Q56" s="18"/>
       <c r="S56" s="18"/>
-      <c r="T56" s="208"/>
+      <c r="T56" s="173"/>
+      <c r="U56" s="18"/>
       <c r="W56" s="18"/>
       <c r="Y56" s="18"/>
     </row>
@@ -5897,9 +5956,9 @@
       <c r="R57" s="5"/>
       <c r="S57" s="4"/>
       <c r="T57" s="10"/>
-      <c r="U57" s="5"/>
-      <c r="V57"/>
-      <c r="W57" s="9"/>
+      <c r="U57" s="4"/>
+      <c r="V57" s="5"/>
+      <c r="W57" s="4"/>
       <c r="Y57" s="9"/>
     </row>
     <row r="58" spans="1:25" s="16" customFormat="1" ht="16" thickBot="1">
@@ -5930,10 +5989,10 @@
       <c r="Q58" s="18"/>
       <c r="R58" s="17"/>
       <c r="S58" s="18"/>
-      <c r="T58" s="208"/>
-      <c r="U58" s="17"/>
-      <c r="V58" s="24"/>
-      <c r="W58" s="15"/>
+      <c r="T58" s="173"/>
+      <c r="U58" s="18"/>
+      <c r="V58" s="17"/>
+      <c r="W58" s="18"/>
       <c r="Y58" s="15"/>
     </row>
     <row r="59" spans="1:25" s="8" customFormat="1">
@@ -5967,9 +6026,9 @@
       <c r="R59" s="5"/>
       <c r="S59" s="4"/>
       <c r="T59" s="10"/>
-      <c r="U59" s="5"/>
-      <c r="V59"/>
-      <c r="W59" s="9"/>
+      <c r="U59" s="4"/>
+      <c r="V59" s="5"/>
+      <c r="W59" s="4"/>
       <c r="Y59" s="9"/>
     </row>
     <row r="60" spans="1:25" s="8" customFormat="1">
@@ -6003,9 +6062,9 @@
       <c r="R60" s="5"/>
       <c r="S60" s="4"/>
       <c r="T60" s="10"/>
-      <c r="U60" s="5"/>
-      <c r="V60"/>
-      <c r="W60" s="9"/>
+      <c r="U60" s="4"/>
+      <c r="V60" s="5"/>
+      <c r="W60" s="4"/>
       <c r="Y60" s="9"/>
     </row>
     <row r="61" spans="1:25" s="8" customFormat="1">
@@ -6053,9 +6112,9 @@
       <c r="R61" s="5"/>
       <c r="S61" s="4"/>
       <c r="T61" s="10"/>
-      <c r="U61" s="5"/>
-      <c r="V61"/>
-      <c r="W61" s="9"/>
+      <c r="U61" s="4"/>
+      <c r="V61" s="5"/>
+      <c r="W61" s="4"/>
       <c r="Y61" s="9"/>
     </row>
     <row r="62" spans="1:25" s="8" customFormat="1">
@@ -6085,9 +6144,9 @@
       <c r="R62" s="5"/>
       <c r="S62" s="4"/>
       <c r="T62" s="10"/>
-      <c r="U62" s="5"/>
-      <c r="V62"/>
-      <c r="W62" s="9"/>
+      <c r="U62" s="4"/>
+      <c r="V62" s="5"/>
+      <c r="W62" s="4"/>
       <c r="Y62" s="9"/>
     </row>
     <row r="63" spans="1:25" s="8" customFormat="1">
@@ -6121,9 +6180,9 @@
       <c r="R63" s="5"/>
       <c r="S63" s="4"/>
       <c r="T63" s="10"/>
-      <c r="U63" s="5"/>
-      <c r="V63"/>
-      <c r="W63" s="9"/>
+      <c r="U63" s="4"/>
+      <c r="V63" s="5"/>
+      <c r="W63" s="4"/>
       <c r="Y63" s="9"/>
     </row>
     <row r="64" spans="1:25" s="16" customFormat="1" ht="16" thickBot="1">
@@ -6156,10 +6215,10 @@
       <c r="Q64" s="18"/>
       <c r="R64" s="17"/>
       <c r="S64" s="18"/>
-      <c r="T64" s="208"/>
-      <c r="U64" s="17"/>
-      <c r="V64" s="24"/>
-      <c r="W64" s="15"/>
+      <c r="T64" s="173"/>
+      <c r="U64" s="18"/>
+      <c r="V64" s="17"/>
+      <c r="W64" s="18"/>
       <c r="Y64" s="15"/>
     </row>
     <row r="65" spans="1:36">
@@ -6207,7 +6266,9 @@
       </c>
       <c r="S65" s="4"/>
       <c r="T65" s="10"/>
-      <c r="U65" s="5"/>
+      <c r="U65" s="4"/>
+      <c r="V65" s="5"/>
+      <c r="W65" s="4"/>
     </row>
     <row r="66" spans="1:36">
       <c r="A66" s="43" t="s">
@@ -6231,7 +6292,7 @@
       <c r="M66" s="120"/>
       <c r="N66" s="4"/>
       <c r="O66" s="129"/>
-      <c r="P66" s="216" t="s">
+      <c r="P66" s="179" t="s">
         <v>239</v>
       </c>
       <c r="Q66" s="78" t="s">
@@ -6240,8 +6301,9 @@
       <c r="R66" s="5"/>
       <c r="S66" s="4"/>
       <c r="T66" s="10"/>
-      <c r="U66" s="5"/>
-      <c r="W66" s="6"/>
+      <c r="U66" s="4"/>
+      <c r="V66" s="5"/>
+      <c r="W66" s="4"/>
       <c r="Y66" s="6"/>
     </row>
     <row r="67" spans="1:36">
@@ -6281,8 +6343,9 @@
       </c>
       <c r="S67" s="4"/>
       <c r="T67" s="10"/>
-      <c r="U67" s="5"/>
-      <c r="W67" s="6"/>
+      <c r="U67" s="4"/>
+      <c r="V67" s="5"/>
+      <c r="W67" s="4"/>
       <c r="Y67" s="6"/>
     </row>
     <row r="68" spans="1:36" s="24" customFormat="1" ht="16" thickBot="1">
@@ -6321,8 +6384,10 @@
         <v>529</v>
       </c>
       <c r="S68" s="18"/>
-      <c r="T68" s="208"/>
-      <c r="U68" s="17"/>
+      <c r="T68" s="173"/>
+      <c r="U68" s="18"/>
+      <c r="V68" s="17"/>
+      <c r="W68" s="18"/>
     </row>
     <row r="69" spans="1:36">
       <c r="A69" s="40" t="s">
@@ -6363,8 +6428,9 @@
       <c r="R69" s="10"/>
       <c r="S69" s="4"/>
       <c r="T69" s="10"/>
-      <c r="U69" s="5"/>
-      <c r="W69" s="6"/>
+      <c r="U69" s="4"/>
+      <c r="V69" s="5"/>
+      <c r="W69" s="4"/>
       <c r="X69" s="6"/>
       <c r="Y69" s="6"/>
       <c r="Z69" s="6"/>
@@ -6406,8 +6472,9 @@
       <c r="R70" s="10"/>
       <c r="S70" s="4"/>
       <c r="T70" s="10"/>
-      <c r="U70" s="5"/>
-      <c r="W70" s="6"/>
+      <c r="U70" s="4"/>
+      <c r="V70" s="5"/>
+      <c r="W70" s="4"/>
       <c r="X70" s="6"/>
       <c r="Y70" s="6"/>
       <c r="Z70" s="6"/>
@@ -6453,8 +6520,9 @@
       <c r="R71" s="10"/>
       <c r="S71" s="4"/>
       <c r="T71" s="10"/>
-      <c r="U71" s="5"/>
-      <c r="W71" s="6"/>
+      <c r="U71" s="4"/>
+      <c r="V71" s="5"/>
+      <c r="W71" s="4"/>
       <c r="X71" s="6"/>
       <c r="Y71" s="6"/>
       <c r="Z71" s="6"/>
@@ -6499,17 +6567,19 @@
       <c r="Q72" s="18"/>
       <c r="R72" s="17"/>
       <c r="S72" s="18"/>
-      <c r="T72" s="208"/>
-      <c r="U72" s="17"/>
+      <c r="T72" s="173"/>
+      <c r="U72" s="18"/>
+      <c r="V72" s="17"/>
+      <c r="W72" s="18"/>
     </row>
     <row r="73" spans="1:36">
       <c r="A73" s="107" t="s">
         <v>229</v>
       </c>
-      <c r="B73" s="191" t="s">
+      <c r="B73" s="183" t="s">
         <v>241</v>
       </c>
-      <c r="C73" s="192"/>
+      <c r="C73" s="184"/>
       <c r="D73" s="33" t="s">
         <v>101</v>
       </c>
@@ -6541,8 +6611,9 @@
       <c r="R73" s="10"/>
       <c r="S73" s="4"/>
       <c r="T73" s="10"/>
-      <c r="U73" s="5"/>
-      <c r="W73" s="6"/>
+      <c r="U73" s="4"/>
+      <c r="V73" s="5"/>
+      <c r="W73" s="4"/>
       <c r="X73" s="6"/>
       <c r="Y73" s="6"/>
       <c r="Z73" s="6"/>
@@ -6588,7 +6659,9 @@
       <c r="R74" s="5"/>
       <c r="S74" s="4"/>
       <c r="T74" s="10"/>
-      <c r="U74" s="5"/>
+      <c r="U74" s="4"/>
+      <c r="V74" s="5"/>
+      <c r="W74" s="4"/>
     </row>
     <row r="75" spans="1:36">
       <c r="A75" s="40"/>
@@ -6625,7 +6698,9 @@
       <c r="R75" s="5"/>
       <c r="S75" s="4"/>
       <c r="T75" s="10"/>
-      <c r="U75" s="5"/>
+      <c r="U75" s="4"/>
+      <c r="V75" s="5"/>
+      <c r="W75" s="4"/>
     </row>
     <row r="76" spans="1:36" s="24" customFormat="1" ht="16" thickBot="1">
       <c r="A76" s="66"/>
@@ -6659,19 +6734,20 @@
       <c r="Q76" s="18"/>
       <c r="R76" s="17"/>
       <c r="S76" s="18"/>
-      <c r="T76" s="208"/>
-      <c r="U76" s="17"/>
-      <c r="W76" s="25"/>
+      <c r="T76" s="173"/>
+      <c r="U76" s="18"/>
+      <c r="V76" s="17"/>
+      <c r="W76" s="18"/>
       <c r="Y76" s="25"/>
     </row>
     <row r="77" spans="1:36">
       <c r="A77" s="107" t="s">
         <v>230</v>
       </c>
-      <c r="B77" s="191" t="s">
+      <c r="B77" s="183" t="s">
         <v>241</v>
       </c>
-      <c r="C77" s="192"/>
+      <c r="C77" s="184"/>
       <c r="D77" s="65" t="s">
         <v>101</v>
       </c>
@@ -6703,7 +6779,9 @@
       <c r="R77" s="5"/>
       <c r="S77" s="4"/>
       <c r="T77" s="10"/>
-      <c r="U77" s="5"/>
+      <c r="U77" s="4"/>
+      <c r="V77" s="5"/>
+      <c r="W77" s="4"/>
     </row>
     <row r="78" spans="1:36">
       <c r="A78" s="43" t="s">
@@ -6736,7 +6814,9 @@
       <c r="R78" s="5"/>
       <c r="S78" s="4"/>
       <c r="T78" s="10"/>
-      <c r="U78" s="5"/>
+      <c r="U78" s="4"/>
+      <c r="V78" s="5"/>
+      <c r="W78" s="4"/>
     </row>
     <row r="79" spans="1:36">
       <c r="A79" s="40"/>
@@ -6773,7 +6853,9 @@
       <c r="R79" s="5"/>
       <c r="S79" s="4"/>
       <c r="T79" s="10"/>
-      <c r="U79" s="5"/>
+      <c r="U79" s="4"/>
+      <c r="V79" s="5"/>
+      <c r="W79" s="4"/>
     </row>
     <row r="80" spans="1:36" s="24" customFormat="1" ht="16" thickBot="1">
       <c r="A80" s="66"/>
@@ -6807,19 +6889,20 @@
       <c r="Q80" s="18"/>
       <c r="R80" s="17"/>
       <c r="S80" s="18"/>
-      <c r="T80" s="208"/>
-      <c r="U80" s="17"/>
-      <c r="W80" s="25"/>
+      <c r="T80" s="173"/>
+      <c r="U80" s="18"/>
+      <c r="V80" s="17"/>
+      <c r="W80" s="18"/>
       <c r="Y80" s="25"/>
     </row>
     <row r="81" spans="1:25">
       <c r="A81" s="107" t="s">
         <v>231</v>
       </c>
-      <c r="B81" s="191" t="s">
+      <c r="B81" s="183" t="s">
         <v>242</v>
       </c>
-      <c r="C81" s="192"/>
+      <c r="C81" s="184"/>
       <c r="D81" s="65" t="s">
         <v>101</v>
       </c>
@@ -6851,7 +6934,9 @@
       <c r="R81" s="5"/>
       <c r="S81" s="4"/>
       <c r="T81" s="10"/>
-      <c r="U81" s="5"/>
+      <c r="U81" s="4"/>
+      <c r="V81" s="5"/>
+      <c r="W81" s="4"/>
     </row>
     <row r="82" spans="1:25">
       <c r="A82" s="43" t="s">
@@ -6884,7 +6969,9 @@
       <c r="R82" s="5"/>
       <c r="S82" s="4"/>
       <c r="T82" s="10"/>
-      <c r="U82" s="5"/>
+      <c r="U82" s="4"/>
+      <c r="V82" s="5"/>
+      <c r="W82" s="4"/>
     </row>
     <row r="83" spans="1:25">
       <c r="A83" s="40"/>
@@ -6921,7 +7008,9 @@
       <c r="R83" s="5"/>
       <c r="S83" s="4"/>
       <c r="T83" s="10"/>
-      <c r="U83" s="5"/>
+      <c r="U83" s="4"/>
+      <c r="V83" s="5"/>
+      <c r="W83" s="4"/>
     </row>
     <row r="84" spans="1:25" s="24" customFormat="1" ht="16" thickBot="1">
       <c r="A84" s="66"/>
@@ -6955,19 +7044,20 @@
       <c r="Q84" s="18"/>
       <c r="R84" s="17"/>
       <c r="S84" s="18"/>
-      <c r="T84" s="208"/>
-      <c r="U84" s="17"/>
-      <c r="W84" s="25"/>
+      <c r="T84" s="173"/>
+      <c r="U84" s="18"/>
+      <c r="V84" s="17"/>
+      <c r="W84" s="18"/>
       <c r="Y84" s="25"/>
     </row>
     <row r="85" spans="1:25">
       <c r="A85" s="107" t="s">
         <v>232</v>
       </c>
-      <c r="B85" s="191" t="s">
+      <c r="B85" s="183" t="s">
         <v>242</v>
       </c>
-      <c r="C85" s="192"/>
+      <c r="C85" s="184"/>
       <c r="D85" s="65" t="s">
         <v>101</v>
       </c>
@@ -6999,7 +7089,9 @@
       <c r="R85" s="5"/>
       <c r="S85" s="4"/>
       <c r="T85" s="10"/>
-      <c r="U85" s="5"/>
+      <c r="U85" s="4"/>
+      <c r="V85" s="5"/>
+      <c r="W85" s="4"/>
     </row>
     <row r="86" spans="1:25">
       <c r="A86" s="43" t="s">
@@ -7032,7 +7124,9 @@
       <c r="R86" s="5"/>
       <c r="S86" s="4"/>
       <c r="T86" s="10"/>
-      <c r="U86" s="5"/>
+      <c r="U86" s="4"/>
+      <c r="V86" s="5"/>
+      <c r="W86" s="4"/>
     </row>
     <row r="87" spans="1:25">
       <c r="A87" s="40"/>
@@ -7069,7 +7163,9 @@
       <c r="R87" s="5"/>
       <c r="S87" s="4"/>
       <c r="T87" s="10"/>
-      <c r="U87" s="5"/>
+      <c r="U87" s="4"/>
+      <c r="V87" s="5"/>
+      <c r="W87" s="4"/>
     </row>
     <row r="88" spans="1:25" s="24" customFormat="1" ht="16" thickBot="1">
       <c r="A88" s="66"/>
@@ -7103,9 +7199,10 @@
       <c r="Q88" s="18"/>
       <c r="R88" s="17"/>
       <c r="S88" s="18"/>
-      <c r="T88" s="208"/>
-      <c r="U88" s="17"/>
-      <c r="W88" s="25"/>
+      <c r="T88" s="173"/>
+      <c r="U88" s="18"/>
+      <c r="V88" s="17"/>
+      <c r="W88" s="18"/>
       <c r="Y88" s="25"/>
     </row>
     <row r="89" spans="1:25" s="8" customFormat="1">
@@ -7163,13 +7260,13 @@
       <c r="T89" s="31" t="s">
         <v>500</v>
       </c>
-      <c r="U89" s="31" t="s">
+      <c r="U89" s="34" t="s">
         <v>120</v>
       </c>
       <c r="V89" s="31" t="s">
         <v>500</v>
       </c>
-      <c r="W89" s="9"/>
+      <c r="W89" s="4"/>
       <c r="Y89" s="9"/>
     </row>
     <row r="90" spans="1:25" s="16" customFormat="1" ht="16" thickBot="1">
@@ -7224,16 +7321,16 @@
       </c>
       <c r="R90" s="17"/>
       <c r="S90" s="18"/>
-      <c r="T90" s="207" t="s">
+      <c r="T90" s="172" t="s">
         <v>501</v>
       </c>
-      <c r="U90" s="67" t="s">
+      <c r="U90" s="87" t="s">
         <v>121</v>
       </c>
-      <c r="V90" s="207" t="s">
+      <c r="V90" s="67" t="s">
         <v>501</v>
       </c>
-      <c r="W90" s="15"/>
+      <c r="W90" s="18"/>
       <c r="Y90" s="15"/>
     </row>
     <row r="91" spans="1:25" s="3" customFormat="1">
@@ -7267,9 +7364,9 @@
       <c r="R91" s="10"/>
       <c r="S91" s="4"/>
       <c r="T91" s="10"/>
-      <c r="U91" s="5"/>
-      <c r="V91"/>
-      <c r="W91" s="9"/>
+      <c r="U91" s="4"/>
+      <c r="V91" s="5"/>
+      <c r="W91" s="4"/>
       <c r="Y91" s="9"/>
     </row>
     <row r="92" spans="1:25" s="8" customFormat="1">
@@ -7323,9 +7420,9 @@
       <c r="R92" s="5"/>
       <c r="S92" s="4"/>
       <c r="T92" s="10"/>
-      <c r="U92" s="5"/>
-      <c r="V92"/>
-      <c r="W92" s="9"/>
+      <c r="U92" s="4"/>
+      <c r="V92" s="5"/>
+      <c r="W92" s="4"/>
       <c r="Y92" s="9"/>
     </row>
     <row r="93" spans="1:25" s="8" customFormat="1">
@@ -7377,9 +7474,9 @@
       <c r="R93" s="5"/>
       <c r="S93" s="4"/>
       <c r="T93" s="10"/>
-      <c r="U93" s="5"/>
-      <c r="V93"/>
-      <c r="W93" s="9"/>
+      <c r="U93" s="4"/>
+      <c r="V93" s="5"/>
+      <c r="W93" s="4"/>
       <c r="Y93" s="9"/>
     </row>
     <row r="94" spans="1:25" s="8" customFormat="1">
@@ -7439,11 +7536,13 @@
       <c r="T94" s="31" t="s">
         <v>502</v>
       </c>
-      <c r="U94" s="31" t="s">
+      <c r="U94" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="V94"/>
-      <c r="W94" s="9"/>
+      <c r="V94" s="31" t="s">
+        <v>502</v>
+      </c>
+      <c r="W94" s="4"/>
       <c r="Y94" s="9"/>
     </row>
     <row r="95" spans="1:25" s="8" customFormat="1">
@@ -7489,9 +7588,9 @@
       <c r="R95" s="5"/>
       <c r="S95" s="4"/>
       <c r="T95" s="10"/>
-      <c r="U95" s="5"/>
-      <c r="V95"/>
-      <c r="W95" s="9"/>
+      <c r="U95" s="4"/>
+      <c r="V95" s="5"/>
+      <c r="W95" s="4"/>
       <c r="Y95" s="9"/>
     </row>
     <row r="96" spans="1:25" s="24" customFormat="1" ht="16" thickBot="1">
@@ -7518,9 +7617,10 @@
       <c r="Q96" s="18"/>
       <c r="R96" s="17"/>
       <c r="S96" s="18"/>
-      <c r="T96" s="208"/>
-      <c r="U96" s="17"/>
-      <c r="W96" s="25"/>
+      <c r="T96" s="173"/>
+      <c r="U96" s="18"/>
+      <c r="V96" s="17"/>
+      <c r="W96" s="18"/>
       <c r="Y96" s="25"/>
     </row>
     <row r="97" spans="1:25" ht="15" customHeight="1">
@@ -7542,12 +7642,12 @@
       </c>
       <c r="I97" s="4"/>
       <c r="J97" s="141"/>
-      <c r="K97" s="171" t="s">
+      <c r="K97" s="206" t="s">
         <v>482</v>
       </c>
-      <c r="L97" s="172"/>
-      <c r="M97" s="173"/>
-      <c r="N97" s="168" t="s">
+      <c r="L97" s="207"/>
+      <c r="M97" s="208"/>
+      <c r="N97" s="203" t="s">
         <v>489</v>
       </c>
       <c r="O97" s="4"/>
@@ -7556,7 +7656,9 @@
       <c r="R97" s="5"/>
       <c r="S97" s="4"/>
       <c r="T97" s="10"/>
-      <c r="U97" s="5"/>
+      <c r="U97" s="4"/>
+      <c r="V97" s="5"/>
+      <c r="W97" s="4"/>
     </row>
     <row r="98" spans="1:25">
       <c r="A98" s="34"/>
@@ -7573,17 +7675,19 @@
       <c r="H98" s="5"/>
       <c r="I98" s="4"/>
       <c r="J98" s="141"/>
-      <c r="K98" s="174"/>
-      <c r="L98" s="175"/>
-      <c r="M98" s="176"/>
-      <c r="N98" s="169"/>
+      <c r="K98" s="209"/>
+      <c r="L98" s="210"/>
+      <c r="M98" s="211"/>
+      <c r="N98" s="204"/>
       <c r="O98" s="4"/>
       <c r="P98" s="5"/>
       <c r="Q98" s="4"/>
       <c r="R98" s="5"/>
       <c r="S98" s="4"/>
       <c r="T98" s="10"/>
-      <c r="U98" s="5"/>
+      <c r="U98" s="4"/>
+      <c r="V98" s="5"/>
+      <c r="W98" s="4"/>
     </row>
     <row r="99" spans="1:25">
       <c r="A99" s="34"/>
@@ -7602,17 +7706,19 @@
       </c>
       <c r="I99" s="4"/>
       <c r="J99" s="141"/>
-      <c r="K99" s="174"/>
-      <c r="L99" s="175"/>
-      <c r="M99" s="176"/>
-      <c r="N99" s="169"/>
+      <c r="K99" s="209"/>
+      <c r="L99" s="210"/>
+      <c r="M99" s="211"/>
+      <c r="N99" s="204"/>
       <c r="O99" s="4"/>
       <c r="P99" s="5"/>
       <c r="Q99" s="4"/>
       <c r="R99" s="5"/>
       <c r="S99" s="4"/>
       <c r="T99" s="10"/>
-      <c r="U99" s="5"/>
+      <c r="U99" s="4"/>
+      <c r="V99" s="5"/>
+      <c r="W99" s="4"/>
     </row>
     <row r="100" spans="1:25" s="24" customFormat="1" ht="16" thickBot="1">
       <c r="A100" s="87"/>
@@ -7631,18 +7737,19 @@
       <c r="J100" s="142" t="s">
         <v>386</v>
       </c>
-      <c r="K100" s="177"/>
-      <c r="L100" s="178"/>
-      <c r="M100" s="179"/>
-      <c r="N100" s="170"/>
+      <c r="K100" s="212"/>
+      <c r="L100" s="213"/>
+      <c r="M100" s="214"/>
+      <c r="N100" s="205"/>
       <c r="O100" s="18"/>
       <c r="P100" s="17"/>
       <c r="Q100" s="18"/>
       <c r="R100" s="17"/>
       <c r="S100" s="18"/>
-      <c r="T100" s="208"/>
-      <c r="U100" s="17"/>
-      <c r="W100" s="25"/>
+      <c r="T100" s="173"/>
+      <c r="U100" s="18"/>
+      <c r="V100" s="17"/>
+      <c r="W100" s="18"/>
       <c r="Y100" s="25"/>
     </row>
     <row r="101" spans="1:25" s="8" customFormat="1">
@@ -7686,9 +7793,9 @@
       <c r="R101" s="5"/>
       <c r="S101" s="4"/>
       <c r="T101" s="10"/>
-      <c r="U101" s="5"/>
-      <c r="V101"/>
-      <c r="W101" s="9"/>
+      <c r="U101" s="4"/>
+      <c r="V101" s="5"/>
+      <c r="W101" s="4"/>
       <c r="Y101" s="9"/>
     </row>
     <row r="102" spans="1:25">
@@ -7738,7 +7845,9 @@
       <c r="R102" s="5"/>
       <c r="S102" s="4"/>
       <c r="T102" s="10"/>
-      <c r="U102" s="5"/>
+      <c r="U102" s="4"/>
+      <c r="V102" s="5"/>
+      <c r="W102" s="4"/>
     </row>
     <row r="103" spans="1:25" s="24" customFormat="1" ht="16" thickBot="1">
       <c r="A103" s="86" t="s">
@@ -7790,13 +7899,16 @@
       </c>
       <c r="R103" s="17"/>
       <c r="S103" s="18"/>
-      <c r="T103" s="207" t="s">
+      <c r="T103" s="172" t="s">
         <v>504</v>
       </c>
-      <c r="U103" s="67" t="s">
+      <c r="U103" s="87" t="s">
         <v>503</v>
       </c>
-      <c r="W103" s="25"/>
+      <c r="V103" s="67" t="s">
+        <v>504</v>
+      </c>
+      <c r="W103" s="18"/>
       <c r="Y103" s="25"/>
     </row>
     <row r="104" spans="1:25">
@@ -7838,7 +7950,7 @@
       <c r="P104" s="63" t="s">
         <v>519</v>
       </c>
-      <c r="Q104" s="215" t="s">
+      <c r="Q104" s="178" t="s">
         <v>518</v>
       </c>
       <c r="R104" s="10"/>
@@ -7846,7 +7958,9 @@
       <c r="T104" s="31" t="s">
         <v>505</v>
       </c>
-      <c r="U104" s="5"/>
+      <c r="U104" s="4"/>
+      <c r="V104" s="5"/>
+      <c r="W104" s="4"/>
     </row>
     <row r="105" spans="1:25">
       <c r="A105" s="34"/>
@@ -7881,17 +7995,19 @@
       <c r="P105" s="63" t="s">
         <v>520</v>
       </c>
-      <c r="Q105" s="215" t="s">
+      <c r="Q105" s="178" t="s">
         <v>518</v>
       </c>
       <c r="R105" s="5"/>
       <c r="S105" s="4"/>
-      <c r="T105" s="210" t="s">
+      <c r="T105" s="175" t="s">
         <v>507</v>
       </c>
-      <c r="U105" s="211" t="s">
+      <c r="U105" s="215" t="s">
         <v>506</v>
       </c>
+      <c r="V105" s="5"/>
+      <c r="W105" s="4"/>
     </row>
     <row r="106" spans="1:25">
       <c r="A106" s="34"/>
@@ -7924,17 +8040,19 @@
       <c r="P106" s="63" t="s">
         <v>525</v>
       </c>
-      <c r="Q106" s="215" t="s">
+      <c r="Q106" s="178" t="s">
         <v>518</v>
       </c>
       <c r="R106" s="5"/>
       <c r="S106" s="4"/>
-      <c r="T106" s="212" t="s">
+      <c r="T106" s="176" t="s">
         <v>509</v>
       </c>
-      <c r="U106" s="213" t="s">
+      <c r="U106" s="216" t="s">
         <v>510</v>
       </c>
+      <c r="V106" s="5"/>
+      <c r="W106" s="4"/>
     </row>
     <row r="107" spans="1:25">
       <c r="A107" s="34"/>
@@ -7975,13 +8093,13 @@
       <c r="T107" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="U107" s="33" t="s">
+      <c r="U107" s="34" t="s">
         <v>211</v>
       </c>
       <c r="V107" s="63" t="s">
         <v>469</v>
       </c>
-      <c r="W107" s="219" t="s">
+      <c r="W107" s="182" t="s">
         <v>532</v>
       </c>
     </row>
@@ -8012,13 +8130,13 @@
       <c r="T108" s="31" t="s">
         <v>511</v>
       </c>
-      <c r="U108" s="33" t="s">
+      <c r="U108" s="34" t="s">
         <v>219</v>
       </c>
       <c r="V108" s="63" t="s">
         <v>470</v>
       </c>
-      <c r="W108" s="219"/>
+      <c r="W108" s="182"/>
     </row>
     <row r="109" spans="1:25">
       <c r="A109" s="34"/>
@@ -8047,13 +8165,13 @@
       <c r="T109" s="31" t="s">
         <v>512</v>
       </c>
-      <c r="U109" s="33" t="s">
+      <c r="U109" s="34" t="s">
         <v>220</v>
       </c>
       <c r="V109" s="63" t="s">
         <v>471</v>
       </c>
-      <c r="W109" s="219"/>
+      <c r="W109" s="182"/>
     </row>
     <row r="110" spans="1:25">
       <c r="A110" s="34"/>
@@ -8082,13 +8200,13 @@
       <c r="T110" s="31" t="s">
         <v>239</v>
       </c>
-      <c r="U110" s="33" t="s">
+      <c r="U110" s="34" t="s">
         <v>508</v>
       </c>
       <c r="V110" s="63" t="s">
         <v>473</v>
       </c>
-      <c r="W110" s="219"/>
+      <c r="W110" s="182"/>
     </row>
     <row r="111" spans="1:25" s="24" customFormat="1" ht="16" thickBot="1">
       <c r="A111" s="87"/>
@@ -8114,9 +8232,10 @@
       <c r="Q111" s="18"/>
       <c r="R111" s="17"/>
       <c r="S111" s="18"/>
-      <c r="T111" s="208"/>
-      <c r="U111" s="17"/>
-      <c r="W111" s="25"/>
+      <c r="T111" s="173"/>
+      <c r="U111" s="18"/>
+      <c r="V111" s="17"/>
+      <c r="W111" s="18"/>
       <c r="Y111" s="25"/>
     </row>
     <row r="112" spans="1:25">
@@ -8151,7 +8270,7 @@
       <c r="M112" s="62" t="s">
         <v>474</v>
       </c>
-      <c r="N112" s="168" t="s">
+      <c r="N112" s="203" t="s">
         <v>491</v>
       </c>
       <c r="O112" s="4"/>
@@ -8160,7 +8279,9 @@
       <c r="R112" s="5"/>
       <c r="S112" s="4"/>
       <c r="T112" s="10"/>
-      <c r="U112" s="5"/>
+      <c r="U112" s="4"/>
+      <c r="V112" s="5"/>
+      <c r="W112" s="4"/>
     </row>
     <row r="113" spans="1:25">
       <c r="A113" s="34"/>
@@ -8188,14 +8309,16 @@
       <c r="M113" s="62" t="s">
         <v>475</v>
       </c>
-      <c r="N113" s="169"/>
+      <c r="N113" s="204"/>
       <c r="O113" s="4"/>
       <c r="P113" s="5"/>
       <c r="Q113" s="4"/>
       <c r="R113" s="5"/>
       <c r="S113" s="4"/>
       <c r="T113" s="10"/>
-      <c r="U113" s="5"/>
+      <c r="U113" s="4"/>
+      <c r="V113" s="5"/>
+      <c r="W113" s="4"/>
     </row>
     <row r="114" spans="1:25">
       <c r="A114" s="34"/>
@@ -8223,14 +8346,16 @@
       <c r="M114" s="62" t="s">
         <v>476</v>
       </c>
-      <c r="N114" s="169"/>
+      <c r="N114" s="204"/>
       <c r="O114" s="4"/>
       <c r="P114" s="5"/>
       <c r="Q114" s="4"/>
       <c r="R114" s="5"/>
       <c r="S114" s="4"/>
       <c r="T114" s="10"/>
-      <c r="U114" s="5"/>
+      <c r="U114" s="4"/>
+      <c r="V114" s="5"/>
+      <c r="W114" s="4"/>
     </row>
     <row r="115" spans="1:25">
       <c r="A115" s="34"/>
@@ -8262,14 +8387,16 @@
       <c r="M115" s="62" t="s">
         <v>477</v>
       </c>
-      <c r="N115" s="169"/>
+      <c r="N115" s="204"/>
       <c r="O115" s="4"/>
       <c r="P115" s="5"/>
       <c r="Q115" s="4"/>
       <c r="R115" s="5"/>
       <c r="S115" s="4"/>
       <c r="T115" s="10"/>
-      <c r="U115" s="5"/>
+      <c r="U115" s="4"/>
+      <c r="V115" s="5"/>
+      <c r="W115" s="4"/>
     </row>
     <row r="116" spans="1:25" s="24" customFormat="1" ht="16" thickBot="1">
       <c r="A116" s="87"/>
@@ -8289,15 +8416,16 @@
       <c r="K116" s="152"/>
       <c r="L116" s="121"/>
       <c r="M116" s="121"/>
-      <c r="N116" s="170"/>
+      <c r="N116" s="205"/>
       <c r="O116" s="18"/>
       <c r="P116" s="17"/>
       <c r="Q116" s="18"/>
       <c r="R116" s="17"/>
       <c r="S116" s="18"/>
-      <c r="T116" s="208"/>
-      <c r="U116" s="17"/>
-      <c r="W116" s="25"/>
+      <c r="T116" s="173"/>
+      <c r="U116" s="18"/>
+      <c r="V116" s="17"/>
+      <c r="W116" s="18"/>
       <c r="Y116" s="25"/>
     </row>
     <row r="117" spans="1:25">
@@ -8332,7 +8460,7 @@
       <c r="M117" s="62" t="s">
         <v>478</v>
       </c>
-      <c r="N117" s="168" t="s">
+      <c r="N117" s="203" t="s">
         <v>492</v>
       </c>
       <c r="O117" s="4"/>
@@ -8341,7 +8469,9 @@
       <c r="R117" s="5"/>
       <c r="S117" s="4"/>
       <c r="T117" s="10"/>
-      <c r="U117" s="5"/>
+      <c r="U117" s="4"/>
+      <c r="V117" s="5"/>
+      <c r="W117" s="4"/>
     </row>
     <row r="118" spans="1:25">
       <c r="A118" s="34"/>
@@ -8369,14 +8499,16 @@
       <c r="M118" s="62" t="s">
         <v>479</v>
       </c>
-      <c r="N118" s="169"/>
+      <c r="N118" s="204"/>
       <c r="O118" s="4"/>
       <c r="P118" s="5"/>
       <c r="Q118" s="4"/>
       <c r="R118" s="5"/>
       <c r="S118" s="4"/>
       <c r="T118" s="10"/>
-      <c r="U118" s="5"/>
+      <c r="U118" s="4"/>
+      <c r="V118" s="5"/>
+      <c r="W118" s="4"/>
     </row>
     <row r="119" spans="1:25">
       <c r="A119" s="34"/>
@@ -8404,14 +8536,16 @@
       <c r="M119" s="62" t="s">
         <v>480</v>
       </c>
-      <c r="N119" s="169"/>
+      <c r="N119" s="204"/>
       <c r="O119" s="4"/>
       <c r="P119" s="5"/>
       <c r="Q119" s="4"/>
       <c r="R119" s="5"/>
       <c r="S119" s="4"/>
       <c r="T119" s="10"/>
-      <c r="U119" s="5"/>
+      <c r="U119" s="4"/>
+      <c r="V119" s="5"/>
+      <c r="W119" s="4"/>
     </row>
     <row r="120" spans="1:25" s="24" customFormat="1" ht="16" thickBot="1">
       <c r="A120" s="87"/>
@@ -8443,15 +8577,16 @@
       <c r="M120" s="101" t="s">
         <v>481</v>
       </c>
-      <c r="N120" s="170"/>
+      <c r="N120" s="205"/>
       <c r="O120" s="18"/>
       <c r="P120" s="17"/>
       <c r="Q120" s="18"/>
       <c r="R120" s="17"/>
       <c r="S120" s="18"/>
-      <c r="T120" s="208"/>
-      <c r="U120" s="17"/>
-      <c r="W120" s="25"/>
+      <c r="T120" s="173"/>
+      <c r="U120" s="18"/>
+      <c r="V120" s="17"/>
+      <c r="W120" s="18"/>
       <c r="Y120" s="25"/>
     </row>
     <row r="122" spans="1:25" s="14" customFormat="1">
@@ -8475,7 +8610,7 @@
       <c r="Q122" s="11"/>
       <c r="S122" s="11"/>
       <c r="T122" s="12"/>
-      <c r="U122" s="12"/>
+      <c r="U122" s="11"/>
       <c r="V122" s="12"/>
       <c r="W122" s="11"/>
       <c r="Y122" s="11"/>
@@ -8484,7 +8619,7 @@
       <c r="A123" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="C123" s="167" t="s">
+      <c r="C123" s="202" t="s">
         <v>249</v>
       </c>
       <c r="D123" t="s">
@@ -8495,7 +8630,7 @@
       </c>
     </row>
     <row r="124" spans="1:25">
-      <c r="C124" s="167"/>
+      <c r="C124" s="202"/>
       <c r="D124" t="s">
         <v>102</v>
       </c>
@@ -8504,7 +8639,7 @@
       </c>
     </row>
     <row r="125" spans="1:25">
-      <c r="C125" s="167"/>
+      <c r="C125" s="202"/>
       <c r="D125" s="72" t="s">
         <v>240</v>
       </c>
@@ -8513,7 +8648,7 @@
       </c>
     </row>
     <row r="126" spans="1:25">
-      <c r="C126" s="167"/>
+      <c r="C126" s="202"/>
       <c r="D126" s="74" t="s">
         <v>43</v>
       </c>
@@ -8522,14 +8657,14 @@
       </c>
     </row>
     <row r="127" spans="1:25">
-      <c r="C127" s="167"/>
+      <c r="C127" s="202"/>
       <c r="D127" s="72"/>
       <c r="E127" s="75" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="128" spans="1:25">
-      <c r="C128" s="167"/>
+      <c r="C128" s="202"/>
     </row>
     <row r="129" spans="1:25" s="22" customFormat="1" ht="7" customHeight="1">
       <c r="A129" s="19"/>
@@ -8546,15 +8681,21 @@
       <c r="O129" s="19"/>
       <c r="Q129" s="19"/>
       <c r="S129" s="19"/>
-      <c r="T129" s="202"/>
-      <c r="U129" s="206"/>
-      <c r="V129" s="206"/>
+      <c r="T129" s="167"/>
+      <c r="U129" s="217"/>
+      <c r="V129" s="171"/>
       <c r="W129" s="19"/>
       <c r="Y129" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="R1:S2"/>
+    <mergeCell ref="C123:C128"/>
+    <mergeCell ref="N97:N100"/>
+    <mergeCell ref="N112:N116"/>
+    <mergeCell ref="N117:N120"/>
+    <mergeCell ref="K97:M100"/>
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="W107:W110"/>
     <mergeCell ref="V1:W2"/>
@@ -8570,12 +8711,6 @@
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="R1:S2"/>
-    <mergeCell ref="C123:C128"/>
-    <mergeCell ref="N97:N100"/>
-    <mergeCell ref="N112:N116"/>
-    <mergeCell ref="N117:N120"/>
-    <mergeCell ref="K97:M100"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/docs/design/CrossMdlAssign.xlsx
+++ b/docs/design/CrossMdlAssign.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="0" windowWidth="25720" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="2580" yWindow="460" windowWidth="25720" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3254,108 +3254,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3424,12 +3322,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3447,11 +3339,119 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="277">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -4063,8 +4063,8 @@
   <dimension ref="A1:AJ158"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G50" sqref="G50"/>
+      <pane ySplit="2" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4096,55 +4096,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="2" customFormat="1" ht="16" thickTop="1">
-      <c r="A1" s="188" t="s">
+      <c r="A1" s="251" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="189"/>
-      <c r="D1" s="160" t="s">
+      <c r="B1" s="251"/>
+      <c r="C1" s="252"/>
+      <c r="D1" s="257" t="s">
         <v>145</v>
       </c>
-      <c r="E1" s="161"/>
-      <c r="F1" s="162" t="s">
+      <c r="E1" s="258"/>
+      <c r="F1" s="259" t="s">
         <v>178</v>
       </c>
-      <c r="G1" s="161"/>
-      <c r="H1" s="162" t="s">
+      <c r="G1" s="258"/>
+      <c r="H1" s="259" t="s">
         <v>177</v>
       </c>
-      <c r="I1" s="161"/>
+      <c r="I1" s="258"/>
       <c r="J1" s="94" t="s">
         <v>172</v>
       </c>
-      <c r="K1" s="162" t="s">
+      <c r="K1" s="259" t="s">
         <v>203</v>
       </c>
-      <c r="L1" s="160"/>
+      <c r="L1" s="257"/>
       <c r="M1" s="90" t="s">
         <v>214</v>
       </c>
-      <c r="N1" s="158" t="s">
+      <c r="N1" s="255" t="s">
         <v>460</v>
       </c>
-      <c r="O1" s="156" t="s">
+      <c r="O1" s="253" t="s">
         <v>461</v>
       </c>
-      <c r="P1" s="184" t="s">
+      <c r="P1" s="247" t="s">
         <v>469</v>
       </c>
-      <c r="Q1" s="185"/>
-      <c r="R1" s="165" t="s">
+      <c r="Q1" s="248"/>
+      <c r="R1" s="225" t="s">
         <v>181</v>
       </c>
-      <c r="S1" s="166"/>
-      <c r="T1" s="181" t="s">
+      <c r="S1" s="226"/>
+      <c r="T1" s="242" t="s">
         <v>470</v>
       </c>
-      <c r="U1" s="182"/>
-      <c r="V1" s="181" t="s">
+      <c r="U1" s="243"/>
+      <c r="V1" s="242" t="s">
         <v>471</v>
       </c>
-      <c r="W1" s="182"/>
+      <c r="W1" s="243"/>
       <c r="X1" s="153" t="s">
         <v>472</v>
       </c>
@@ -4190,35 +4190,35 @@
       <c r="M2" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="159"/>
-      <c r="O2" s="157"/>
-      <c r="P2" s="186"/>
-      <c r="Q2" s="187"/>
-      <c r="R2" s="167"/>
-      <c r="S2" s="168"/>
+      <c r="N2" s="256"/>
+      <c r="O2" s="254"/>
+      <c r="P2" s="249"/>
+      <c r="Q2" s="250"/>
+      <c r="R2" s="227"/>
+      <c r="S2" s="228"/>
       <c r="T2" s="136" t="s">
         <v>0</v>
       </c>
       <c r="U2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="V2" s="167"/>
-      <c r="W2" s="168"/>
+      <c r="V2" s="227"/>
+      <c r="W2" s="228"/>
       <c r="X2" s="154"/>
       <c r="Y2" s="47"/>
     </row>
     <row r="3" spans="1:25" s="39" customFormat="1" ht="16" thickTop="1">
-      <c r="A3" s="200" t="s">
+      <c r="A3" s="166" t="s">
         <v>297</v>
       </c>
-      <c r="B3" s="207" t="s">
+      <c r="B3" s="173" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="208"/>
-      <c r="D3" s="209" t="s">
+      <c r="C3" s="174"/>
+      <c r="D3" s="175" t="s">
         <v>517</v>
       </c>
-      <c r="E3" s="210" t="s">
+      <c r="E3" s="176" t="s">
         <v>531</v>
       </c>
       <c r="F3" s="68" t="s">
@@ -4241,24 +4241,24 @@
       <c r="S3" s="42"/>
       <c r="T3" s="10"/>
       <c r="U3" s="4"/>
-      <c r="V3" s="163" t="s">
+      <c r="V3" s="223" t="s">
         <v>506</v>
       </c>
-      <c r="W3" s="164"/>
+      <c r="W3" s="224"/>
       <c r="Y3" s="40"/>
     </row>
     <row r="4" spans="1:25" s="39" customFormat="1">
-      <c r="A4" s="200" t="s">
+      <c r="A4" s="166" t="s">
         <v>297</v>
       </c>
-      <c r="B4" s="207" t="s">
+      <c r="B4" s="173" t="s">
         <v>298</v>
       </c>
-      <c r="C4" s="208"/>
-      <c r="D4" s="209" t="s">
+      <c r="C4" s="174"/>
+      <c r="D4" s="175" t="s">
         <v>518</v>
       </c>
-      <c r="E4" s="210" t="s">
+      <c r="E4" s="176" t="s">
         <v>531</v>
       </c>
       <c r="F4" s="68" t="s">
@@ -4284,22 +4284,22 @@
       <c r="Y4" s="40"/>
     </row>
     <row r="5" spans="1:25" s="8" customFormat="1">
-      <c r="A5" s="192" t="s">
+      <c r="A5" s="158" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="193" t="s">
+      <c r="B5" s="159" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="194">
+      <c r="C5" s="160">
         <v>0</v>
       </c>
-      <c r="D5" s="195" t="s">
+      <c r="D5" s="161" t="s">
         <v>527</v>
       </c>
-      <c r="E5" s="197" t="s">
+      <c r="E5" s="163" t="s">
         <v>215</v>
       </c>
-      <c r="F5" s="195" t="s">
+      <c r="F5" s="161" t="s">
         <v>389</v>
       </c>
       <c r="G5" s="4"/>
@@ -4348,22 +4348,22 @@
       <c r="Y5" s="9"/>
     </row>
     <row r="6" spans="1:25" s="8" customFormat="1">
-      <c r="A6" s="192" t="s">
+      <c r="A6" s="158" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="193" t="s">
+      <c r="B6" s="159" t="s">
         <v>148</v>
       </c>
-      <c r="C6" s="194">
+      <c r="C6" s="160">
         <v>1</v>
       </c>
-      <c r="D6" s="195" t="s">
+      <c r="D6" s="161" t="s">
         <v>528</v>
       </c>
-      <c r="E6" s="197" t="s">
+      <c r="E6" s="163" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="193" t="s">
+      <c r="F6" s="159" t="s">
         <v>572</v>
       </c>
       <c r="G6" s="9" t="s">
@@ -4418,22 +4418,22 @@
       <c r="Y6" s="9"/>
     </row>
     <row r="7" spans="1:25" s="8" customFormat="1">
-      <c r="A7" s="192" t="s">
+      <c r="A7" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="193" t="s">
+      <c r="B7" s="159" t="s">
         <v>148</v>
       </c>
-      <c r="C7" s="194">
+      <c r="C7" s="160">
         <v>2</v>
       </c>
-      <c r="D7" s="195" t="s">
+      <c r="D7" s="161" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="197" t="s">
+      <c r="E7" s="163" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="193" t="s">
+      <c r="F7" s="159" t="s">
         <v>38</v>
       </c>
       <c r="G7" s="9" t="s">
@@ -4484,19 +4484,19 @@
       <c r="Y7" s="9"/>
     </row>
     <row r="8" spans="1:25" s="8" customFormat="1">
-      <c r="A8" s="192" t="s">
+      <c r="A8" s="158" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="193" t="s">
+      <c r="B8" s="159" t="s">
         <v>148</v>
       </c>
-      <c r="C8" s="194">
+      <c r="C8" s="160">
         <v>3</v>
       </c>
-      <c r="D8" s="195" t="s">
+      <c r="D8" s="161" t="s">
         <v>238</v>
       </c>
-      <c r="E8" s="196" t="s">
+      <c r="E8" s="162" t="s">
         <v>40</v>
       </c>
       <c r="F8" s="116" t="s">
@@ -4538,13 +4538,13 @@
       <c r="Y8" s="9"/>
     </row>
     <row r="9" spans="1:25">
-      <c r="A9" s="197"/>
-      <c r="B9" s="193"/>
-      <c r="C9" s="194"/>
-      <c r="D9" s="198" t="s">
+      <c r="A9" s="163"/>
+      <c r="B9" s="159"/>
+      <c r="C9" s="160"/>
+      <c r="D9" s="164" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="205" t="s">
+      <c r="E9" s="171" t="s">
         <v>42</v>
       </c>
       <c r="F9" s="5"/>
@@ -4569,11 +4569,11 @@
       <c r="W9" s="4"/>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" s="197"/>
-      <c r="B10" s="193"/>
-      <c r="C10" s="194"/>
-      <c r="D10" s="195"/>
-      <c r="E10" s="205" t="s">
+      <c r="A10" s="163"/>
+      <c r="B10" s="159"/>
+      <c r="C10" s="160"/>
+      <c r="D10" s="161"/>
+      <c r="E10" s="171" t="s">
         <v>43</v>
       </c>
       <c r="F10" s="5"/>
@@ -4602,11 +4602,11 @@
       <c r="W10" s="4"/>
     </row>
     <row r="11" spans="1:25">
-      <c r="A11" s="197"/>
-      <c r="B11" s="193"/>
-      <c r="C11" s="194"/>
-      <c r="D11" s="195"/>
-      <c r="E11" s="205" t="s">
+      <c r="A11" s="163"/>
+      <c r="B11" s="159"/>
+      <c r="C11" s="160"/>
+      <c r="D11" s="161"/>
+      <c r="E11" s="171" t="s">
         <v>44</v>
       </c>
       <c r="F11" s="5"/>
@@ -4633,11 +4633,11 @@
       <c r="W11" s="4"/>
     </row>
     <row r="12" spans="1:25" ht="16" thickBot="1">
-      <c r="A12" s="206"/>
-      <c r="B12" s="193"/>
-      <c r="C12" s="194"/>
-      <c r="D12" s="195"/>
-      <c r="E12" s="205" t="s">
+      <c r="A12" s="172"/>
+      <c r="B12" s="159"/>
+      <c r="C12" s="160"/>
+      <c r="D12" s="161"/>
+      <c r="E12" s="171" t="s">
         <v>174</v>
       </c>
       <c r="F12" s="5"/>
@@ -4666,15 +4666,15 @@
       <c r="W12" s="4"/>
     </row>
     <row r="13" spans="1:25">
-      <c r="A13" s="200" t="s">
+      <c r="A13" s="166" t="s">
         <v>297</v>
       </c>
-      <c r="B13" s="201"/>
-      <c r="C13" s="202"/>
-      <c r="D13" s="201" t="s">
+      <c r="B13" s="167"/>
+      <c r="C13" s="168"/>
+      <c r="D13" s="167" t="s">
         <v>508</v>
       </c>
-      <c r="E13" s="203" t="s">
+      <c r="E13" s="169" t="s">
         <v>513</v>
       </c>
       <c r="F13" s="5"/>
@@ -4697,15 +4697,15 @@
       <c r="W13" s="4"/>
     </row>
     <row r="14" spans="1:25">
-      <c r="A14" s="200" t="s">
+      <c r="A14" s="166" t="s">
         <v>297</v>
       </c>
-      <c r="B14" s="193"/>
-      <c r="C14" s="194"/>
-      <c r="D14" s="193" t="s">
+      <c r="B14" s="159"/>
+      <c r="C14" s="160"/>
+      <c r="D14" s="159" t="s">
         <v>510</v>
       </c>
-      <c r="E14" s="204" t="s">
+      <c r="E14" s="170" t="s">
         <v>514</v>
       </c>
       <c r="F14" s="5"/>
@@ -4728,15 +4728,15 @@
       <c r="W14" s="4"/>
     </row>
     <row r="15" spans="1:25">
-      <c r="A15" s="200" t="s">
+      <c r="A15" s="166" t="s">
         <v>297</v>
       </c>
-      <c r="B15" s="193"/>
-      <c r="C15" s="194"/>
-      <c r="D15" s="193" t="s">
+      <c r="B15" s="159"/>
+      <c r="C15" s="160"/>
+      <c r="D15" s="159" t="s">
         <v>524</v>
       </c>
-      <c r="E15" s="204" t="s">
+      <c r="E15" s="170" t="s">
         <v>525</v>
       </c>
       <c r="F15" s="5"/>
@@ -4759,18 +4759,18 @@
       <c r="W15" s="4"/>
     </row>
     <row r="16" spans="1:25">
-      <c r="A16" s="192"/>
-      <c r="B16" s="193" t="s">
+      <c r="A16" s="158"/>
+      <c r="B16" s="159" t="s">
         <v>148</v>
       </c>
-      <c r="C16" s="194"/>
-      <c r="D16" s="193" t="s">
+      <c r="C16" s="160"/>
+      <c r="D16" s="159" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="247" t="s">
+      <c r="E16" s="211" t="s">
         <v>509</v>
       </c>
-      <c r="F16" s="8"/>
+      <c r="F16" s="5"/>
       <c r="G16" s="4"/>
       <c r="H16" s="5"/>
       <c r="I16" s="4"/>
@@ -4790,15 +4790,15 @@
       <c r="W16" s="4"/>
     </row>
     <row r="17" spans="1:25">
-      <c r="A17" s="200" t="s">
+      <c r="A17" s="166" t="s">
         <v>297</v>
       </c>
-      <c r="B17" s="193"/>
-      <c r="C17" s="194"/>
-      <c r="D17" s="193" t="s">
+      <c r="B17" s="159"/>
+      <c r="C17" s="160"/>
+      <c r="D17" s="159" t="s">
         <v>511</v>
       </c>
-      <c r="E17" s="204" t="s">
+      <c r="E17" s="170" t="s">
         <v>515</v>
       </c>
       <c r="F17" s="5"/>
@@ -4821,15 +4821,15 @@
       <c r="W17" s="4"/>
     </row>
     <row r="18" spans="1:25">
-      <c r="A18" s="200" t="s">
+      <c r="A18" s="166" t="s">
         <v>297</v>
       </c>
-      <c r="B18" s="193"/>
-      <c r="C18" s="194"/>
-      <c r="D18" s="193" t="s">
+      <c r="B18" s="159"/>
+      <c r="C18" s="160"/>
+      <c r="D18" s="159" t="s">
         <v>512</v>
       </c>
-      <c r="E18" s="204" t="s">
+      <c r="E18" s="170" t="s">
         <v>516</v>
       </c>
       <c r="F18" s="5"/>
@@ -4852,15 +4852,15 @@
       <c r="W18" s="4"/>
     </row>
     <row r="19" spans="1:25">
-      <c r="A19" s="200" t="s">
+      <c r="A19" s="166" t="s">
         <v>297</v>
       </c>
-      <c r="B19" s="193"/>
-      <c r="C19" s="194"/>
-      <c r="D19" s="193" t="s">
+      <c r="B19" s="159"/>
+      <c r="C19" s="160"/>
+      <c r="D19" s="159" t="s">
         <v>526</v>
       </c>
-      <c r="E19" s="204" t="s">
+      <c r="E19" s="170" t="s">
         <v>525</v>
       </c>
       <c r="F19" s="5"/>
@@ -4883,18 +4883,18 @@
       <c r="W19" s="4"/>
     </row>
     <row r="20" spans="1:25" ht="16" thickBot="1">
-      <c r="A20" s="249"/>
-      <c r="B20" s="235" t="s">
+      <c r="A20" s="213"/>
+      <c r="B20" s="201" t="s">
         <v>148</v>
       </c>
-      <c r="C20" s="227"/>
-      <c r="D20" s="235" t="s">
+      <c r="C20" s="193"/>
+      <c r="D20" s="201" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="248" t="s">
+      <c r="E20" s="212" t="s">
         <v>219</v>
       </c>
-      <c r="F20" s="8"/>
+      <c r="F20" s="5"/>
       <c r="G20" s="4"/>
       <c r="H20" s="5"/>
       <c r="I20" s="4"/>
@@ -4914,13 +4914,13 @@
       <c r="W20" s="4"/>
     </row>
     <row r="21" spans="1:25">
-      <c r="A21" s="190" t="s">
+      <c r="A21" s="156" t="s">
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C21" s="191">
+      <c r="C21" s="157">
         <v>4</v>
       </c>
       <c r="D21" s="8"/>
@@ -4959,13 +4959,13 @@
       <c r="W21" s="4"/>
     </row>
     <row r="22" spans="1:25">
-      <c r="A22" s="190" t="s">
+      <c r="A22" s="156" t="s">
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="191">
+      <c r="C22" s="157">
         <v>5</v>
       </c>
       <c r="D22" s="8"/>
@@ -5006,19 +5006,19 @@
       <c r="W22" s="4"/>
     </row>
     <row r="23" spans="1:25" s="8" customFormat="1">
-      <c r="A23" s="192" t="s">
+      <c r="A23" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="193" t="s">
+      <c r="B23" s="159" t="s">
         <v>148</v>
       </c>
-      <c r="C23" s="194">
+      <c r="C23" s="160">
         <v>6</v>
       </c>
-      <c r="D23" s="195" t="s">
+      <c r="D23" s="161" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="196" t="s">
+      <c r="E23" s="162" t="s">
         <v>53</v>
       </c>
       <c r="F23" s="31" t="s">
@@ -5060,13 +5060,13 @@
       <c r="Y23" s="9"/>
     </row>
     <row r="24" spans="1:25">
-      <c r="A24" s="197"/>
-      <c r="B24" s="193"/>
-      <c r="C24" s="194"/>
-      <c r="D24" s="198" t="s">
+      <c r="A24" s="163"/>
+      <c r="B24" s="159"/>
+      <c r="C24" s="160"/>
+      <c r="D24" s="164" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="199" t="s">
+      <c r="E24" s="165" t="s">
         <v>55</v>
       </c>
       <c r="F24" s="5"/>
@@ -5095,11 +5095,11 @@
       <c r="W24" s="4"/>
     </row>
     <row r="25" spans="1:25">
-      <c r="A25" s="197"/>
-      <c r="B25" s="193"/>
-      <c r="C25" s="194"/>
-      <c r="D25" s="195"/>
-      <c r="E25" s="199" t="s">
+      <c r="A25" s="163"/>
+      <c r="B25" s="159"/>
+      <c r="C25" s="160"/>
+      <c r="D25" s="161"/>
+      <c r="E25" s="165" t="s">
         <v>56</v>
       </c>
       <c r="F25" s="5"/>
@@ -5128,11 +5128,11 @@
       <c r="W25" s="4"/>
     </row>
     <row r="26" spans="1:25">
-      <c r="A26" s="197"/>
-      <c r="B26" s="193"/>
-      <c r="C26" s="194"/>
-      <c r="D26" s="195"/>
-      <c r="E26" s="199" t="s">
+      <c r="A26" s="163"/>
+      <c r="B26" s="159"/>
+      <c r="C26" s="160"/>
+      <c r="D26" s="161"/>
+      <c r="E26" s="165" t="s">
         <v>57</v>
       </c>
       <c r="F26" s="5"/>
@@ -5155,19 +5155,19 @@
       <c r="W26" s="4"/>
     </row>
     <row r="27" spans="1:25" s="8" customFormat="1">
-      <c r="A27" s="192" t="s">
+      <c r="A27" s="158" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="193" t="s">
+      <c r="B27" s="159" t="s">
         <v>147</v>
       </c>
-      <c r="C27" s="194">
+      <c r="C27" s="160">
         <v>7</v>
       </c>
-      <c r="D27" s="195" t="s">
+      <c r="D27" s="161" t="s">
         <v>529</v>
       </c>
-      <c r="E27" s="197" t="s">
+      <c r="E27" s="163" t="s">
         <v>58</v>
       </c>
       <c r="F27" s="31" t="s">
@@ -5211,19 +5211,19 @@
       <c r="Y27" s="9"/>
     </row>
     <row r="28" spans="1:25" s="8" customFormat="1">
-      <c r="A28" s="192" t="s">
+      <c r="A28" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="193" t="s">
+      <c r="B28" s="159" t="s">
         <v>147</v>
       </c>
-      <c r="C28" s="194">
+      <c r="C28" s="160">
         <v>8</v>
       </c>
-      <c r="D28" s="195" t="s">
+      <c r="D28" s="161" t="s">
         <v>530</v>
       </c>
-      <c r="E28" s="197" t="s">
+      <c r="E28" s="163" t="s">
         <v>59</v>
       </c>
       <c r="F28" s="31" t="s">
@@ -5267,19 +5267,19 @@
       <c r="Y28" s="9"/>
     </row>
     <row r="29" spans="1:25" s="8" customFormat="1">
-      <c r="A29" s="192" t="s">
+      <c r="A29" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="193" t="s">
+      <c r="B29" s="159" t="s">
         <v>148</v>
       </c>
-      <c r="C29" s="194">
+      <c r="C29" s="160">
         <v>9</v>
       </c>
-      <c r="D29" s="195" t="s">
+      <c r="D29" s="161" t="s">
         <v>49</v>
       </c>
-      <c r="E29" s="196" t="s">
+      <c r="E29" s="162" t="s">
         <v>60</v>
       </c>
       <c r="F29" s="32" t="s">
@@ -5323,13 +5323,13 @@
       <c r="Y29" s="9"/>
     </row>
     <row r="30" spans="1:25">
-      <c r="A30" s="197"/>
-      <c r="B30" s="193"/>
-      <c r="C30" s="194"/>
-      <c r="D30" s="198" t="s">
+      <c r="A30" s="163"/>
+      <c r="B30" s="159"/>
+      <c r="C30" s="160"/>
+      <c r="D30" s="164" t="s">
         <v>41</v>
       </c>
-      <c r="E30" s="199" t="s">
+      <c r="E30" s="165" t="s">
         <v>61</v>
       </c>
       <c r="F30" s="5"/>
@@ -5352,11 +5352,11 @@
       <c r="W30" s="4"/>
     </row>
     <row r="31" spans="1:25">
-      <c r="A31" s="197"/>
-      <c r="B31" s="193"/>
-      <c r="C31" s="194"/>
-      <c r="D31" s="195"/>
-      <c r="E31" s="199" t="s">
+      <c r="A31" s="163"/>
+      <c r="B31" s="159"/>
+      <c r="C31" s="160"/>
+      <c r="D31" s="161"/>
+      <c r="E31" s="165" t="s">
         <v>64</v>
       </c>
       <c r="F31" s="5"/>
@@ -5379,11 +5379,11 @@
       <c r="W31" s="4"/>
     </row>
     <row r="32" spans="1:25">
-      <c r="A32" s="197"/>
-      <c r="B32" s="193"/>
-      <c r="C32" s="194"/>
-      <c r="D32" s="195"/>
-      <c r="E32" s="199" t="s">
+      <c r="A32" s="163"/>
+      <c r="B32" s="159"/>
+      <c r="C32" s="160"/>
+      <c r="D32" s="161"/>
+      <c r="E32" s="165" t="s">
         <v>62</v>
       </c>
       <c r="F32" s="5"/>
@@ -5406,11 +5406,11 @@
       <c r="W32" s="4"/>
     </row>
     <row r="33" spans="1:25">
-      <c r="A33" s="197"/>
-      <c r="B33" s="193"/>
-      <c r="C33" s="194"/>
-      <c r="D33" s="195"/>
-      <c r="E33" s="199" t="s">
+      <c r="A33" s="163"/>
+      <c r="B33" s="159"/>
+      <c r="C33" s="160"/>
+      <c r="D33" s="161"/>
+      <c r="E33" s="165" t="s">
         <v>63</v>
       </c>
       <c r="F33" s="5"/>
@@ -5433,11 +5433,11 @@
       <c r="W33" s="4"/>
     </row>
     <row r="34" spans="1:25">
-      <c r="A34" s="197"/>
-      <c r="B34" s="193"/>
-      <c r="C34" s="194"/>
-      <c r="D34" s="195"/>
-      <c r="E34" s="199" t="s">
+      <c r="A34" s="163"/>
+      <c r="B34" s="159"/>
+      <c r="C34" s="160"/>
+      <c r="D34" s="161"/>
+      <c r="E34" s="165" t="s">
         <v>65</v>
       </c>
       <c r="F34" s="5"/>
@@ -5460,19 +5460,19 @@
       <c r="W34" s="4"/>
     </row>
     <row r="35" spans="1:25" s="8" customFormat="1">
-      <c r="A35" s="192" t="s">
+      <c r="A35" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="193" t="s">
+      <c r="B35" s="159" t="s">
         <v>148</v>
       </c>
-      <c r="C35" s="194">
+      <c r="C35" s="160">
         <v>10</v>
       </c>
-      <c r="D35" s="195" t="s">
+      <c r="D35" s="161" t="s">
         <v>532</v>
       </c>
-      <c r="E35" s="197" t="s">
+      <c r="E35" s="163" t="s">
         <v>66</v>
       </c>
       <c r="F35" s="32" t="s">
@@ -5514,19 +5514,19 @@
       <c r="Y35" s="9"/>
     </row>
     <row r="36" spans="1:25" s="8" customFormat="1">
-      <c r="A36" s="192" t="s">
+      <c r="A36" s="158" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="193" t="s">
+      <c r="B36" s="159" t="s">
         <v>148</v>
       </c>
-      <c r="C36" s="194">
+      <c r="C36" s="160">
         <v>11</v>
       </c>
-      <c r="D36" s="195" t="s">
+      <c r="D36" s="161" t="s">
         <v>533</v>
       </c>
-      <c r="E36" s="197" t="s">
+      <c r="E36" s="163" t="s">
         <v>67</v>
       </c>
       <c r="F36" s="32" t="s">
@@ -5570,19 +5570,19 @@
       <c r="Y36" s="9"/>
     </row>
     <row r="37" spans="1:25" s="8" customFormat="1">
-      <c r="A37" s="192" t="s">
+      <c r="A37" s="158" t="s">
         <v>14</v>
       </c>
-      <c r="B37" s="193" t="s">
+      <c r="B37" s="159" t="s">
         <v>148</v>
       </c>
-      <c r="C37" s="194">
+      <c r="C37" s="160">
         <v>12</v>
       </c>
-      <c r="D37" s="195" t="s">
+      <c r="D37" s="161" t="s">
         <v>534</v>
       </c>
-      <c r="E37" s="197" t="s">
+      <c r="E37" s="163" t="s">
         <v>68</v>
       </c>
       <c r="F37" s="32" t="s">
@@ -5624,19 +5624,19 @@
       <c r="Y37" s="9"/>
     </row>
     <row r="38" spans="1:25" s="8" customFormat="1">
-      <c r="A38" s="192" t="s">
+      <c r="A38" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="193" t="s">
+      <c r="B38" s="159" t="s">
         <v>148</v>
       </c>
-      <c r="C38" s="194">
+      <c r="C38" s="160">
         <v>13</v>
       </c>
-      <c r="D38" s="195" t="s">
+      <c r="D38" s="161" t="s">
         <v>238</v>
       </c>
-      <c r="E38" s="197" t="s">
+      <c r="E38" s="163" t="s">
         <v>92</v>
       </c>
       <c r="F38" s="32" t="s">
@@ -5680,13 +5680,13 @@
       <c r="Y38" s="9"/>
     </row>
     <row r="39" spans="1:25">
-      <c r="A39" s="197"/>
-      <c r="B39" s="193"/>
-      <c r="C39" s="194"/>
-      <c r="D39" s="198" t="s">
+      <c r="A39" s="163"/>
+      <c r="B39" s="159"/>
+      <c r="C39" s="160"/>
+      <c r="D39" s="164" t="s">
         <v>41</v>
       </c>
-      <c r="E39" s="199" t="s">
+      <c r="E39" s="165" t="s">
         <v>93</v>
       </c>
       <c r="F39" s="5"/>
@@ -5709,11 +5709,11 @@
       <c r="W39" s="4"/>
     </row>
     <row r="40" spans="1:25">
-      <c r="A40" s="197"/>
-      <c r="B40" s="193"/>
-      <c r="C40" s="194"/>
-      <c r="D40" s="195"/>
-      <c r="E40" s="199" t="s">
+      <c r="A40" s="163"/>
+      <c r="B40" s="159"/>
+      <c r="C40" s="160"/>
+      <c r="D40" s="161"/>
+      <c r="E40" s="165" t="s">
         <v>94</v>
       </c>
       <c r="F40" s="5"/>
@@ -5735,49 +5735,49 @@
       <c r="V40" s="5"/>
       <c r="W40" s="4"/>
     </row>
-    <row r="41" spans="1:25" s="223" customFormat="1">
-      <c r="A41" s="214"/>
-      <c r="B41" s="215"/>
-      <c r="C41" s="216"/>
-      <c r="D41" s="215"/>
-      <c r="E41" s="217" t="s">
+    <row r="41" spans="1:25" s="189" customFormat="1">
+      <c r="A41" s="180"/>
+      <c r="B41" s="181"/>
+      <c r="C41" s="182"/>
+      <c r="D41" s="181"/>
+      <c r="E41" s="183" t="s">
         <v>95</v>
       </c>
-      <c r="F41" s="218"/>
-      <c r="G41" s="219"/>
-      <c r="H41" s="218"/>
-      <c r="I41" s="219"/>
-      <c r="J41" s="220"/>
-      <c r="K41" s="221"/>
-      <c r="L41" s="222"/>
-      <c r="M41" s="222"/>
-      <c r="N41" s="219"/>
-      <c r="O41" s="219"/>
-      <c r="P41" s="218"/>
-      <c r="Q41" s="219"/>
-      <c r="R41" s="218"/>
-      <c r="S41" s="219"/>
-      <c r="T41" s="218"/>
-      <c r="U41" s="219"/>
-      <c r="V41" s="218"/>
-      <c r="W41" s="219"/>
-      <c r="Y41" s="224"/>
+      <c r="F41" s="184"/>
+      <c r="G41" s="185"/>
+      <c r="H41" s="184"/>
+      <c r="I41" s="185"/>
+      <c r="J41" s="186"/>
+      <c r="K41" s="187"/>
+      <c r="L41" s="188"/>
+      <c r="M41" s="188"/>
+      <c r="N41" s="185"/>
+      <c r="O41" s="185"/>
+      <c r="P41" s="184"/>
+      <c r="Q41" s="185"/>
+      <c r="R41" s="184"/>
+      <c r="S41" s="185"/>
+      <c r="T41" s="184"/>
+      <c r="U41" s="185"/>
+      <c r="V41" s="184"/>
+      <c r="W41" s="185"/>
+      <c r="Y41" s="190"/>
     </row>
     <row r="42" spans="1:25" s="8" customFormat="1">
-      <c r="A42" s="211" t="s">
+      <c r="A42" s="177" t="s">
         <v>297</v>
       </c>
-      <c r="B42" s="212" t="s">
+      <c r="B42" s="178" t="s">
         <v>300</v>
       </c>
-      <c r="C42" s="194"/>
-      <c r="D42" s="213" t="s">
+      <c r="C42" s="160"/>
+      <c r="D42" s="179" t="s">
         <v>535</v>
       </c>
-      <c r="E42" s="197" t="s">
+      <c r="E42" s="163" t="s">
         <v>299</v>
       </c>
-      <c r="F42" s="259" t="s">
+      <c r="F42" s="222" t="s">
         <v>322</v>
       </c>
       <c r="G42" s="53" t="s">
@@ -5808,18 +5808,18 @@
       <c r="Y42" s="9"/>
     </row>
     <row r="43" spans="1:25" s="8" customFormat="1">
-      <c r="A43" s="211" t="s">
+      <c r="A43" s="177" t="s">
         <v>577</v>
       </c>
-      <c r="B43" s="212"/>
-      <c r="C43" s="194"/>
-      <c r="D43" s="213" t="s">
+      <c r="B43" s="178"/>
+      <c r="C43" s="160"/>
+      <c r="D43" s="179" t="s">
         <v>539</v>
       </c>
-      <c r="E43" s="197" t="s">
+      <c r="E43" s="163" t="s">
         <v>303</v>
       </c>
-      <c r="F43" s="259" t="s">
+      <c r="F43" s="222" t="s">
         <v>579</v>
       </c>
       <c r="G43" s="53"/>
@@ -5842,20 +5842,20 @@
       <c r="Y43" s="9"/>
     </row>
     <row r="44" spans="1:25" s="8" customFormat="1">
-      <c r="A44" s="211" t="s">
+      <c r="A44" s="177" t="s">
         <v>297</v>
       </c>
-      <c r="B44" s="212" t="s">
+      <c r="B44" s="178" t="s">
         <v>302</v>
       </c>
-      <c r="C44" s="194"/>
-      <c r="D44" s="213" t="s">
+      <c r="C44" s="160"/>
+      <c r="D44" s="179" t="s">
         <v>536</v>
       </c>
-      <c r="E44" s="197" t="s">
+      <c r="E44" s="163" t="s">
         <v>301</v>
       </c>
-      <c r="F44" s="259" t="s">
+      <c r="F44" s="222" t="s">
         <v>575</v>
       </c>
       <c r="G44" s="38"/>
@@ -5878,15 +5878,15 @@
       <c r="Y44" s="9"/>
     </row>
     <row r="45" spans="1:25" s="8" customFormat="1">
-      <c r="A45" s="211" t="s">
+      <c r="A45" s="177" t="s">
         <v>297</v>
       </c>
-      <c r="B45" s="212"/>
-      <c r="C45" s="194"/>
-      <c r="D45" s="198" t="s">
+      <c r="B45" s="178"/>
+      <c r="C45" s="160"/>
+      <c r="D45" s="164" t="s">
         <v>41</v>
       </c>
-      <c r="E45" s="199" t="s">
+      <c r="E45" s="165" t="s">
         <v>521</v>
       </c>
       <c r="F45" s="37"/>
@@ -5910,11 +5910,11 @@
       <c r="Y45" s="9"/>
     </row>
     <row r="46" spans="1:25" s="8" customFormat="1">
-      <c r="A46" s="211"/>
-      <c r="B46" s="212"/>
-      <c r="C46" s="194"/>
-      <c r="D46" s="213"/>
-      <c r="E46" s="199" t="s">
+      <c r="A46" s="177"/>
+      <c r="B46" s="178"/>
+      <c r="C46" s="160"/>
+      <c r="D46" s="179"/>
+      <c r="E46" s="165" t="s">
         <v>522</v>
       </c>
       <c r="F46" s="37"/>
@@ -5938,11 +5938,11 @@
       <c r="Y46" s="9"/>
     </row>
     <row r="47" spans="1:25" s="8" customFormat="1">
-      <c r="A47" s="211"/>
-      <c r="B47" s="212"/>
-      <c r="C47" s="194"/>
-      <c r="D47" s="213"/>
-      <c r="E47" s="199" t="s">
+      <c r="A47" s="177"/>
+      <c r="B47" s="178"/>
+      <c r="C47" s="160"/>
+      <c r="D47" s="179"/>
+      <c r="E47" s="165" t="s">
         <v>523</v>
       </c>
       <c r="F47" s="37"/>
@@ -5966,18 +5966,18 @@
       <c r="Y47" s="9"/>
     </row>
     <row r="48" spans="1:25" s="8" customFormat="1">
-      <c r="A48" s="211" t="s">
+      <c r="A48" s="177" t="s">
         <v>578</v>
       </c>
-      <c r="B48" s="212"/>
-      <c r="C48" s="194"/>
-      <c r="D48" s="213" t="s">
+      <c r="B48" s="178"/>
+      <c r="C48" s="160"/>
+      <c r="D48" s="179" t="s">
         <v>540</v>
       </c>
-      <c r="E48" s="197" t="s">
+      <c r="E48" s="163" t="s">
         <v>303</v>
       </c>
-      <c r="F48" s="259" t="s">
+      <c r="F48" s="222" t="s">
         <v>580</v>
       </c>
       <c r="G48" s="38"/>
@@ -6000,20 +6000,20 @@
       <c r="Y48" s="9"/>
     </row>
     <row r="49" spans="1:25" s="8" customFormat="1">
-      <c r="A49" s="211" t="s">
+      <c r="A49" s="177" t="s">
         <v>297</v>
       </c>
-      <c r="B49" s="212" t="s">
+      <c r="B49" s="178" t="s">
         <v>302</v>
       </c>
-      <c r="C49" s="194"/>
-      <c r="D49" s="213" t="s">
+      <c r="C49" s="160"/>
+      <c r="D49" s="179" t="s">
         <v>537</v>
       </c>
-      <c r="E49" s="197" t="s">
+      <c r="E49" s="163" t="s">
         <v>301</v>
       </c>
-      <c r="F49" s="259" t="s">
+      <c r="F49" s="222" t="s">
         <v>575</v>
       </c>
       <c r="G49" s="38"/>
@@ -6036,13 +6036,13 @@
       <c r="Y49" s="9"/>
     </row>
     <row r="50" spans="1:25" s="8" customFormat="1">
-      <c r="A50" s="211"/>
-      <c r="B50" s="212"/>
-      <c r="C50" s="194"/>
-      <c r="D50" s="198" t="s">
+      <c r="A50" s="177"/>
+      <c r="B50" s="178"/>
+      <c r="C50" s="160"/>
+      <c r="D50" s="164" t="s">
         <v>41</v>
       </c>
-      <c r="E50" s="199" t="s">
+      <c r="E50" s="165" t="s">
         <v>521</v>
       </c>
       <c r="F50" s="37"/>
@@ -6066,11 +6066,11 @@
       <c r="Y50" s="9"/>
     </row>
     <row r="51" spans="1:25" s="8" customFormat="1">
-      <c r="A51" s="211"/>
-      <c r="B51" s="212"/>
-      <c r="C51" s="194"/>
-      <c r="D51" s="213"/>
-      <c r="E51" s="199" t="s">
+      <c r="A51" s="177"/>
+      <c r="B51" s="178"/>
+      <c r="C51" s="160"/>
+      <c r="D51" s="179"/>
+      <c r="E51" s="165" t="s">
         <v>522</v>
       </c>
       <c r="F51" s="37"/>
@@ -6094,11 +6094,11 @@
       <c r="Y51" s="9"/>
     </row>
     <row r="52" spans="1:25" s="8" customFormat="1">
-      <c r="A52" s="211"/>
-      <c r="B52" s="212"/>
-      <c r="C52" s="194"/>
-      <c r="D52" s="213"/>
-      <c r="E52" s="199" t="s">
+      <c r="A52" s="177"/>
+      <c r="B52" s="178"/>
+      <c r="C52" s="160"/>
+      <c r="D52" s="179"/>
+      <c r="E52" s="165" t="s">
         <v>523</v>
       </c>
       <c r="F52" s="37"/>
@@ -6122,18 +6122,18 @@
       <c r="Y52" s="9"/>
     </row>
     <row r="53" spans="1:25" s="8" customFormat="1">
-      <c r="A53" s="211" t="s">
+      <c r="A53" s="177" t="s">
         <v>576</v>
       </c>
-      <c r="B53" s="212"/>
-      <c r="C53" s="194"/>
-      <c r="D53" s="213" t="s">
+      <c r="B53" s="178"/>
+      <c r="C53" s="160"/>
+      <c r="D53" s="179" t="s">
         <v>541</v>
       </c>
-      <c r="E53" s="197" t="s">
+      <c r="E53" s="163" t="s">
         <v>303</v>
       </c>
-      <c r="F53" s="259" t="s">
+      <c r="F53" s="222" t="s">
         <v>581</v>
       </c>
       <c r="G53" s="38"/>
@@ -6156,20 +6156,20 @@
       <c r="Y53" s="9"/>
     </row>
     <row r="54" spans="1:25" s="8" customFormat="1">
-      <c r="A54" s="211" t="s">
+      <c r="A54" s="177" t="s">
         <v>297</v>
       </c>
-      <c r="B54" s="212" t="s">
+      <c r="B54" s="178" t="s">
         <v>302</v>
       </c>
-      <c r="C54" s="194"/>
-      <c r="D54" s="213" t="s">
+      <c r="C54" s="160"/>
+      <c r="D54" s="179" t="s">
         <v>538</v>
       </c>
-      <c r="E54" s="197" t="s">
+      <c r="E54" s="163" t="s">
         <v>301</v>
       </c>
-      <c r="F54" s="259" t="s">
+      <c r="F54" s="222" t="s">
         <v>575</v>
       </c>
       <c r="G54" s="38"/>
@@ -6192,13 +6192,13 @@
       <c r="Y54" s="9"/>
     </row>
     <row r="55" spans="1:25" s="8" customFormat="1">
-      <c r="A55" s="211"/>
-      <c r="B55" s="212"/>
-      <c r="C55" s="194"/>
-      <c r="D55" s="198" t="s">
+      <c r="A55" s="177"/>
+      <c r="B55" s="178"/>
+      <c r="C55" s="160"/>
+      <c r="D55" s="164" t="s">
         <v>41</v>
       </c>
-      <c r="E55" s="199" t="s">
+      <c r="E55" s="165" t="s">
         <v>521</v>
       </c>
       <c r="F55" s="37"/>
@@ -6222,11 +6222,11 @@
       <c r="Y55" s="9"/>
     </row>
     <row r="56" spans="1:25" s="8" customFormat="1">
-      <c r="A56" s="211"/>
-      <c r="B56" s="212"/>
-      <c r="C56" s="194"/>
-      <c r="D56" s="213"/>
-      <c r="E56" s="199" t="s">
+      <c r="A56" s="177"/>
+      <c r="B56" s="178"/>
+      <c r="C56" s="160"/>
+      <c r="D56" s="179"/>
+      <c r="E56" s="165" t="s">
         <v>522</v>
       </c>
       <c r="F56" s="37"/>
@@ -6250,11 +6250,11 @@
       <c r="Y56" s="9"/>
     </row>
     <row r="57" spans="1:25" s="8" customFormat="1">
-      <c r="A57" s="211"/>
-      <c r="B57" s="212"/>
-      <c r="C57" s="194"/>
-      <c r="D57" s="213"/>
-      <c r="E57" s="199" t="s">
+      <c r="A57" s="177"/>
+      <c r="B57" s="178"/>
+      <c r="C57" s="160"/>
+      <c r="D57" s="179"/>
+      <c r="E57" s="165" t="s">
         <v>523</v>
       </c>
       <c r="F57" s="37"/>
@@ -6278,14 +6278,14 @@
       <c r="Y57" s="9"/>
     </row>
     <row r="58" spans="1:25" s="8" customFormat="1">
-      <c r="A58" s="211" t="s">
+      <c r="A58" s="177" t="s">
         <v>297</v>
       </c>
-      <c r="B58" s="212" t="s">
+      <c r="B58" s="178" t="s">
         <v>304</v>
       </c>
-      <c r="C58" s="194"/>
-      <c r="D58" s="213" t="s">
+      <c r="C58" s="160"/>
+      <c r="D58" s="179" t="s">
         <v>539</v>
       </c>
       <c r="E58" s="117" t="s">
@@ -6314,14 +6314,14 @@
       <c r="Y58" s="9"/>
     </row>
     <row r="59" spans="1:25" s="8" customFormat="1">
-      <c r="A59" s="211" t="s">
+      <c r="A59" s="177" t="s">
         <v>297</v>
       </c>
-      <c r="B59" s="212" t="s">
+      <c r="B59" s="178" t="s">
         <v>304</v>
       </c>
-      <c r="C59" s="194"/>
-      <c r="D59" s="213" t="s">
+      <c r="C59" s="160"/>
+      <c r="D59" s="179" t="s">
         <v>540</v>
       </c>
       <c r="E59" s="117" t="s">
@@ -6350,14 +6350,14 @@
       <c r="Y59" s="9"/>
     </row>
     <row r="60" spans="1:25" s="8" customFormat="1">
-      <c r="A60" s="211" t="s">
+      <c r="A60" s="177" t="s">
         <v>297</v>
       </c>
-      <c r="B60" s="212" t="s">
+      <c r="B60" s="178" t="s">
         <v>304</v>
       </c>
-      <c r="C60" s="194"/>
-      <c r="D60" s="213" t="s">
+      <c r="C60" s="160"/>
+      <c r="D60" s="179" t="s">
         <v>541</v>
       </c>
       <c r="E60" s="117" t="s">
@@ -6386,14 +6386,14 @@
       <c r="Y60" s="9"/>
     </row>
     <row r="61" spans="1:25" s="8" customFormat="1">
-      <c r="A61" s="211" t="s">
+      <c r="A61" s="177" t="s">
         <v>297</v>
       </c>
-      <c r="B61" s="212" t="s">
+      <c r="B61" s="178" t="s">
         <v>302</v>
       </c>
-      <c r="C61" s="194"/>
-      <c r="D61" s="213" t="s">
+      <c r="C61" s="160"/>
+      <c r="D61" s="179" t="s">
         <v>542</v>
       </c>
       <c r="E61" s="117" t="s">
@@ -6424,11 +6424,11 @@
       <c r="Y61" s="9"/>
     </row>
     <row r="62" spans="1:25" s="16" customFormat="1" ht="16" thickBot="1">
-      <c r="A62" s="225"/>
-      <c r="B62" s="226"/>
-      <c r="C62" s="227"/>
-      <c r="D62" s="228"/>
-      <c r="E62" s="229"/>
+      <c r="A62" s="191"/>
+      <c r="B62" s="192"/>
+      <c r="C62" s="193"/>
+      <c r="D62" s="194"/>
+      <c r="E62" s="195"/>
       <c r="F62" s="73" t="s">
         <v>334</v>
       </c>
@@ -6610,17 +6610,17 @@
       <c r="Y67" s="18"/>
     </row>
     <row r="68" spans="1:36" s="8" customFormat="1">
-      <c r="A68" s="230" t="s">
+      <c r="A68" s="196" t="s">
         <v>104</v>
       </c>
-      <c r="B68" s="231"/>
-      <c r="C68" s="194">
+      <c r="B68" s="197"/>
+      <c r="C68" s="160">
         <v>17</v>
       </c>
-      <c r="D68" s="195" t="s">
+      <c r="D68" s="161" t="s">
         <v>99</v>
       </c>
-      <c r="E68" s="232" t="s">
+      <c r="E68" s="198" t="s">
         <v>103</v>
       </c>
       <c r="F68" s="31" t="s">
@@ -6658,13 +6658,13 @@
       <c r="Y68" s="9"/>
     </row>
     <row r="69" spans="1:36" s="16" customFormat="1" ht="16" thickBot="1">
-      <c r="A69" s="233" t="s">
+      <c r="A69" s="199" t="s">
         <v>543</v>
       </c>
-      <c r="B69" s="234"/>
-      <c r="C69" s="227"/>
-      <c r="D69" s="235"/>
-      <c r="E69" s="236"/>
+      <c r="B69" s="200"/>
+      <c r="C69" s="193"/>
+      <c r="D69" s="201"/>
+      <c r="E69" s="202"/>
       <c r="F69" s="83" t="s">
         <v>237</v>
       </c>
@@ -6918,17 +6918,17 @@
       <c r="Y75" s="15"/>
     </row>
     <row r="76" spans="1:36">
-      <c r="A76" s="230" t="s">
+      <c r="A76" s="196" t="s">
         <v>221</v>
       </c>
-      <c r="B76" s="193"/>
-      <c r="C76" s="194" t="s">
+      <c r="B76" s="159"/>
+      <c r="C76" s="160" t="s">
         <v>293</v>
       </c>
-      <c r="D76" s="195" t="s">
+      <c r="D76" s="161" t="s">
         <v>99</v>
       </c>
-      <c r="E76" s="232" t="s">
+      <c r="E76" s="198" t="s">
         <v>120</v>
       </c>
       <c r="F76" s="31" t="s">
@@ -6967,13 +6967,13 @@
       <c r="W76" s="4"/>
     </row>
     <row r="77" spans="1:36">
-      <c r="A77" s="240" t="s">
+      <c r="A77" s="204" t="s">
         <v>245</v>
       </c>
-      <c r="B77" s="193"/>
-      <c r="C77" s="194"/>
-      <c r="D77" s="195"/>
-      <c r="E77" s="232"/>
+      <c r="B77" s="159"/>
+      <c r="C77" s="160"/>
+      <c r="D77" s="161"/>
+      <c r="E77" s="198"/>
       <c r="F77" s="51" t="s">
         <v>237</v>
       </c>
@@ -7086,17 +7086,17 @@
       <c r="W79" s="18"/>
     </row>
     <row r="80" spans="1:36">
-      <c r="A80" s="230" t="s">
+      <c r="A80" s="196" t="s">
         <v>222</v>
       </c>
-      <c r="B80" s="193"/>
-      <c r="C80" s="194" t="s">
+      <c r="B80" s="159"/>
+      <c r="C80" s="160" t="s">
         <v>294</v>
       </c>
-      <c r="D80" s="195" t="s">
+      <c r="D80" s="161" t="s">
         <v>99</v>
       </c>
-      <c r="E80" s="232" t="s">
+      <c r="E80" s="198" t="s">
         <v>121</v>
       </c>
       <c r="F80" s="31" t="s">
@@ -7142,13 +7142,13 @@
       <c r="AJ80" s="6"/>
     </row>
     <row r="81" spans="1:36">
-      <c r="A81" s="240" t="s">
+      <c r="A81" s="204" t="s">
         <v>245</v>
       </c>
-      <c r="B81" s="193"/>
-      <c r="C81" s="194"/>
-      <c r="D81" s="195"/>
-      <c r="E81" s="232"/>
+      <c r="B81" s="159"/>
+      <c r="C81" s="160"/>
+      <c r="D81" s="161"/>
+      <c r="E81" s="198"/>
       <c r="F81" s="51" t="s">
         <v>237</v>
       </c>
@@ -7269,17 +7269,17 @@
       <c r="W83" s="18"/>
     </row>
     <row r="84" spans="1:36">
-      <c r="A84" s="237" t="s">
+      <c r="A84" s="203" t="s">
         <v>227</v>
       </c>
-      <c r="B84" s="238" t="s">
+      <c r="B84" s="245" t="s">
         <v>239</v>
       </c>
-      <c r="C84" s="239"/>
-      <c r="D84" s="195" t="s">
+      <c r="C84" s="246"/>
+      <c r="D84" s="161" t="s">
         <v>99</v>
       </c>
-      <c r="E84" s="232" t="s">
+      <c r="E84" s="198" t="s">
         <v>223</v>
       </c>
       <c r="F84" s="49" t="s">
@@ -7325,15 +7325,15 @@
       <c r="AJ84" s="6"/>
     </row>
     <row r="85" spans="1:36">
-      <c r="A85" s="240" t="s">
+      <c r="A85" s="204" t="s">
         <v>245</v>
       </c>
-      <c r="B85" s="193"/>
-      <c r="C85" s="194"/>
-      <c r="D85" s="195" t="s">
+      <c r="B85" s="159"/>
+      <c r="C85" s="160"/>
+      <c r="D85" s="161" t="s">
         <v>49</v>
       </c>
-      <c r="E85" s="197" t="s">
+      <c r="E85" s="163" t="s">
         <v>233</v>
       </c>
       <c r="F85" s="51" t="s">
@@ -7360,13 +7360,13 @@
       <c r="W85" s="4"/>
     </row>
     <row r="86" spans="1:36">
-      <c r="A86" s="230"/>
-      <c r="B86" s="193"/>
-      <c r="C86" s="194"/>
-      <c r="D86" s="198" t="s">
+      <c r="A86" s="196"/>
+      <c r="B86" s="159"/>
+      <c r="C86" s="160"/>
+      <c r="D86" s="164" t="s">
         <v>41</v>
       </c>
-      <c r="E86" s="241" t="s">
+      <c r="E86" s="205" t="s">
         <v>231</v>
       </c>
       <c r="F86" s="54" t="s">
@@ -7399,11 +7399,11 @@
       <c r="W86" s="4"/>
     </row>
     <row r="87" spans="1:36" s="24" customFormat="1" ht="16" thickBot="1">
-      <c r="A87" s="242"/>
-      <c r="B87" s="235"/>
-      <c r="C87" s="227"/>
-      <c r="D87" s="235"/>
-      <c r="E87" s="243" t="s">
+      <c r="A87" s="206"/>
+      <c r="B87" s="201"/>
+      <c r="C87" s="193"/>
+      <c r="D87" s="201"/>
+      <c r="E87" s="207" t="s">
         <v>232</v>
       </c>
       <c r="F87" s="73" t="s">
@@ -7437,17 +7437,17 @@
       <c r="Y87" s="25"/>
     </row>
     <row r="88" spans="1:36">
-      <c r="A88" s="237" t="s">
+      <c r="A88" s="203" t="s">
         <v>228</v>
       </c>
-      <c r="B88" s="238" t="s">
+      <c r="B88" s="245" t="s">
         <v>239</v>
       </c>
-      <c r="C88" s="239"/>
-      <c r="D88" s="244" t="s">
+      <c r="C88" s="246"/>
+      <c r="D88" s="208" t="s">
         <v>99</v>
       </c>
-      <c r="E88" s="232" t="s">
+      <c r="E88" s="198" t="s">
         <v>224</v>
       </c>
       <c r="F88" s="32" t="s">
@@ -7480,12 +7480,12 @@
       <c r="W88" s="4"/>
     </row>
     <row r="89" spans="1:36">
-      <c r="A89" s="240" t="s">
+      <c r="A89" s="204" t="s">
         <v>245</v>
       </c>
-      <c r="B89" s="193"/>
-      <c r="C89" s="194"/>
-      <c r="D89" s="195" t="s">
+      <c r="B89" s="159"/>
+      <c r="C89" s="160"/>
+      <c r="D89" s="161" t="s">
         <v>49</v>
       </c>
       <c r="E89" s="117" t="s">
@@ -7515,13 +7515,13 @@
       <c r="W89" s="4"/>
     </row>
     <row r="90" spans="1:36">
-      <c r="A90" s="230"/>
-      <c r="B90" s="193"/>
-      <c r="C90" s="194"/>
-      <c r="D90" s="198" t="s">
+      <c r="A90" s="196"/>
+      <c r="B90" s="159"/>
+      <c r="C90" s="160"/>
+      <c r="D90" s="164" t="s">
         <v>41</v>
       </c>
-      <c r="E90" s="241" t="s">
+      <c r="E90" s="205" t="s">
         <v>231</v>
       </c>
       <c r="F90" s="54" t="s">
@@ -7554,11 +7554,11 @@
       <c r="W90" s="4"/>
     </row>
     <row r="91" spans="1:36" s="24" customFormat="1" ht="16" thickBot="1">
-      <c r="A91" s="242"/>
-      <c r="B91" s="235"/>
-      <c r="C91" s="227"/>
-      <c r="D91" s="235"/>
-      <c r="E91" s="243" t="s">
+      <c r="A91" s="206"/>
+      <c r="B91" s="201"/>
+      <c r="C91" s="193"/>
+      <c r="D91" s="201"/>
+      <c r="E91" s="207" t="s">
         <v>232</v>
       </c>
       <c r="F91" s="73" t="s">
@@ -7592,17 +7592,17 @@
       <c r="Y91" s="25"/>
     </row>
     <row r="92" spans="1:36">
-      <c r="A92" s="237" t="s">
+      <c r="A92" s="203" t="s">
         <v>229</v>
       </c>
-      <c r="B92" s="238" t="s">
+      <c r="B92" s="245" t="s">
         <v>240</v>
       </c>
-      <c r="C92" s="239"/>
-      <c r="D92" s="244" t="s">
+      <c r="C92" s="246"/>
+      <c r="D92" s="208" t="s">
         <v>99</v>
       </c>
-      <c r="E92" s="232" t="s">
+      <c r="E92" s="198" t="s">
         <v>225</v>
       </c>
       <c r="F92" s="32" t="s">
@@ -7635,12 +7635,12 @@
       <c r="W92" s="4"/>
     </row>
     <row r="93" spans="1:36">
-      <c r="A93" s="240" t="s">
+      <c r="A93" s="204" t="s">
         <v>245</v>
       </c>
-      <c r="B93" s="193"/>
-      <c r="C93" s="194"/>
-      <c r="D93" s="195" t="s">
+      <c r="B93" s="159"/>
+      <c r="C93" s="160"/>
+      <c r="D93" s="161" t="s">
         <v>49</v>
       </c>
       <c r="E93" s="117" t="s">
@@ -7670,13 +7670,13 @@
       <c r="W93" s="4"/>
     </row>
     <row r="94" spans="1:36">
-      <c r="A94" s="230"/>
-      <c r="B94" s="193"/>
-      <c r="C94" s="194"/>
-      <c r="D94" s="198" t="s">
+      <c r="A94" s="196"/>
+      <c r="B94" s="159"/>
+      <c r="C94" s="160"/>
+      <c r="D94" s="164" t="s">
         <v>41</v>
       </c>
-      <c r="E94" s="241" t="s">
+      <c r="E94" s="205" t="s">
         <v>231</v>
       </c>
       <c r="F94" s="54" t="s">
@@ -7709,11 +7709,11 @@
       <c r="W94" s="4"/>
     </row>
     <row r="95" spans="1:36" s="24" customFormat="1" ht="16" thickBot="1">
-      <c r="A95" s="242"/>
-      <c r="B95" s="235"/>
-      <c r="C95" s="227"/>
-      <c r="D95" s="235"/>
-      <c r="E95" s="243" t="s">
+      <c r="A95" s="206"/>
+      <c r="B95" s="201"/>
+      <c r="C95" s="193"/>
+      <c r="D95" s="201"/>
+      <c r="E95" s="207" t="s">
         <v>232</v>
       </c>
       <c r="F95" s="73" t="s">
@@ -7747,17 +7747,17 @@
       <c r="Y95" s="25"/>
     </row>
     <row r="96" spans="1:36">
-      <c r="A96" s="237" t="s">
+      <c r="A96" s="203" t="s">
         <v>230</v>
       </c>
-      <c r="B96" s="238" t="s">
+      <c r="B96" s="245" t="s">
         <v>240</v>
       </c>
-      <c r="C96" s="239"/>
-      <c r="D96" s="244" t="s">
+      <c r="C96" s="246"/>
+      <c r="D96" s="208" t="s">
         <v>99</v>
       </c>
-      <c r="E96" s="232" t="s">
+      <c r="E96" s="198" t="s">
         <v>226</v>
       </c>
       <c r="F96" s="32" t="s">
@@ -7790,15 +7790,15 @@
       <c r="W96" s="4"/>
     </row>
     <row r="97" spans="1:25">
-      <c r="A97" s="240" t="s">
+      <c r="A97" s="204" t="s">
         <v>245</v>
       </c>
-      <c r="B97" s="193"/>
-      <c r="C97" s="194"/>
-      <c r="D97" s="195" t="s">
+      <c r="B97" s="159"/>
+      <c r="C97" s="160"/>
+      <c r="D97" s="161" t="s">
         <v>49</v>
       </c>
-      <c r="E97" s="197" t="s">
+      <c r="E97" s="163" t="s">
         <v>236</v>
       </c>
       <c r="F97" s="51" t="s">
@@ -7825,13 +7825,13 @@
       <c r="W97" s="4"/>
     </row>
     <row r="98" spans="1:25">
-      <c r="A98" s="230"/>
-      <c r="B98" s="193"/>
-      <c r="C98" s="194"/>
-      <c r="D98" s="198" t="s">
+      <c r="A98" s="196"/>
+      <c r="B98" s="159"/>
+      <c r="C98" s="160"/>
+      <c r="D98" s="164" t="s">
         <v>41</v>
       </c>
-      <c r="E98" s="241" t="s">
+      <c r="E98" s="205" t="s">
         <v>231</v>
       </c>
       <c r="F98" s="54" t="s">
@@ -7864,11 +7864,11 @@
       <c r="W98" s="4"/>
     </row>
     <row r="99" spans="1:25" s="24" customFormat="1" ht="16" thickBot="1">
-      <c r="A99" s="242"/>
-      <c r="B99" s="235"/>
-      <c r="C99" s="227"/>
-      <c r="D99" s="245"/>
-      <c r="E99" s="243" t="s">
+      <c r="A99" s="206"/>
+      <c r="B99" s="201"/>
+      <c r="C99" s="193"/>
+      <c r="D99" s="209"/>
+      <c r="E99" s="207" t="s">
         <v>232</v>
       </c>
       <c r="F99" s="55" t="s">
@@ -7902,19 +7902,19 @@
       <c r="Y99" s="25"/>
     </row>
     <row r="100" spans="1:25" s="8" customFormat="1">
-      <c r="A100" s="192" t="s">
+      <c r="A100" s="158" t="s">
         <v>19</v>
       </c>
-      <c r="B100" s="193" t="s">
+      <c r="B100" s="159" t="s">
         <v>148</v>
       </c>
-      <c r="C100" s="194">
+      <c r="C100" s="160">
         <v>19</v>
       </c>
-      <c r="D100" s="195" t="s">
+      <c r="D100" s="161" t="s">
         <v>100</v>
       </c>
-      <c r="E100" s="197" t="s">
+      <c r="E100" s="163" t="s">
         <v>106</v>
       </c>
       <c r="F100" s="31" t="s">
@@ -7966,19 +7966,19 @@
       <c r="Y100" s="9"/>
     </row>
     <row r="101" spans="1:25" s="16" customFormat="1" ht="16" thickBot="1">
-      <c r="A101" s="246" t="s">
+      <c r="A101" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="B101" s="235" t="s">
+      <c r="B101" s="201" t="s">
         <v>148</v>
       </c>
-      <c r="C101" s="227">
+      <c r="C101" s="193">
         <v>20</v>
       </c>
-      <c r="D101" s="235" t="s">
+      <c r="D101" s="201" t="s">
         <v>100</v>
       </c>
-      <c r="E101" s="236" t="s">
+      <c r="E101" s="202" t="s">
         <v>107</v>
       </c>
       <c r="F101" s="50" t="s">
@@ -8030,17 +8030,17 @@
       <c r="Y101" s="15"/>
     </row>
     <row r="102" spans="1:25" s="3" customFormat="1">
-      <c r="A102" s="192" t="s">
+      <c r="A102" s="158" t="s">
         <v>292</v>
       </c>
-      <c r="B102" s="193"/>
-      <c r="C102" s="194" t="s">
+      <c r="B102" s="159"/>
+      <c r="C102" s="160" t="s">
         <v>293</v>
       </c>
-      <c r="D102" s="193" t="s">
+      <c r="D102" s="159" t="s">
         <v>306</v>
       </c>
-      <c r="E102" s="197"/>
+      <c r="E102" s="163"/>
       <c r="F102" s="10"/>
       <c r="G102" s="4"/>
       <c r="H102" s="10"/>
@@ -8066,19 +8066,19 @@
       <c r="Y102" s="9"/>
     </row>
     <row r="103" spans="1:25" s="8" customFormat="1">
-      <c r="A103" s="192" t="s">
+      <c r="A103" s="158" t="s">
         <v>21</v>
       </c>
-      <c r="B103" s="193" t="s">
+      <c r="B103" s="159" t="s">
         <v>149</v>
       </c>
-      <c r="C103" s="194">
+      <c r="C103" s="160">
         <v>23</v>
       </c>
-      <c r="D103" s="195" t="s">
+      <c r="D103" s="161" t="s">
         <v>563</v>
       </c>
-      <c r="E103" s="197" t="s">
+      <c r="E103" s="163" t="s">
         <v>128</v>
       </c>
       <c r="F103" s="31" t="s">
@@ -8122,19 +8122,19 @@
       <c r="Y103" s="9"/>
     </row>
     <row r="104" spans="1:25" s="8" customFormat="1">
-      <c r="A104" s="192" t="s">
+      <c r="A104" s="158" t="s">
         <v>22</v>
       </c>
-      <c r="B104" s="193" t="s">
+      <c r="B104" s="159" t="s">
         <v>149</v>
       </c>
-      <c r="C104" s="194">
+      <c r="C104" s="160">
         <v>24</v>
       </c>
-      <c r="D104" s="195" t="s">
+      <c r="D104" s="161" t="s">
         <v>564</v>
       </c>
-      <c r="E104" s="197" t="s">
+      <c r="E104" s="163" t="s">
         <v>130</v>
       </c>
       <c r="F104" s="31" t="s">
@@ -8176,19 +8176,19 @@
       <c r="Y104" s="9"/>
     </row>
     <row r="105" spans="1:25" s="8" customFormat="1">
-      <c r="A105" s="192" t="s">
+      <c r="A105" s="158" t="s">
         <v>23</v>
       </c>
-      <c r="B105" s="193" t="s">
+      <c r="B105" s="159" t="s">
         <v>149</v>
       </c>
-      <c r="C105" s="194">
+      <c r="C105" s="160">
         <v>25</v>
       </c>
-      <c r="D105" s="195" t="s">
+      <c r="D105" s="161" t="s">
         <v>565</v>
       </c>
-      <c r="E105" s="197" t="s">
+      <c r="E105" s="163" t="s">
         <v>137</v>
       </c>
       <c r="F105" s="31" t="s">
@@ -8248,7 +8248,7 @@
       <c r="B106" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C106" s="191">
+      <c r="C106" s="157">
         <v>28</v>
       </c>
       <c r="D106" s="5"/>
@@ -8338,12 +8338,12 @@
       </c>
       <c r="I108" s="4"/>
       <c r="J108" s="109"/>
-      <c r="K108" s="172" t="s">
+      <c r="K108" s="233" t="s">
         <v>457</v>
       </c>
-      <c r="L108" s="173"/>
-      <c r="M108" s="174"/>
-      <c r="N108" s="169" t="s">
+      <c r="L108" s="234"/>
+      <c r="M108" s="235"/>
+      <c r="N108" s="230" t="s">
         <v>464</v>
       </c>
       <c r="O108" s="4"/>
@@ -8371,10 +8371,10 @@
       <c r="H109" s="5"/>
       <c r="I109" s="4"/>
       <c r="J109" s="109"/>
-      <c r="K109" s="175"/>
-      <c r="L109" s="176"/>
-      <c r="M109" s="177"/>
-      <c r="N109" s="170"/>
+      <c r="K109" s="236"/>
+      <c r="L109" s="237"/>
+      <c r="M109" s="238"/>
+      <c r="N109" s="231"/>
       <c r="O109" s="4"/>
       <c r="P109" s="5"/>
       <c r="Q109" s="4"/>
@@ -8402,10 +8402,10 @@
       </c>
       <c r="I110" s="4"/>
       <c r="J110" s="109"/>
-      <c r="K110" s="175"/>
-      <c r="L110" s="176"/>
-      <c r="M110" s="177"/>
-      <c r="N110" s="170"/>
+      <c r="K110" s="236"/>
+      <c r="L110" s="237"/>
+      <c r="M110" s="238"/>
+      <c r="N110" s="231"/>
       <c r="O110" s="4"/>
       <c r="P110" s="5"/>
       <c r="Q110" s="4"/>
@@ -8433,10 +8433,10 @@
       <c r="J111" s="110" t="s">
         <v>361</v>
       </c>
-      <c r="K111" s="178"/>
-      <c r="L111" s="179"/>
-      <c r="M111" s="180"/>
-      <c r="N111" s="171"/>
+      <c r="K111" s="239"/>
+      <c r="L111" s="240"/>
+      <c r="M111" s="241"/>
+      <c r="N111" s="232"/>
       <c r="O111" s="18"/>
       <c r="P111" s="17"/>
       <c r="Q111" s="18"/>
@@ -8455,7 +8455,7 @@
       <c r="B112" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C112" s="191">
+      <c r="C112" s="157">
         <v>36</v>
       </c>
       <c r="D112" s="5"/>
@@ -8495,19 +8495,19 @@
       <c r="Y112" s="9"/>
     </row>
     <row r="113" spans="1:25">
-      <c r="A113" s="192" t="s">
+      <c r="A113" s="158" t="s">
         <v>25</v>
       </c>
-      <c r="B113" s="193" t="s">
+      <c r="B113" s="159" t="s">
         <v>148</v>
       </c>
-      <c r="C113" s="194">
+      <c r="C113" s="160">
         <v>37</v>
       </c>
-      <c r="D113" s="195" t="s">
+      <c r="D113" s="161" t="s">
         <v>100</v>
       </c>
-      <c r="E113" s="197" t="s">
+      <c r="E113" s="163" t="s">
         <v>182</v>
       </c>
       <c r="F113" s="31" t="s">
@@ -8546,19 +8546,19 @@
       <c r="W113" s="4"/>
     </row>
     <row r="114" spans="1:25" s="24" customFormat="1" ht="16" thickBot="1">
-      <c r="A114" s="246" t="s">
+      <c r="A114" s="210" t="s">
         <v>26</v>
       </c>
-      <c r="B114" s="235" t="s">
+      <c r="B114" s="201" t="s">
         <v>148</v>
       </c>
-      <c r="C114" s="227">
+      <c r="C114" s="193">
         <v>38</v>
       </c>
-      <c r="D114" s="235" t="s">
+      <c r="D114" s="201" t="s">
         <v>100</v>
       </c>
-      <c r="E114" s="236" t="s">
+      <c r="E114" s="202" t="s">
         <v>144</v>
       </c>
       <c r="F114" s="50" t="s">
@@ -8608,19 +8608,19 @@
       <c r="Y114" s="25"/>
     </row>
     <row r="115" spans="1:25">
-      <c r="A115" s="192" t="s">
+      <c r="A115" s="158" t="s">
         <v>27</v>
       </c>
-      <c r="B115" s="193" t="s">
+      <c r="B115" s="159" t="s">
         <v>161</v>
       </c>
-      <c r="C115" s="194">
+      <c r="C115" s="160">
         <v>39</v>
       </c>
-      <c r="D115" s="254" t="s">
+      <c r="D115" s="218" t="s">
         <v>544</v>
       </c>
-      <c r="E115" s="197" t="s">
+      <c r="E115" s="163" t="s">
         <v>209</v>
       </c>
       <c r="F115" s="31" t="s">
@@ -8659,13 +8659,13 @@
       <c r="W115" s="4"/>
     </row>
     <row r="116" spans="1:25">
-      <c r="A116" s="192"/>
-      <c r="B116" s="193"/>
-      <c r="C116" s="194"/>
-      <c r="D116" s="254" t="s">
+      <c r="A116" s="158"/>
+      <c r="B116" s="159"/>
+      <c r="C116" s="160"/>
+      <c r="D116" s="218" t="s">
         <v>550</v>
       </c>
-      <c r="E116" s="197" t="s">
+      <c r="E116" s="163" t="s">
         <v>217</v>
       </c>
       <c r="F116" s="31"/>
@@ -8688,13 +8688,13 @@
       <c r="W116" s="4"/>
     </row>
     <row r="117" spans="1:25">
-      <c r="A117" s="192"/>
-      <c r="B117" s="193"/>
-      <c r="C117" s="194"/>
-      <c r="D117" s="254" t="s">
+      <c r="A117" s="158"/>
+      <c r="B117" s="159"/>
+      <c r="C117" s="160"/>
+      <c r="D117" s="218" t="s">
         <v>551</v>
       </c>
-      <c r="E117" s="197" t="s">
+      <c r="E117" s="163" t="s">
         <v>218</v>
       </c>
       <c r="F117" s="31"/>
@@ -8717,13 +8717,13 @@
       <c r="W117" s="4"/>
     </row>
     <row r="118" spans="1:25">
-      <c r="A118" s="197"/>
-      <c r="B118" s="193"/>
-      <c r="C118" s="194"/>
-      <c r="D118" s="254" t="s">
+      <c r="A118" s="163"/>
+      <c r="B118" s="159"/>
+      <c r="C118" s="160"/>
+      <c r="D118" s="218" t="s">
         <v>545</v>
       </c>
-      <c r="E118" s="197" t="s">
+      <c r="E118" s="163" t="s">
         <v>184</v>
       </c>
       <c r="F118" s="31" t="s">
@@ -8764,13 +8764,13 @@
       <c r="W118" s="4"/>
     </row>
     <row r="119" spans="1:25">
-      <c r="A119" s="197"/>
-      <c r="B119" s="193"/>
-      <c r="C119" s="194"/>
-      <c r="D119" s="254" t="s">
+      <c r="A119" s="163"/>
+      <c r="B119" s="159"/>
+      <c r="C119" s="160"/>
+      <c r="D119" s="218" t="s">
         <v>552</v>
       </c>
-      <c r="E119" s="197"/>
+      <c r="E119" s="163"/>
       <c r="F119" s="31"/>
       <c r="G119" s="4"/>
       <c r="H119" s="5"/>
@@ -8791,13 +8791,13 @@
       <c r="W119" s="4"/>
     </row>
     <row r="120" spans="1:25">
-      <c r="A120" s="197"/>
-      <c r="B120" s="193"/>
-      <c r="C120" s="194"/>
-      <c r="D120" s="254" t="s">
+      <c r="A120" s="163"/>
+      <c r="B120" s="159"/>
+      <c r="C120" s="160"/>
+      <c r="D120" s="218" t="s">
         <v>546</v>
       </c>
-      <c r="E120" s="197" t="s">
+      <c r="E120" s="163" t="s">
         <v>184</v>
       </c>
       <c r="F120" s="31" t="s">
@@ -8836,13 +8836,13 @@
       <c r="W120" s="4"/>
     </row>
     <row r="121" spans="1:25">
-      <c r="A121" s="197"/>
-      <c r="B121" s="193"/>
-      <c r="C121" s="194"/>
-      <c r="D121" s="254" t="s">
+      <c r="A121" s="163"/>
+      <c r="B121" s="159"/>
+      <c r="C121" s="160"/>
+      <c r="D121" s="218" t="s">
         <v>552</v>
       </c>
-      <c r="E121" s="197"/>
+      <c r="E121" s="163"/>
       <c r="F121" s="31"/>
       <c r="G121" s="4"/>
       <c r="H121" s="5"/>
@@ -8863,13 +8863,13 @@
       <c r="W121" s="4"/>
     </row>
     <row r="122" spans="1:25">
-      <c r="A122" s="197"/>
-      <c r="B122" s="193"/>
-      <c r="C122" s="194"/>
-      <c r="D122" s="254" t="s">
+      <c r="A122" s="163"/>
+      <c r="B122" s="159"/>
+      <c r="C122" s="160"/>
+      <c r="D122" s="218" t="s">
         <v>547</v>
       </c>
-      <c r="E122" s="197" t="s">
+      <c r="E122" s="163" t="s">
         <v>184</v>
       </c>
       <c r="F122" s="31" t="s">
@@ -8907,18 +8907,18 @@
       <c r="V122" s="49" t="s">
         <v>444</v>
       </c>
-      <c r="W122" s="183" t="s">
+      <c r="W122" s="244" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="123" spans="1:25">
-      <c r="A123" s="197"/>
-      <c r="B123" s="193"/>
-      <c r="C123" s="194"/>
-      <c r="D123" s="254" t="s">
+      <c r="A123" s="163"/>
+      <c r="B123" s="159"/>
+      <c r="C123" s="160"/>
+      <c r="D123" s="218" t="s">
         <v>552</v>
       </c>
-      <c r="E123" s="197"/>
+      <c r="E123" s="163"/>
       <c r="F123" s="31"/>
       <c r="G123" s="33"/>
       <c r="H123" s="31"/>
@@ -8936,16 +8936,16 @@
       <c r="T123" s="31"/>
       <c r="U123" s="33"/>
       <c r="V123" s="49"/>
-      <c r="W123" s="183"/>
+      <c r="W123" s="244"/>
     </row>
     <row r="124" spans="1:25">
-      <c r="A124" s="197"/>
-      <c r="B124" s="193"/>
-      <c r="C124" s="194"/>
-      <c r="D124" s="254" t="s">
+      <c r="A124" s="163"/>
+      <c r="B124" s="159"/>
+      <c r="C124" s="160"/>
+      <c r="D124" s="218" t="s">
         <v>548</v>
       </c>
-      <c r="E124" s="197" t="s">
+      <c r="E124" s="163" t="s">
         <v>184</v>
       </c>
       <c r="F124" s="10"/>
@@ -8971,16 +8971,16 @@
       <c r="V124" s="49" t="s">
         <v>445</v>
       </c>
-      <c r="W124" s="183"/>
+      <c r="W124" s="244"/>
     </row>
     <row r="125" spans="1:25">
-      <c r="A125" s="197"/>
-      <c r="B125" s="193"/>
-      <c r="C125" s="194"/>
-      <c r="D125" s="254" t="s">
+      <c r="A125" s="163"/>
+      <c r="B125" s="159"/>
+      <c r="C125" s="160"/>
+      <c r="D125" s="218" t="s">
         <v>552</v>
       </c>
-      <c r="E125" s="197"/>
+      <c r="E125" s="163"/>
       <c r="F125" s="10"/>
       <c r="G125" s="57"/>
       <c r="H125" s="5"/>
@@ -8998,16 +8998,16 @@
       <c r="T125" s="31"/>
       <c r="U125" s="33"/>
       <c r="V125" s="49"/>
-      <c r="W125" s="183"/>
+      <c r="W125" s="244"/>
     </row>
     <row r="126" spans="1:25">
-      <c r="A126" s="197"/>
-      <c r="B126" s="193"/>
-      <c r="C126" s="194"/>
-      <c r="D126" s="254" t="s">
+      <c r="A126" s="163"/>
+      <c r="B126" s="159"/>
+      <c r="C126" s="160"/>
+      <c r="D126" s="218" t="s">
         <v>549</v>
       </c>
-      <c r="E126" s="197" t="s">
+      <c r="E126" s="163" t="s">
         <v>184</v>
       </c>
       <c r="F126" s="10"/>
@@ -9033,16 +9033,16 @@
       <c r="V126" s="49" t="s">
         <v>446</v>
       </c>
-      <c r="W126" s="183"/>
+      <c r="W126" s="244"/>
     </row>
     <row r="127" spans="1:25">
-      <c r="A127" s="197"/>
-      <c r="B127" s="193"/>
-      <c r="C127" s="194"/>
-      <c r="D127" s="254" t="s">
+      <c r="A127" s="163"/>
+      <c r="B127" s="159"/>
+      <c r="C127" s="160"/>
+      <c r="D127" s="218" t="s">
         <v>552</v>
       </c>
-      <c r="E127" s="197"/>
+      <c r="E127" s="163"/>
       <c r="F127" s="10"/>
       <c r="G127" s="4"/>
       <c r="H127" s="5"/>
@@ -9060,16 +9060,16 @@
       <c r="T127" s="31"/>
       <c r="U127" s="33"/>
       <c r="V127" s="49"/>
-      <c r="W127" s="183"/>
+      <c r="W127" s="244"/>
     </row>
     <row r="128" spans="1:25">
-      <c r="A128" s="197"/>
-      <c r="B128" s="193"/>
-      <c r="C128" s="194"/>
-      <c r="D128" s="250" t="s">
+      <c r="A128" s="163"/>
+      <c r="B128" s="159"/>
+      <c r="C128" s="160"/>
+      <c r="D128" s="214" t="s">
         <v>100</v>
       </c>
-      <c r="E128" s="251" t="s">
+      <c r="E128" s="215" t="s">
         <v>184</v>
       </c>
       <c r="F128" s="10"/>
@@ -9095,16 +9095,16 @@
       <c r="V128" s="49" t="s">
         <v>448</v>
       </c>
-      <c r="W128" s="183"/>
+      <c r="W128" s="244"/>
     </row>
     <row r="129" spans="1:25" s="24" customFormat="1" ht="16" thickBot="1">
-      <c r="A129" s="236"/>
-      <c r="B129" s="235"/>
-      <c r="C129" s="227"/>
-      <c r="D129" s="252" t="s">
+      <c r="A129" s="202"/>
+      <c r="B129" s="201"/>
+      <c r="C129" s="193"/>
+      <c r="D129" s="216" t="s">
         <v>100</v>
       </c>
-      <c r="E129" s="253" t="s">
+      <c r="E129" s="217" t="s">
         <v>184</v>
       </c>
       <c r="F129" s="17"/>
@@ -9128,19 +9128,19 @@
       <c r="Y129" s="25"/>
     </row>
     <row r="130" spans="1:25">
-      <c r="A130" s="192" t="s">
+      <c r="A130" s="158" t="s">
         <v>28</v>
       </c>
-      <c r="B130" s="193" t="s">
+      <c r="B130" s="159" t="s">
         <v>161</v>
       </c>
-      <c r="C130" s="194">
+      <c r="C130" s="160">
         <v>40</v>
       </c>
-      <c r="D130" s="254" t="s">
+      <c r="D130" s="218" t="s">
         <v>557</v>
       </c>
-      <c r="E130" s="197" t="s">
+      <c r="E130" s="163" t="s">
         <v>432</v>
       </c>
       <c r="F130" s="31" t="s">
@@ -9159,7 +9159,7 @@
       <c r="M130" s="48" t="s">
         <v>449</v>
       </c>
-      <c r="N130" s="169" t="s">
+      <c r="N130" s="230" t="s">
         <v>466</v>
       </c>
       <c r="O130" s="4"/>
@@ -9173,13 +9173,13 @@
       <c r="W130" s="4"/>
     </row>
     <row r="131" spans="1:25">
-      <c r="A131" s="192"/>
-      <c r="B131" s="193"/>
-      <c r="C131" s="194"/>
-      <c r="D131" s="254" t="s">
+      <c r="A131" s="158"/>
+      <c r="B131" s="159"/>
+      <c r="C131" s="160"/>
+      <c r="D131" s="218" t="s">
         <v>558</v>
       </c>
-      <c r="E131" s="197" t="s">
+      <c r="E131" s="163" t="s">
         <v>553</v>
       </c>
       <c r="F131" s="31"/>
@@ -9190,7 +9190,7 @@
       <c r="K131" s="49"/>
       <c r="L131" s="48"/>
       <c r="M131" s="48"/>
-      <c r="N131" s="170"/>
+      <c r="N131" s="231"/>
       <c r="O131" s="4"/>
       <c r="P131" s="5"/>
       <c r="Q131" s="4"/>
@@ -9202,13 +9202,13 @@
       <c r="W131" s="4"/>
     </row>
     <row r="132" spans="1:25">
-      <c r="A132" s="192"/>
-      <c r="B132" s="193"/>
-      <c r="C132" s="194"/>
-      <c r="D132" s="254" t="s">
+      <c r="A132" s="158"/>
+      <c r="B132" s="159"/>
+      <c r="C132" s="160"/>
+      <c r="D132" s="218" t="s">
         <v>559</v>
       </c>
-      <c r="E132" s="197" t="s">
+      <c r="E132" s="163" t="s">
         <v>554</v>
       </c>
       <c r="F132" s="31"/>
@@ -9219,7 +9219,7 @@
       <c r="K132" s="49"/>
       <c r="L132" s="48"/>
       <c r="M132" s="48"/>
-      <c r="N132" s="170"/>
+      <c r="N132" s="231"/>
       <c r="O132" s="4"/>
       <c r="P132" s="5"/>
       <c r="Q132" s="4"/>
@@ -9231,13 +9231,13 @@
       <c r="W132" s="4"/>
     </row>
     <row r="133" spans="1:25">
-      <c r="A133" s="197"/>
-      <c r="B133" s="193"/>
-      <c r="C133" s="194"/>
-      <c r="D133" s="195" t="s">
+      <c r="A133" s="163"/>
+      <c r="B133" s="159"/>
+      <c r="C133" s="160"/>
+      <c r="D133" s="161" t="s">
         <v>100</v>
       </c>
-      <c r="E133" s="197" t="s">
+      <c r="E133" s="163" t="s">
         <v>185</v>
       </c>
       <c r="F133" s="32" t="s">
@@ -9256,7 +9256,7 @@
       <c r="M133" s="48" t="s">
         <v>450</v>
       </c>
-      <c r="N133" s="170"/>
+      <c r="N133" s="231"/>
       <c r="O133" s="4"/>
       <c r="P133" s="5"/>
       <c r="Q133" s="4"/>
@@ -9268,13 +9268,13 @@
       <c r="W133" s="4"/>
     </row>
     <row r="134" spans="1:25">
-      <c r="A134" s="197"/>
-      <c r="B134" s="193"/>
-      <c r="C134" s="194"/>
-      <c r="D134" s="254" t="s">
+      <c r="A134" s="163"/>
+      <c r="B134" s="159"/>
+      <c r="C134" s="160"/>
+      <c r="D134" s="218" t="s">
         <v>552</v>
       </c>
-      <c r="E134" s="197"/>
+      <c r="E134" s="163"/>
       <c r="F134" s="32"/>
       <c r="G134" s="4"/>
       <c r="H134" s="5"/>
@@ -9283,7 +9283,7 @@
       <c r="K134" s="49"/>
       <c r="L134" s="48"/>
       <c r="M134" s="48"/>
-      <c r="N134" s="170"/>
+      <c r="N134" s="231"/>
       <c r="O134" s="4"/>
       <c r="P134" s="5"/>
       <c r="Q134" s="4"/>
@@ -9295,13 +9295,13 @@
       <c r="W134" s="4"/>
     </row>
     <row r="135" spans="1:25">
-      <c r="A135" s="197"/>
-      <c r="B135" s="193"/>
-      <c r="C135" s="194"/>
-      <c r="D135" s="195" t="s">
+      <c r="A135" s="163"/>
+      <c r="B135" s="159"/>
+      <c r="C135" s="160"/>
+      <c r="D135" s="161" t="s">
         <v>100</v>
       </c>
-      <c r="E135" s="197" t="s">
+      <c r="E135" s="163" t="s">
         <v>185</v>
       </c>
       <c r="F135" s="32" t="s">
@@ -9320,7 +9320,7 @@
       <c r="M135" s="48" t="s">
         <v>451</v>
       </c>
-      <c r="N135" s="170"/>
+      <c r="N135" s="231"/>
       <c r="O135" s="4"/>
       <c r="P135" s="5"/>
       <c r="Q135" s="4"/>
@@ -9332,13 +9332,13 @@
       <c r="W135" s="4"/>
     </row>
     <row r="136" spans="1:25">
-      <c r="A136" s="197"/>
-      <c r="B136" s="193"/>
-      <c r="C136" s="194"/>
-      <c r="D136" s="254" t="s">
+      <c r="A136" s="163"/>
+      <c r="B136" s="159"/>
+      <c r="C136" s="160"/>
+      <c r="D136" s="218" t="s">
         <v>552</v>
       </c>
-      <c r="E136" s="197"/>
+      <c r="E136" s="163"/>
       <c r="F136" s="32"/>
       <c r="G136" s="4"/>
       <c r="H136" s="5"/>
@@ -9347,7 +9347,7 @@
       <c r="K136" s="49"/>
       <c r="L136" s="48"/>
       <c r="M136" s="48"/>
-      <c r="N136" s="170"/>
+      <c r="N136" s="231"/>
       <c r="O136" s="4"/>
       <c r="P136" s="5"/>
       <c r="Q136" s="4"/>
@@ -9359,13 +9359,13 @@
       <c r="W136" s="4"/>
     </row>
     <row r="137" spans="1:25">
-      <c r="A137" s="197"/>
-      <c r="B137" s="193"/>
-      <c r="C137" s="194"/>
-      <c r="D137" s="195" t="s">
+      <c r="A137" s="163"/>
+      <c r="B137" s="159"/>
+      <c r="C137" s="160"/>
+      <c r="D137" s="161" t="s">
         <v>100</v>
       </c>
-      <c r="E137" s="197" t="s">
+      <c r="E137" s="163" t="s">
         <v>185</v>
       </c>
       <c r="F137" s="31" t="s">
@@ -9388,7 +9388,7 @@
       <c r="M137" s="48" t="s">
         <v>452</v>
       </c>
-      <c r="N137" s="170"/>
+      <c r="N137" s="231"/>
       <c r="O137" s="4"/>
       <c r="P137" s="5"/>
       <c r="Q137" s="4"/>
@@ -9400,13 +9400,13 @@
       <c r="W137" s="4"/>
     </row>
     <row r="138" spans="1:25">
-      <c r="A138" s="197"/>
-      <c r="B138" s="193"/>
-      <c r="C138" s="194"/>
-      <c r="D138" s="254" t="s">
+      <c r="A138" s="163"/>
+      <c r="B138" s="159"/>
+      <c r="C138" s="160"/>
+      <c r="D138" s="218" t="s">
         <v>552</v>
       </c>
-      <c r="E138" s="197"/>
+      <c r="E138" s="163"/>
       <c r="F138" s="31"/>
       <c r="G138" s="33"/>
       <c r="H138" s="31"/>
@@ -9415,7 +9415,7 @@
       <c r="K138" s="49"/>
       <c r="L138" s="48"/>
       <c r="M138" s="48"/>
-      <c r="N138" s="170"/>
+      <c r="N138" s="231"/>
       <c r="O138" s="4"/>
       <c r="P138" s="5"/>
       <c r="Q138" s="4"/>
@@ -9427,13 +9427,13 @@
       <c r="W138" s="4"/>
     </row>
     <row r="139" spans="1:25">
-      <c r="A139" s="197"/>
-      <c r="B139" s="193"/>
-      <c r="C139" s="194"/>
-      <c r="D139" s="195" t="s">
+      <c r="A139" s="163"/>
+      <c r="B139" s="159"/>
+      <c r="C139" s="160"/>
+      <c r="D139" s="161" t="s">
         <v>100</v>
       </c>
-      <c r="E139" s="197" t="s">
+      <c r="E139" s="163" t="s">
         <v>185</v>
       </c>
       <c r="F139" s="31"/>
@@ -9444,7 +9444,7 @@
       <c r="K139" s="49"/>
       <c r="L139" s="48"/>
       <c r="M139" s="48"/>
-      <c r="N139" s="170"/>
+      <c r="N139" s="231"/>
       <c r="O139" s="4"/>
       <c r="P139" s="5"/>
       <c r="Q139" s="4"/>
@@ -9456,13 +9456,13 @@
       <c r="W139" s="4"/>
     </row>
     <row r="140" spans="1:25" s="24" customFormat="1" ht="16" thickBot="1">
-      <c r="A140" s="236"/>
-      <c r="B140" s="235"/>
-      <c r="C140" s="227"/>
-      <c r="D140" s="255" t="s">
+      <c r="A140" s="202"/>
+      <c r="B140" s="201"/>
+      <c r="C140" s="193"/>
+      <c r="D140" s="219" t="s">
         <v>552</v>
       </c>
-      <c r="E140" s="236"/>
+      <c r="E140" s="202"/>
       <c r="F140" s="17"/>
       <c r="G140" s="18"/>
       <c r="H140" s="17"/>
@@ -9471,7 +9471,7 @@
       <c r="K140" s="120"/>
       <c r="L140" s="89"/>
       <c r="M140" s="89"/>
-      <c r="N140" s="171"/>
+      <c r="N140" s="232"/>
       <c r="O140" s="18"/>
       <c r="P140" s="17"/>
       <c r="Q140" s="18"/>
@@ -9484,19 +9484,19 @@
       <c r="Y140" s="25"/>
     </row>
     <row r="141" spans="1:25">
-      <c r="A141" s="192" t="s">
+      <c r="A141" s="158" t="s">
         <v>29</v>
       </c>
-      <c r="B141" s="193" t="s">
+      <c r="B141" s="159" t="s">
         <v>161</v>
       </c>
-      <c r="C141" s="194">
+      <c r="C141" s="160">
         <v>41</v>
       </c>
-      <c r="D141" s="254" t="s">
+      <c r="D141" s="218" t="s">
         <v>560</v>
       </c>
-      <c r="E141" s="197" t="s">
+      <c r="E141" s="163" t="s">
         <v>441</v>
       </c>
       <c r="F141" s="31" t="s">
@@ -9515,7 +9515,7 @@
       <c r="M141" s="48" t="s">
         <v>453</v>
       </c>
-      <c r="N141" s="169" t="s">
+      <c r="N141" s="230" t="s">
         <v>467</v>
       </c>
       <c r="O141" s="4"/>
@@ -9529,13 +9529,13 @@
       <c r="W141" s="4"/>
     </row>
     <row r="142" spans="1:25">
-      <c r="A142" s="192"/>
-      <c r="B142" s="193"/>
-      <c r="C142" s="194"/>
-      <c r="D142" s="254" t="s">
+      <c r="A142" s="158"/>
+      <c r="B142" s="159"/>
+      <c r="C142" s="160"/>
+      <c r="D142" s="218" t="s">
         <v>561</v>
       </c>
-      <c r="E142" s="197" t="s">
+      <c r="E142" s="163" t="s">
         <v>555</v>
       </c>
       <c r="F142" s="31"/>
@@ -9546,7 +9546,7 @@
       <c r="K142" s="49"/>
       <c r="L142" s="48"/>
       <c r="M142" s="48"/>
-      <c r="N142" s="170"/>
+      <c r="N142" s="231"/>
       <c r="O142" s="4"/>
       <c r="P142" s="5"/>
       <c r="Q142" s="4"/>
@@ -9558,13 +9558,13 @@
       <c r="W142" s="4"/>
     </row>
     <row r="143" spans="1:25">
-      <c r="A143" s="192"/>
-      <c r="B143" s="193"/>
-      <c r="C143" s="194"/>
-      <c r="D143" s="254" t="s">
+      <c r="A143" s="158"/>
+      <c r="B143" s="159"/>
+      <c r="C143" s="160"/>
+      <c r="D143" s="218" t="s">
         <v>562</v>
       </c>
-      <c r="E143" s="197" t="s">
+      <c r="E143" s="163" t="s">
         <v>556</v>
       </c>
       <c r="F143" s="31"/>
@@ -9575,7 +9575,7 @@
       <c r="K143" s="49"/>
       <c r="L143" s="48"/>
       <c r="M143" s="48"/>
-      <c r="N143" s="170"/>
+      <c r="N143" s="231"/>
       <c r="O143" s="4"/>
       <c r="P143" s="5"/>
       <c r="Q143" s="4"/>
@@ -9587,13 +9587,13 @@
       <c r="W143" s="4"/>
     </row>
     <row r="144" spans="1:25">
-      <c r="A144" s="197"/>
-      <c r="B144" s="193"/>
-      <c r="C144" s="194"/>
-      <c r="D144" s="195" t="s">
+      <c r="A144" s="163"/>
+      <c r="B144" s="159"/>
+      <c r="C144" s="160"/>
+      <c r="D144" s="161" t="s">
         <v>100</v>
       </c>
-      <c r="E144" s="197" t="s">
+      <c r="E144" s="163" t="s">
         <v>186</v>
       </c>
       <c r="F144" s="31" t="s">
@@ -9612,7 +9612,7 @@
       <c r="M144" s="48" t="s">
         <v>454</v>
       </c>
-      <c r="N144" s="170"/>
+      <c r="N144" s="231"/>
       <c r="O144" s="4"/>
       <c r="P144" s="5"/>
       <c r="Q144" s="4"/>
@@ -9624,13 +9624,13 @@
       <c r="W144" s="4"/>
     </row>
     <row r="145" spans="1:25">
-      <c r="A145" s="197"/>
-      <c r="B145" s="193"/>
-      <c r="C145" s="194"/>
-      <c r="D145" s="254" t="s">
+      <c r="A145" s="163"/>
+      <c r="B145" s="159"/>
+      <c r="C145" s="160"/>
+      <c r="D145" s="218" t="s">
         <v>552</v>
       </c>
-      <c r="E145" s="197"/>
+      <c r="E145" s="163"/>
       <c r="F145" s="31"/>
       <c r="G145" s="4"/>
       <c r="H145" s="5"/>
@@ -9639,7 +9639,7 @@
       <c r="K145" s="49"/>
       <c r="L145" s="48"/>
       <c r="M145" s="48"/>
-      <c r="N145" s="170"/>
+      <c r="N145" s="231"/>
       <c r="O145" s="4"/>
       <c r="P145" s="5"/>
       <c r="Q145" s="4"/>
@@ -9651,13 +9651,13 @@
       <c r="W145" s="4"/>
     </row>
     <row r="146" spans="1:25">
-      <c r="A146" s="197"/>
-      <c r="B146" s="193"/>
-      <c r="C146" s="194"/>
-      <c r="D146" s="195" t="s">
+      <c r="A146" s="163"/>
+      <c r="B146" s="159"/>
+      <c r="C146" s="160"/>
+      <c r="D146" s="161" t="s">
         <v>100</v>
       </c>
-      <c r="E146" s="197" t="s">
+      <c r="E146" s="163" t="s">
         <v>186</v>
       </c>
       <c r="F146" s="31" t="s">
@@ -9676,7 +9676,7 @@
       <c r="M146" s="48" t="s">
         <v>455</v>
       </c>
-      <c r="N146" s="170"/>
+      <c r="N146" s="231"/>
       <c r="O146" s="4"/>
       <c r="P146" s="5"/>
       <c r="Q146" s="4"/>
@@ -9688,13 +9688,13 @@
       <c r="W146" s="4"/>
     </row>
     <row r="147" spans="1:25">
-      <c r="A147" s="197"/>
-      <c r="B147" s="193"/>
-      <c r="C147" s="194"/>
-      <c r="D147" s="254" t="s">
+      <c r="A147" s="163"/>
+      <c r="B147" s="159"/>
+      <c r="C147" s="160"/>
+      <c r="D147" s="218" t="s">
         <v>552</v>
       </c>
-      <c r="E147" s="197"/>
+      <c r="E147" s="163"/>
       <c r="F147" s="31"/>
       <c r="G147" s="4"/>
       <c r="H147" s="5"/>
@@ -9703,7 +9703,7 @@
       <c r="K147" s="49"/>
       <c r="L147" s="48"/>
       <c r="M147" s="48"/>
-      <c r="N147" s="170"/>
+      <c r="N147" s="231"/>
       <c r="O147" s="4"/>
       <c r="P147" s="5"/>
       <c r="Q147" s="4"/>
@@ -9715,13 +9715,13 @@
       <c r="W147" s="4"/>
     </row>
     <row r="148" spans="1:25">
-      <c r="A148" s="197"/>
-      <c r="B148" s="193"/>
-      <c r="C148" s="194"/>
-      <c r="D148" s="195" t="s">
+      <c r="A148" s="163"/>
+      <c r="B148" s="159"/>
+      <c r="C148" s="160"/>
+      <c r="D148" s="161" t="s">
         <v>100</v>
       </c>
-      <c r="E148" s="197" t="s">
+      <c r="E148" s="163" t="s">
         <v>186</v>
       </c>
       <c r="F148" s="31"/>
@@ -9732,7 +9732,7 @@
       <c r="K148" s="49"/>
       <c r="L148" s="48"/>
       <c r="M148" s="48"/>
-      <c r="N148" s="170"/>
+      <c r="N148" s="231"/>
       <c r="O148" s="4"/>
       <c r="P148" s="5"/>
       <c r="Q148" s="4"/>
@@ -9744,13 +9744,13 @@
       <c r="W148" s="4"/>
     </row>
     <row r="149" spans="1:25" s="24" customFormat="1" ht="16" thickBot="1">
-      <c r="A149" s="236"/>
-      <c r="B149" s="235"/>
-      <c r="C149" s="227"/>
-      <c r="D149" s="256" t="s">
+      <c r="A149" s="202"/>
+      <c r="B149" s="201"/>
+      <c r="C149" s="193"/>
+      <c r="D149" s="220" t="s">
         <v>552</v>
       </c>
-      <c r="E149" s="236"/>
+      <c r="E149" s="202"/>
       <c r="F149" s="50" t="s">
         <v>336</v>
       </c>
@@ -9771,7 +9771,7 @@
       <c r="M149" s="72" t="s">
         <v>456</v>
       </c>
-      <c r="N149" s="171"/>
+      <c r="N149" s="232"/>
       <c r="O149" s="18"/>
       <c r="P149" s="17"/>
       <c r="Q149" s="18"/>
@@ -9810,68 +9810,68 @@
       <c r="Y151" s="11"/>
     </row>
     <row r="152" spans="1:25">
-      <c r="A152" s="197" t="s">
+      <c r="A152" s="163" t="s">
         <v>307</v>
       </c>
-      <c r="B152" s="193"/>
-      <c r="C152" s="257" t="s">
+      <c r="B152" s="159"/>
+      <c r="C152" s="229" t="s">
         <v>241</v>
       </c>
-      <c r="D152" s="195" t="s">
+      <c r="D152" s="161" t="s">
         <v>567</v>
       </c>
-      <c r="E152" s="197" t="s">
+      <c r="E152" s="163" t="s">
         <v>569</v>
       </c>
-      <c r="F152" s="193" t="s">
+      <c r="F152" s="159" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="153" spans="1:25">
-      <c r="A153" s="197"/>
-      <c r="B153" s="193"/>
-      <c r="C153" s="257"/>
-      <c r="D153" s="195" t="s">
+      <c r="A153" s="163"/>
+      <c r="B153" s="159"/>
+      <c r="C153" s="229"/>
+      <c r="D153" s="161" t="s">
         <v>567</v>
       </c>
-      <c r="E153" s="197" t="s">
+      <c r="E153" s="163" t="s">
         <v>568</v>
       </c>
-      <c r="F153" s="195" t="s">
+      <c r="F153" s="161" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="154" spans="1:25">
-      <c r="A154" s="197"/>
-      <c r="B154" s="193"/>
-      <c r="C154" s="257"/>
-      <c r="D154" s="195" t="s">
+      <c r="A154" s="163"/>
+      <c r="B154" s="159"/>
+      <c r="C154" s="229"/>
+      <c r="D154" s="161" t="s">
         <v>570</v>
       </c>
-      <c r="E154" s="197" t="s">
+      <c r="E154" s="163" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="155" spans="1:25">
-      <c r="A155" s="197"/>
-      <c r="B155" s="193"/>
-      <c r="C155" s="257"/>
-      <c r="D155" s="198"/>
-      <c r="E155" s="258"/>
+      <c r="A155" s="163"/>
+      <c r="B155" s="159"/>
+      <c r="C155" s="229"/>
+      <c r="D155" s="164"/>
+      <c r="E155" s="221"/>
     </row>
     <row r="156" spans="1:25">
-      <c r="A156" s="197"/>
-      <c r="B156" s="193"/>
-      <c r="C156" s="257"/>
-      <c r="D156" s="195"/>
-      <c r="E156" s="258"/>
+      <c r="A156" s="163"/>
+      <c r="B156" s="159"/>
+      <c r="C156" s="229"/>
+      <c r="D156" s="161"/>
+      <c r="E156" s="221"/>
     </row>
     <row r="157" spans="1:25">
-      <c r="A157" s="197"/>
-      <c r="B157" s="193"/>
-      <c r="C157" s="257"/>
-      <c r="D157" s="195"/>
-      <c r="E157" s="197"/>
+      <c r="A157" s="163"/>
+      <c r="B157" s="159"/>
+      <c r="C157" s="229"/>
+      <c r="D157" s="161"/>
+      <c r="E157" s="163"/>
     </row>
     <row r="158" spans="1:25" s="22" customFormat="1" ht="7" customHeight="1">
       <c r="A158" s="19"/>
@@ -9896,6 +9896,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="V3:W3"/>
     <mergeCell ref="R1:S2"/>
     <mergeCell ref="C152:C157"/>
@@ -9912,12 +9918,6 @@
     <mergeCell ref="B96:C96"/>
     <mergeCell ref="P1:Q2"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
